--- a/www/docs/GermanConfederation_1820_1879_all_data.xlsx
+++ b/www/docs/GermanConfederation_1820_1879_all_data.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Data Clio Infra Format" r:id="rId3" sheetId="1"/>
-    <sheet name="Metadata" r:id="rId4" sheetId="2"/>
+    <sheet name="Data Long Format" r:id="rId4" sheetId="2"/>
+    <sheet name="Metadata" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="616">
   <si>
     <t>Webmapper code</t>
   </si>
@@ -1587,19 +1588,220 @@
     <t>2015</t>
   </si>
   <si>
-    <t>geacron/388</t>
-  </si>
-  <si>
-    <t>geacron/389</t>
+    <t>c("geacron/388", "geacron/389", "geacron/388", "geacron/389")</t>
+  </si>
+  <si>
+    <t>c(388, 389, 388, 389)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c("German Confederation", "German Confederation", "German Confederation", "German Confederation")</t>
+  </si>
+  <si>
+    <t>c("1820", "1840", "1820", "1840")</t>
+  </si>
+  <si>
+    <t>c("1839", "1879", "1839", "1879")</t>
+  </si>
+  <si>
+    <t>c("Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Labourers_Wage-historical.xlsx", "Labourers_Wage-historical.xlsx")</t>
+  </si>
+  <si>
+    <t>c("Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Labourers Real Wage", "Labourers Real Wage")</t>
+  </si>
+  <si>
+    <t>c(13.8696255201, NA, 8.42668785973166, NA)</t>
+  </si>
+  <si>
+    <t>c(14.3204926249, NA, 9.75721752179455, NA)</t>
+  </si>
+  <si>
+    <t>c(14.1103428813, NA, 9.75721752179455, NA)</t>
+  </si>
+  <si>
+    <t>c(14.2694063927, NA, 9.26935664570483, NA)</t>
+  </si>
+  <si>
+    <t>c(13.9899272524, NA, 12.3591421942731, NA)</t>
+  </si>
+  <si>
+    <t>c(13.8408304498, NA, 12.785319511317, NA)</t>
+  </si>
+  <si>
+    <t>c(14.1302811926, NA, 11.2355838129755, NA)</t>
+  </si>
+  <si>
+    <t>c(13.9198218263, NA, 9.50703245713315, NA)</t>
+  </si>
+  <si>
+    <t>c(13.8007176373, NA, 9.26935664570483, NA)</t>
+  </si>
+  <si>
+    <t>c(13.9004726161, NA, 9.26935664570483, NA)</t>
+  </si>
+  <si>
+    <t>c(14.0193466984, NA, 8.6226573448417, NA)</t>
+  </si>
+  <si>
+    <t>c(13.7494843943, NA, 7.41548531656386, NA)</t>
+  </si>
+  <si>
+    <t>c(13.9508928571, NA, 7.8888141665573, NA)</t>
+  </si>
+  <si>
+    <t>c(13.7005069188, NA, 10.0209261034647, NA)</t>
+  </si>
+  <si>
+    <t>c(13.7608366589, NA, 9.75721752179455, NA)</t>
+  </si>
+  <si>
+    <t>c(13.8102472034, NA, 10.0209261034647, NA)</t>
+  </si>
+  <si>
+    <t>c(13.8102472034, NA, 9.75721752179455, NA)</t>
+  </si>
+  <si>
+    <t>c(13.7193030594, NA, 8.42668785973166, NA)</t>
+  </si>
+  <si>
+    <t>c(13.6202669572, NA, 8.06031012669985, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.5299688811, NA, 8.2394281295154)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.5998912009, NA, 11.4332837290479)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.7193030594, NA, 10.5702302958912)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.8102472034, NA, 10.1816172130131)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.7494843943, NA, 11.2790675977714)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.86001386, NA, 10.1708771104677)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.8408304498, NA, 8.29746370803386)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.8007176373, NA, 7.47280643482603)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.8102472034, NA, 11.3242812514165)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.7892995036, NA, 12.9271772709812)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.7098985468, NA, 13.6894468233541)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.5098621994, NA, 11.4715367956429)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.6202669572, NA, 9.88396573797391)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.4408602151, NA, 10.6624040091341)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.3493525564, NA, 8.90968006242715)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.4898151895, NA, 8.36404686798227)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.5906496331, NA, 8.58415336450812)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.5391280802, NA, 10.4479583754125)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.4408602151, NA, 11.057553486485)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.3404482391, NA, 12.1376971805324)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.3600534402, NA, 11.4361503468238)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.5795763172, NA, 11.6466417573527)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.5007425408, NA, 11.6466417573527)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.5007425408, NA, 12.811305933088)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.5593220339, NA, 13.7263992140228)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.5795763172, NA, 13.2530751031945)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.5998912009, NA, 12.2012437457981)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.5906496331, NA, 10.1141888945431)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.6407038603, NA, 10.1141888945431)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.7005069188, NA, 11.9914636426833)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.6705399863, NA, 12.3181631804886)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.65001365, NA, 11.8043664989902)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.6705399863, NA, 12.9443372946154)</t>
+  </si>
+  <si>
+    <t>c(NA, 20.5212394829, NA, 11.7735236136691)</t>
+  </si>
+  <si>
+    <t>c(NA, 20.6100577082, NA, 11.5711017484616)</t>
+  </si>
+  <si>
+    <t>c(NA, 20.7210940738, NA, 12.7542733964417)</t>
+  </si>
+  <si>
+    <t>c(NA, 20.6440957886, NA, 13.2750945106034)</t>
+  </si>
+  <si>
+    <t>c(NA, 20.6398348813, NA, 12.9481399740518)</t>
+  </si>
+  <si>
+    <t>c(NA, 20.6270627063, NA, 13.5096939897914)</t>
+  </si>
+  <si>
+    <t>c(NA, 20.6100577082, NA, 13.7632854286324)</t>
+  </si>
+  <si>
+    <t>Borders Start Year</t>
+  </si>
+  <si>
+    <t>Borders End Year</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
   <si>
     <t>German Confederation</t>
-  </si>
-  <si>
-    <t>Exchange_Rates_UK-historical.xlsx</t>
-  </si>
-  <si>
-    <t>Labourers_Wage-historical.xlsx</t>
   </si>
   <si>
     <t>Exchange Rates to UK Pound</t>
@@ -3288,605 +3490,1585 @@
       <c r="A2" t="s">
         <v>524</v>
       </c>
-      <c r="B2" t="n">
-        <v>388.0</v>
-      </c>
-      <c r="C2"/>
+      <c r="B2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C2" t="s">
+        <v>526</v>
+      </c>
       <c r="D2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E2" t="s">
-        <v>328</v>
+        <v>528</v>
       </c>
       <c r="F2" t="s">
-        <v>347</v>
+        <v>529</v>
       </c>
       <c r="G2" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="H2" t="s">
-        <v>529</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
-      <c r="AL2"/>
-      <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
-      <c r="AP2"/>
-      <c r="AQ2"/>
-      <c r="AR2"/>
-      <c r="AS2"/>
-      <c r="AT2"/>
-      <c r="AU2"/>
-      <c r="AV2"/>
-      <c r="AW2"/>
-      <c r="AX2"/>
-      <c r="AY2"/>
-      <c r="AZ2"/>
-      <c r="BA2"/>
-      <c r="BB2"/>
-      <c r="BC2"/>
-      <c r="BD2"/>
-      <c r="BE2"/>
-      <c r="BF2"/>
-      <c r="BG2"/>
-      <c r="BH2"/>
-      <c r="BI2"/>
-      <c r="BJ2"/>
-      <c r="BK2"/>
-      <c r="BL2"/>
-      <c r="BM2"/>
-      <c r="BN2"/>
-      <c r="BO2"/>
-      <c r="BP2"/>
-      <c r="BQ2"/>
-      <c r="BR2"/>
-      <c r="BS2"/>
-      <c r="BT2"/>
-      <c r="BU2"/>
-      <c r="BV2"/>
-      <c r="BW2"/>
-      <c r="BX2"/>
-      <c r="BY2"/>
-      <c r="BZ2"/>
-      <c r="CA2"/>
-      <c r="CB2"/>
-      <c r="CC2"/>
-      <c r="CD2"/>
-      <c r="CE2"/>
-      <c r="CF2"/>
-      <c r="CG2"/>
-      <c r="CH2"/>
-      <c r="CI2"/>
-      <c r="CJ2"/>
-      <c r="CK2"/>
-      <c r="CL2"/>
-      <c r="CM2"/>
-      <c r="CN2"/>
-      <c r="CO2"/>
-      <c r="CP2"/>
-      <c r="CQ2"/>
-      <c r="CR2"/>
-      <c r="CS2"/>
-      <c r="CT2"/>
-      <c r="CU2"/>
-      <c r="CV2"/>
-      <c r="CW2"/>
-      <c r="CX2"/>
-      <c r="CY2"/>
-      <c r="CZ2"/>
-      <c r="DA2"/>
-      <c r="DB2"/>
-      <c r="DC2"/>
-      <c r="DD2"/>
-      <c r="DE2"/>
-      <c r="DF2"/>
-      <c r="DG2"/>
-      <c r="DH2"/>
-      <c r="DI2"/>
-      <c r="DJ2"/>
-      <c r="DK2"/>
-      <c r="DL2"/>
-      <c r="DM2"/>
-      <c r="DN2"/>
-      <c r="DO2"/>
-      <c r="DP2"/>
-      <c r="DQ2"/>
-      <c r="DR2"/>
-      <c r="DS2"/>
-      <c r="DT2"/>
-      <c r="DU2"/>
-      <c r="DV2"/>
-      <c r="DW2"/>
-      <c r="DX2"/>
-      <c r="DY2"/>
-      <c r="DZ2"/>
-      <c r="EA2"/>
-      <c r="EB2"/>
-      <c r="EC2"/>
-      <c r="ED2"/>
-      <c r="EE2"/>
-      <c r="EF2"/>
-      <c r="EG2"/>
-      <c r="EH2"/>
-      <c r="EI2"/>
-      <c r="EJ2"/>
-      <c r="EK2"/>
-      <c r="EL2"/>
-      <c r="EM2"/>
-      <c r="EN2"/>
-      <c r="EO2"/>
-      <c r="EP2"/>
-      <c r="EQ2"/>
-      <c r="ER2"/>
-      <c r="ES2"/>
-      <c r="ET2"/>
-      <c r="EU2"/>
-      <c r="EV2"/>
-      <c r="EW2"/>
-      <c r="EX2"/>
-      <c r="EY2"/>
-      <c r="EZ2"/>
-      <c r="FA2"/>
-      <c r="FB2"/>
-      <c r="FC2"/>
-      <c r="FD2"/>
-      <c r="FE2"/>
-      <c r="FF2"/>
-      <c r="FG2"/>
-      <c r="FH2"/>
-      <c r="FI2"/>
-      <c r="FJ2"/>
-      <c r="FK2"/>
-      <c r="FL2"/>
-      <c r="FM2"/>
-      <c r="FN2"/>
-      <c r="FO2"/>
-      <c r="FP2"/>
-      <c r="FQ2"/>
-      <c r="FR2"/>
-      <c r="FS2"/>
-      <c r="FT2"/>
-      <c r="FU2"/>
-      <c r="FV2"/>
-      <c r="FW2"/>
-      <c r="FX2"/>
-      <c r="FY2"/>
-      <c r="FZ2"/>
-      <c r="GA2"/>
-      <c r="GB2"/>
-      <c r="GC2"/>
-      <c r="GD2"/>
-      <c r="GE2"/>
-      <c r="GF2"/>
-      <c r="GG2"/>
-      <c r="GH2"/>
-      <c r="GI2"/>
-      <c r="GJ2"/>
-      <c r="GK2"/>
-      <c r="GL2"/>
-      <c r="GM2"/>
-      <c r="GN2"/>
-      <c r="GO2"/>
-      <c r="GP2"/>
-      <c r="GQ2"/>
-      <c r="GR2"/>
-      <c r="GS2"/>
-      <c r="GT2"/>
-      <c r="GU2"/>
-      <c r="GV2"/>
-      <c r="GW2"/>
-      <c r="GX2"/>
-      <c r="GY2"/>
-      <c r="GZ2"/>
-      <c r="HA2"/>
-      <c r="HB2"/>
-      <c r="HC2"/>
-      <c r="HD2"/>
-      <c r="HE2"/>
-      <c r="HF2"/>
-      <c r="HG2"/>
-      <c r="HH2"/>
-      <c r="HI2"/>
-      <c r="HJ2"/>
-      <c r="HK2"/>
-      <c r="HL2"/>
-      <c r="HM2"/>
-      <c r="HN2"/>
-      <c r="HO2"/>
-      <c r="HP2"/>
-      <c r="HQ2"/>
-      <c r="HR2"/>
-      <c r="HS2"/>
-      <c r="HT2"/>
-      <c r="HU2"/>
-      <c r="HV2"/>
-      <c r="HW2"/>
-      <c r="HX2"/>
-      <c r="HY2"/>
-      <c r="HZ2"/>
-      <c r="IA2"/>
-      <c r="IB2"/>
-      <c r="IC2"/>
-      <c r="ID2"/>
-      <c r="IE2"/>
-      <c r="IF2"/>
-      <c r="IG2"/>
-      <c r="IH2"/>
-      <c r="II2"/>
-      <c r="IJ2"/>
-      <c r="IK2"/>
-      <c r="IL2"/>
-      <c r="IM2"/>
-      <c r="IN2"/>
-      <c r="IO2"/>
-      <c r="IP2"/>
-      <c r="IQ2"/>
-      <c r="IR2"/>
-      <c r="IS2"/>
-      <c r="IT2"/>
-      <c r="IU2"/>
-      <c r="IV2"/>
-      <c r="IW2"/>
-      <c r="IX2"/>
-      <c r="IY2"/>
-      <c r="IZ2"/>
-      <c r="JA2"/>
-      <c r="JB2"/>
-      <c r="JC2"/>
-      <c r="JD2"/>
-      <c r="JE2"/>
-      <c r="JF2"/>
-      <c r="JG2"/>
-      <c r="JH2"/>
-      <c r="JI2"/>
-      <c r="JJ2"/>
-      <c r="JK2"/>
-      <c r="JL2"/>
-      <c r="JM2"/>
-      <c r="JN2"/>
-      <c r="JO2"/>
-      <c r="JP2"/>
-      <c r="JQ2"/>
-      <c r="JR2"/>
-      <c r="JS2"/>
-      <c r="JT2"/>
-      <c r="JU2"/>
-      <c r="JV2"/>
-      <c r="JW2"/>
-      <c r="JX2"/>
-      <c r="JY2"/>
-      <c r="JZ2"/>
-      <c r="KA2"/>
-      <c r="KB2"/>
-      <c r="KC2"/>
-      <c r="KD2"/>
-      <c r="KE2"/>
-      <c r="KF2"/>
-      <c r="KG2"/>
-      <c r="KH2"/>
-      <c r="KI2"/>
-      <c r="KJ2"/>
-      <c r="KK2"/>
-      <c r="KL2"/>
-      <c r="KM2"/>
-      <c r="KN2"/>
-      <c r="KO2"/>
-      <c r="KP2"/>
-      <c r="KQ2"/>
-      <c r="KR2"/>
-      <c r="KS2"/>
-      <c r="KT2"/>
-      <c r="KU2"/>
-      <c r="KV2"/>
-      <c r="KW2"/>
-      <c r="KX2"/>
-      <c r="KY2"/>
-      <c r="KZ2"/>
-      <c r="LA2"/>
-      <c r="LB2"/>
-      <c r="LC2"/>
-      <c r="LD2"/>
-      <c r="LE2"/>
-      <c r="LF2"/>
-      <c r="LG2"/>
-      <c r="LH2"/>
-      <c r="LI2"/>
-      <c r="LJ2"/>
-      <c r="LK2"/>
-      <c r="LL2"/>
-      <c r="LM2"/>
-      <c r="LN2"/>
-      <c r="LO2"/>
-      <c r="LP2"/>
-      <c r="LQ2" t="n">
-        <v>13.8696255201</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>14.3204926249</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>14.110342881300001</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>14.2694063927</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>13.9899272524</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>13.8408304498</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>14.1302811926</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>13.919821826300002</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>13.8007176373</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>13.900472616099998</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>14.0193466984</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>13.749484394300001</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>13.950892857100001</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>13.8696255201</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>13.7005069188</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>13.7608366589</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>13.8102472034</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>13.8102472034</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>13.719303059400001</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>13.6202669572</v>
-      </c>
-      <c r="MK2"/>
-      <c r="ML2"/>
-      <c r="MM2"/>
-      <c r="MN2"/>
-      <c r="MO2"/>
-      <c r="MP2"/>
-      <c r="MQ2"/>
-      <c r="MR2"/>
-      <c r="MS2"/>
-      <c r="MT2"/>
-      <c r="MU2"/>
-      <c r="MV2"/>
-      <c r="MW2"/>
-      <c r="MX2"/>
-      <c r="MY2"/>
-      <c r="MZ2"/>
-      <c r="NA2"/>
-      <c r="NB2"/>
-      <c r="NC2"/>
-      <c r="ND2"/>
-      <c r="NE2"/>
-      <c r="NF2"/>
-      <c r="NG2"/>
-      <c r="NH2"/>
-      <c r="NI2"/>
-      <c r="NJ2"/>
-      <c r="NK2"/>
-      <c r="NL2"/>
-      <c r="NM2"/>
-      <c r="NN2"/>
-      <c r="NO2"/>
-      <c r="NP2"/>
-      <c r="NQ2"/>
-      <c r="NR2"/>
-      <c r="NS2"/>
-      <c r="NT2"/>
-      <c r="NU2"/>
-      <c r="NV2"/>
-      <c r="NW2"/>
-      <c r="NX2"/>
-      <c r="NY2"/>
-      <c r="NZ2"/>
-      <c r="OA2"/>
-      <c r="OB2"/>
-      <c r="OC2"/>
-      <c r="OD2"/>
-      <c r="OE2"/>
-      <c r="OF2"/>
-      <c r="OG2"/>
-      <c r="OH2"/>
-      <c r="OI2"/>
-      <c r="OJ2"/>
-      <c r="OK2"/>
-      <c r="OL2"/>
-      <c r="OM2"/>
-      <c r="ON2"/>
-      <c r="OO2"/>
-      <c r="OP2"/>
-      <c r="OQ2"/>
-      <c r="OR2"/>
-      <c r="OS2"/>
-      <c r="OT2"/>
-      <c r="OU2"/>
-      <c r="OV2"/>
-      <c r="OW2"/>
-      <c r="OX2"/>
-      <c r="OY2"/>
-      <c r="OZ2"/>
-      <c r="PA2"/>
-      <c r="PB2"/>
-      <c r="PC2"/>
-      <c r="PD2"/>
-      <c r="PE2"/>
-      <c r="PF2"/>
-      <c r="PG2"/>
-      <c r="PH2"/>
-      <c r="PI2"/>
-      <c r="PJ2"/>
-      <c r="PK2"/>
-      <c r="PL2"/>
-      <c r="PM2"/>
-      <c r="PN2"/>
-      <c r="PO2"/>
-      <c r="PP2"/>
-      <c r="PQ2"/>
-      <c r="PR2"/>
-      <c r="PS2"/>
-      <c r="PT2"/>
-      <c r="PU2"/>
-      <c r="PV2"/>
-      <c r="PW2"/>
-      <c r="PX2"/>
-      <c r="PY2"/>
-      <c r="PZ2"/>
-      <c r="QA2"/>
-      <c r="QB2"/>
-      <c r="QC2"/>
-      <c r="QD2"/>
-      <c r="QE2"/>
-      <c r="QF2"/>
-      <c r="QG2"/>
-      <c r="QH2"/>
-      <c r="QI2"/>
-      <c r="QJ2"/>
-      <c r="QK2"/>
-      <c r="QL2"/>
-      <c r="QM2"/>
-      <c r="QN2"/>
-      <c r="QO2"/>
-      <c r="QP2"/>
-      <c r="QQ2"/>
-      <c r="QR2"/>
-      <c r="QS2"/>
-      <c r="QT2"/>
-      <c r="QU2"/>
-      <c r="QV2"/>
-      <c r="QW2"/>
-      <c r="QX2"/>
-      <c r="QY2"/>
-      <c r="QZ2"/>
-      <c r="RA2"/>
-      <c r="RB2"/>
-      <c r="RC2"/>
-      <c r="RD2"/>
-      <c r="RE2"/>
-      <c r="RF2"/>
-      <c r="RG2"/>
-      <c r="RH2"/>
-      <c r="RI2"/>
-      <c r="RJ2"/>
-      <c r="RK2"/>
-      <c r="RL2"/>
-      <c r="RM2"/>
-      <c r="RN2"/>
-      <c r="RO2"/>
-      <c r="RP2"/>
-      <c r="RQ2"/>
-      <c r="RR2"/>
-      <c r="RS2"/>
-      <c r="RT2"/>
-      <c r="RU2"/>
-      <c r="RV2"/>
-      <c r="RW2"/>
-      <c r="RX2"/>
-      <c r="RY2"/>
-      <c r="RZ2"/>
-      <c r="SA2"/>
-      <c r="SB2"/>
-      <c r="SC2"/>
-      <c r="SD2"/>
-      <c r="SE2"/>
-      <c r="SF2"/>
-      <c r="SG2"/>
-      <c r="SH2"/>
-      <c r="SI2"/>
-      <c r="SJ2"/>
-      <c r="SK2"/>
-      <c r="SL2"/>
-      <c r="SM2"/>
-      <c r="SN2"/>
-      <c r="SO2"/>
-      <c r="SP2"/>
-      <c r="SQ2"/>
-      <c r="SR2"/>
-      <c r="SS2"/>
-      <c r="ST2"/>
-      <c r="SU2"/>
-      <c r="SV2"/>
-      <c r="SW2"/>
-      <c r="SX2"/>
-      <c r="SY2"/>
-      <c r="SZ2"/>
-      <c r="TA2"/>
-      <c r="TB2"/>
-      <c r="TC2"/>
-      <c r="TD2"/>
+        <v>531</v>
+      </c>
+      <c r="I2" t="s">
+        <v>526</v>
+      </c>
+      <c r="J2" t="s">
+        <v>526</v>
+      </c>
+      <c r="K2" t="s">
+        <v>526</v>
+      </c>
+      <c r="L2" t="s">
+        <v>526</v>
+      </c>
+      <c r="M2" t="s">
+        <v>526</v>
+      </c>
+      <c r="N2" t="s">
+        <v>526</v>
+      </c>
+      <c r="O2" t="s">
+        <v>526</v>
+      </c>
+      <c r="P2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>526</v>
+      </c>
+      <c r="R2" t="s">
+        <v>526</v>
+      </c>
+      <c r="S2" t="s">
+        <v>526</v>
+      </c>
+      <c r="T2" t="s">
+        <v>526</v>
+      </c>
+      <c r="U2" t="s">
+        <v>526</v>
+      </c>
+      <c r="V2" t="s">
+        <v>526</v>
+      </c>
+      <c r="W2" t="s">
+        <v>526</v>
+      </c>
+      <c r="X2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ID2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="II2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LQ2" t="s">
+        <v>532</v>
+      </c>
+      <c r="LR2" t="s">
+        <v>533</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>534</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>535</v>
+      </c>
+      <c r="LU2" t="s">
+        <v>536</v>
+      </c>
+      <c r="LV2" t="s">
+        <v>537</v>
+      </c>
+      <c r="LW2" t="s">
+        <v>538</v>
+      </c>
+      <c r="LX2" t="s">
+        <v>539</v>
+      </c>
+      <c r="LY2" t="s">
+        <v>540</v>
+      </c>
+      <c r="LZ2" t="s">
+        <v>541</v>
+      </c>
+      <c r="MA2" t="s">
+        <v>542</v>
+      </c>
+      <c r="MB2" t="s">
+        <v>543</v>
+      </c>
+      <c r="MC2" t="s">
+        <v>544</v>
+      </c>
+      <c r="MD2" t="s">
+        <v>532</v>
+      </c>
+      <c r="ME2" t="s">
+        <v>545</v>
+      </c>
+      <c r="MF2" t="s">
+        <v>546</v>
+      </c>
+      <c r="MG2" t="s">
+        <v>547</v>
+      </c>
+      <c r="MH2" t="s">
+        <v>548</v>
+      </c>
+      <c r="MI2" t="s">
+        <v>549</v>
+      </c>
+      <c r="MJ2" t="s">
+        <v>550</v>
+      </c>
+      <c r="MK2" t="s">
+        <v>551</v>
+      </c>
+      <c r="ML2" t="s">
+        <v>552</v>
+      </c>
+      <c r="MM2" t="s">
+        <v>553</v>
+      </c>
+      <c r="MN2" t="s">
+        <v>554</v>
+      </c>
+      <c r="MO2" t="s">
+        <v>555</v>
+      </c>
+      <c r="MP2" t="s">
+        <v>556</v>
+      </c>
+      <c r="MQ2" t="s">
+        <v>557</v>
+      </c>
+      <c r="MR2" t="s">
+        <v>558</v>
+      </c>
+      <c r="MS2" t="s">
+        <v>559</v>
+      </c>
+      <c r="MT2" t="s">
+        <v>560</v>
+      </c>
+      <c r="MU2" t="s">
+        <v>561</v>
+      </c>
+      <c r="MV2" t="s">
+        <v>562</v>
+      </c>
+      <c r="MW2" t="s">
+        <v>563</v>
+      </c>
+      <c r="MX2" t="s">
+        <v>564</v>
+      </c>
+      <c r="MY2" t="s">
+        <v>565</v>
+      </c>
+      <c r="MZ2" t="s">
+        <v>566</v>
+      </c>
+      <c r="NA2" t="s">
+        <v>567</v>
+      </c>
+      <c r="NB2" t="s">
+        <v>568</v>
+      </c>
+      <c r="NC2" t="s">
+        <v>569</v>
+      </c>
+      <c r="ND2" t="s">
+        <v>570</v>
+      </c>
+      <c r="NE2" t="s">
+        <v>571</v>
+      </c>
+      <c r="NF2" t="s">
+        <v>572</v>
+      </c>
+      <c r="NG2" t="s">
+        <v>573</v>
+      </c>
+      <c r="NH2" t="s">
+        <v>574</v>
+      </c>
+      <c r="NI2" t="s">
+        <v>575</v>
+      </c>
+      <c r="NJ2" t="s">
+        <v>576</v>
+      </c>
+      <c r="NK2" t="s">
+        <v>577</v>
+      </c>
+      <c r="NL2" t="s">
+        <v>578</v>
+      </c>
+      <c r="NM2" t="s">
+        <v>579</v>
+      </c>
+      <c r="NN2" t="s">
+        <v>580</v>
+      </c>
+      <c r="NO2" t="s">
+        <v>581</v>
+      </c>
+      <c r="NP2" t="s">
+        <v>582</v>
+      </c>
+      <c r="NQ2" t="s">
+        <v>583</v>
+      </c>
+      <c r="NR2" t="s">
+        <v>584</v>
+      </c>
+      <c r="NS2" t="s">
+        <v>585</v>
+      </c>
+      <c r="NT2" t="s">
+        <v>586</v>
+      </c>
+      <c r="NU2" t="s">
+        <v>587</v>
+      </c>
+      <c r="NV2" t="s">
+        <v>588</v>
+      </c>
+      <c r="NW2" t="s">
+        <v>589</v>
+      </c>
+      <c r="NX2" t="s">
+        <v>590</v>
+      </c>
+      <c r="NY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ON2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ST2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="TA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="TB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="TC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="TD2" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B3" t="n">
-        <v>389.0</v>
-      </c>
+      <c r="A3"/>
+      <c r="B3"/>
       <c r="C3"/>
-      <c r="D3" t="s">
-        <v>526</v>
-      </c>
-      <c r="E3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F3" t="s">
-        <v>387</v>
-      </c>
-      <c r="G3" t="s">
-        <v>527</v>
-      </c>
-      <c r="H3" t="s">
-        <v>529</v>
-      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -4227,126 +5409,46 @@
       <c r="MH3"/>
       <c r="MI3"/>
       <c r="MJ3"/>
-      <c r="MK3" t="n">
-        <v>13.529968881099999</v>
-      </c>
-      <c r="ML3" t="n">
-        <v>13.599891200899998</v>
-      </c>
-      <c r="MM3" t="n">
-        <v>13.719303059400001</v>
-      </c>
-      <c r="MN3" t="n">
-        <v>13.8102472034</v>
-      </c>
-      <c r="MO3" t="n">
-        <v>13.749484394300001</v>
-      </c>
-      <c r="MP3" t="n">
-        <v>13.86001386</v>
-      </c>
-      <c r="MQ3" t="n">
-        <v>13.8408304498</v>
-      </c>
-      <c r="MR3" t="n">
-        <v>13.8007176373</v>
-      </c>
-      <c r="MS3" t="n">
-        <v>13.8102472034</v>
-      </c>
-      <c r="MT3" t="n">
-        <v>13.789299503599999</v>
-      </c>
-      <c r="MU3" t="n">
-        <v>13.7098985468</v>
-      </c>
-      <c r="MV3" t="n">
-        <v>13.5098621994</v>
-      </c>
-      <c r="MW3" t="n">
-        <v>13.6202669572</v>
-      </c>
-      <c r="MX3" t="n">
-        <v>13.4408602151</v>
-      </c>
-      <c r="MY3" t="n">
-        <v>13.349352556400001</v>
-      </c>
-      <c r="MZ3" t="n">
-        <v>13.4898151895</v>
-      </c>
-      <c r="NA3" t="n">
-        <v>13.5906496331</v>
-      </c>
-      <c r="NB3" t="n">
-        <v>13.5391280802</v>
-      </c>
-      <c r="NC3" t="n">
-        <v>13.4408602151</v>
-      </c>
-      <c r="ND3" t="n">
-        <v>13.3404482391</v>
-      </c>
-      <c r="NE3" t="n">
-        <v>13.3600534402</v>
-      </c>
-      <c r="NF3" t="n">
-        <v>13.5795763172</v>
-      </c>
-      <c r="NG3" t="n">
-        <v>13.5007425408</v>
-      </c>
-      <c r="NH3" t="n">
-        <v>13.5007425408</v>
-      </c>
-      <c r="NI3" t="n">
-        <v>13.559322033900001</v>
-      </c>
-      <c r="NJ3" t="n">
-        <v>13.5795763172</v>
-      </c>
-      <c r="NK3" t="n">
-        <v>13.599891200899998</v>
-      </c>
-      <c r="NL3" t="n">
-        <v>13.5906496331</v>
-      </c>
-      <c r="NM3" t="n">
-        <v>13.6407038603</v>
-      </c>
-      <c r="NN3" t="n">
-        <v>13.7005069188</v>
-      </c>
-      <c r="NO3" t="n">
-        <v>13.670539986300001</v>
-      </c>
-      <c r="NP3" t="n">
-        <v>13.65001365</v>
-      </c>
-      <c r="NQ3" t="n">
-        <v>13.670539986300001</v>
-      </c>
-      <c r="NR3" t="n">
-        <v>20.5212394829</v>
-      </c>
-      <c r="NS3" t="n">
-        <v>20.6100577082</v>
-      </c>
-      <c r="NT3" t="n">
-        <v>20.7210940738</v>
-      </c>
-      <c r="NU3" t="n">
-        <v>20.644095788599998</v>
-      </c>
-      <c r="NV3" t="n">
-        <v>20.6398348813</v>
-      </c>
-      <c r="NW3" t="n">
-        <v>20.627062706300002</v>
-      </c>
-      <c r="NX3" t="n">
-        <v>20.6100577082</v>
-      </c>
+      <c r="MK3"/>
+      <c r="ML3"/>
+      <c r="MM3"/>
+      <c r="MN3"/>
+      <c r="MO3"/>
+      <c r="MP3"/>
+      <c r="MQ3"/>
+      <c r="MR3"/>
+      <c r="MS3"/>
+      <c r="MT3"/>
+      <c r="MU3"/>
+      <c r="MV3"/>
+      <c r="MW3"/>
+      <c r="MX3"/>
+      <c r="MY3"/>
+      <c r="MZ3"/>
+      <c r="NA3"/>
+      <c r="NB3"/>
+      <c r="NC3"/>
+      <c r="ND3"/>
+      <c r="NE3"/>
+      <c r="NF3"/>
+      <c r="NG3"/>
+      <c r="NH3"/>
+      <c r="NI3"/>
+      <c r="NJ3"/>
+      <c r="NK3"/>
+      <c r="NL3"/>
+      <c r="NM3"/>
+      <c r="NN3"/>
+      <c r="NO3"/>
+      <c r="NP3"/>
+      <c r="NQ3"/>
+      <c r="NR3"/>
+      <c r="NS3"/>
+      <c r="NT3"/>
+      <c r="NU3"/>
+      <c r="NV3"/>
+      <c r="NW3"/>
+      <c r="NX3"/>
       <c r="NY3"/>
       <c r="NZ3"/>
       <c r="OA3"/>
@@ -4485,28 +5587,14 @@
       <c r="TD3"/>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>524</v>
-      </c>
-      <c r="B4" t="n">
-        <v>388.0</v>
-      </c>
+      <c r="A4"/>
+      <c r="B4"/>
       <c r="C4"/>
-      <c r="D4" t="s">
-        <v>526</v>
-      </c>
-      <c r="E4" t="s">
-        <v>328</v>
-      </c>
-      <c r="F4" t="s">
-        <v>347</v>
-      </c>
-      <c r="G4" t="s">
-        <v>528</v>
-      </c>
-      <c r="H4" t="s">
-        <v>530</v>
-      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
@@ -4827,66 +5915,26 @@
       <c r="LN4"/>
       <c r="LO4"/>
       <c r="LP4"/>
-      <c r="LQ4" t="n">
-        <v>8.42668785973166</v>
-      </c>
-      <c r="LR4" t="n">
-        <v>9.75721752179455</v>
-      </c>
-      <c r="LS4" t="n">
-        <v>9.75721752179455</v>
-      </c>
-      <c r="LT4" t="n">
-        <v>9.26935664570483</v>
-      </c>
-      <c r="LU4" t="n">
-        <v>12.3591421942731</v>
-      </c>
-      <c r="LV4" t="n">
-        <v>12.785319511317</v>
-      </c>
-      <c r="LW4" t="n">
-        <v>11.2355838129755</v>
-      </c>
-      <c r="LX4" t="n">
-        <v>9.50703245713315</v>
-      </c>
-      <c r="LY4" t="n">
-        <v>9.26935664570483</v>
-      </c>
-      <c r="LZ4" t="n">
-        <v>9.26935664570483</v>
-      </c>
-      <c r="MA4" t="n">
-        <v>8.6226573448417</v>
-      </c>
-      <c r="MB4" t="n">
-        <v>7.41548531656386</v>
-      </c>
-      <c r="MC4" t="n">
-        <v>7.8888141665573</v>
-      </c>
-      <c r="MD4" t="n">
-        <v>8.42668785973166</v>
-      </c>
-      <c r="ME4" t="n">
-        <v>10.0209261034647</v>
-      </c>
-      <c r="MF4" t="n">
-        <v>9.75721752179455</v>
-      </c>
-      <c r="MG4" t="n">
-        <v>10.0209261034647</v>
-      </c>
-      <c r="MH4" t="n">
-        <v>9.75721752179455</v>
-      </c>
-      <c r="MI4" t="n">
-        <v>8.42668785973166</v>
-      </c>
-      <c r="MJ4" t="n">
-        <v>8.06031012669985</v>
-      </c>
+      <c r="LQ4"/>
+      <c r="LR4"/>
+      <c r="LS4"/>
+      <c r="LT4"/>
+      <c r="LU4"/>
+      <c r="LV4"/>
+      <c r="LW4"/>
+      <c r="LX4"/>
+      <c r="LY4"/>
+      <c r="LZ4"/>
+      <c r="MA4"/>
+      <c r="MB4"/>
+      <c r="MC4"/>
+      <c r="MD4"/>
+      <c r="ME4"/>
+      <c r="MF4"/>
+      <c r="MG4"/>
+      <c r="MH4"/>
+      <c r="MI4"/>
+      <c r="MJ4"/>
       <c r="MK4"/>
       <c r="ML4"/>
       <c r="MM4"/>
@@ -5065,28 +6113,14 @@
       <c r="TD4"/>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>525</v>
-      </c>
-      <c r="B5" t="n">
-        <v>389.0</v>
-      </c>
+      <c r="A5"/>
+      <c r="B5"/>
       <c r="C5"/>
-      <c r="D5" t="s">
-        <v>526</v>
-      </c>
-      <c r="E5" t="s">
-        <v>348</v>
-      </c>
-      <c r="F5" t="s">
-        <v>387</v>
-      </c>
-      <c r="G5" t="s">
-        <v>528</v>
-      </c>
-      <c r="H5" t="s">
-        <v>530</v>
-      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
@@ -5427,126 +6461,46 @@
       <c r="MH5"/>
       <c r="MI5"/>
       <c r="MJ5"/>
-      <c r="MK5" t="n">
-        <v>8.2394281295154</v>
-      </c>
-      <c r="ML5" t="n">
-        <v>11.4332837290479</v>
-      </c>
-      <c r="MM5" t="n">
-        <v>10.5702302958912</v>
-      </c>
-      <c r="MN5" t="n">
-        <v>10.1816172130131</v>
-      </c>
-      <c r="MO5" t="n">
-        <v>11.2790675977714</v>
-      </c>
-      <c r="MP5" t="n">
-        <v>10.1708771104677</v>
-      </c>
-      <c r="MQ5" t="n">
-        <v>8.29746370803386</v>
-      </c>
-      <c r="MR5" t="n">
-        <v>7.47280643482603</v>
-      </c>
-      <c r="MS5" t="n">
-        <v>11.3242812514165</v>
-      </c>
-      <c r="MT5" t="n">
-        <v>12.9271772709812</v>
-      </c>
-      <c r="MU5" t="n">
-        <v>13.6894468233541</v>
-      </c>
-      <c r="MV5" t="n">
-        <v>11.4715367956429</v>
-      </c>
-      <c r="MW5" t="n">
-        <v>9.88396573797391</v>
-      </c>
-      <c r="MX5" t="n">
-        <v>10.6624040091341</v>
-      </c>
-      <c r="MY5" t="n">
-        <v>8.90968006242715</v>
-      </c>
-      <c r="MZ5" t="n">
-        <v>8.36404686798227</v>
-      </c>
-      <c r="NA5" t="n">
-        <v>8.58415336450812</v>
-      </c>
-      <c r="NB5" t="n">
-        <v>10.4479583754125</v>
-      </c>
-      <c r="NC5" t="n">
-        <v>11.057553486485</v>
-      </c>
-      <c r="ND5" t="n">
-        <v>12.1376971805324</v>
-      </c>
-      <c r="NE5" t="n">
-        <v>11.4361503468238</v>
-      </c>
-      <c r="NF5" t="n">
-        <v>11.6466417573527</v>
-      </c>
-      <c r="NG5" t="n">
-        <v>11.6466417573527</v>
-      </c>
-      <c r="NH5" t="n">
-        <v>12.811305933088</v>
-      </c>
-      <c r="NI5" t="n">
-        <v>13.7263992140228</v>
-      </c>
-      <c r="NJ5" t="n">
-        <v>13.2530751031945</v>
-      </c>
-      <c r="NK5" t="n">
-        <v>12.2012437457981</v>
-      </c>
-      <c r="NL5" t="n">
-        <v>10.1141888945431</v>
-      </c>
-      <c r="NM5" t="n">
-        <v>10.1141888945431</v>
-      </c>
-      <c r="NN5" t="n">
-        <v>11.9914636426833</v>
-      </c>
-      <c r="NO5" t="n">
-        <v>12.3181631804886</v>
-      </c>
-      <c r="NP5" t="n">
-        <v>11.8043664989902</v>
-      </c>
-      <c r="NQ5" t="n">
-        <v>12.9443372946154</v>
-      </c>
-      <c r="NR5" t="n">
-        <v>11.7735236136691</v>
-      </c>
-      <c r="NS5" t="n">
-        <v>11.5711017484616</v>
-      </c>
-      <c r="NT5" t="n">
-        <v>12.7542733964417</v>
-      </c>
-      <c r="NU5" t="n">
-        <v>13.2750945106034</v>
-      </c>
-      <c r="NV5" t="n">
-        <v>12.9481399740518</v>
-      </c>
-      <c r="NW5" t="n">
-        <v>13.5096939897914</v>
-      </c>
-      <c r="NX5" t="n">
-        <v>13.7632854286324</v>
-      </c>
+      <c r="MK5"/>
+      <c r="ML5"/>
+      <c r="MM5"/>
+      <c r="MN5"/>
+      <c r="MO5"/>
+      <c r="MP5"/>
+      <c r="MQ5"/>
+      <c r="MR5"/>
+      <c r="MS5"/>
+      <c r="MT5"/>
+      <c r="MU5"/>
+      <c r="MV5"/>
+      <c r="MW5"/>
+      <c r="MX5"/>
+      <c r="MY5"/>
+      <c r="MZ5"/>
+      <c r="NA5"/>
+      <c r="NB5"/>
+      <c r="NC5"/>
+      <c r="ND5"/>
+      <c r="NE5"/>
+      <c r="NF5"/>
+      <c r="NG5"/>
+      <c r="NH5"/>
+      <c r="NI5"/>
+      <c r="NJ5"/>
+      <c r="NK5"/>
+      <c r="NL5"/>
+      <c r="NM5"/>
+      <c r="NN5"/>
+      <c r="NO5"/>
+      <c r="NP5"/>
+      <c r="NQ5"/>
+      <c r="NR5"/>
+      <c r="NS5"/>
+      <c r="NT5"/>
+      <c r="NU5"/>
+      <c r="NV5"/>
+      <c r="NW5"/>
+      <c r="NX5"/>
       <c r="NY5"/>
       <c r="NZ5"/>
       <c r="OA5"/>
@@ -5699,112 +6653,2545 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>531</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>532</v>
+        <v>591</v>
       </c>
       <c r="C1" t="s">
-        <v>533</v>
+        <v>592</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F1" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>534</v>
-      </c>
-      <c r="B2" t="s">
-        <v>539</v>
-      </c>
-      <c r="C2" t="s">
-        <v>540</v>
+        <v>595</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>596</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13.869626</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>535</v>
-      </c>
-      <c r="B3" t="s">
-        <v>529</v>
-      </c>
-      <c r="C3" t="s">
-        <v>541</v>
+        <v>595</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>597</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8.426688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>535</v>
-      </c>
-      <c r="B4" t="s">
-        <v>530</v>
-      </c>
-      <c r="C4" t="s">
-        <v>542</v>
+        <v>595</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>596</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1821.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14.320493</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>536</v>
-      </c>
-      <c r="B5" t="s">
-        <v>529</v>
-      </c>
-      <c r="C5" t="s">
-        <v>543</v>
+        <v>595</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>597</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1821.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.757218</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>537</v>
-      </c>
-      <c r="B6" t="s">
-        <v>529</v>
-      </c>
-      <c r="C6" t="s">
-        <v>544</v>
+        <v>595</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>596</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1822.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14.110343</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>538</v>
-      </c>
-      <c r="B7" t="s">
-        <v>529</v>
-      </c>
-      <c r="C7" t="s">
-        <v>545</v>
+        <v>595</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>597</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1822.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.757218</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>536</v>
-      </c>
-      <c r="B8" t="s">
-        <v>530</v>
-      </c>
-      <c r="C8" t="s">
-        <v>546</v>
+        <v>595</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>596</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1823.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>14.269406</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>537</v>
-      </c>
-      <c r="B9" t="s">
-        <v>530</v>
-      </c>
-      <c r="C9" t="s">
-        <v>547</v>
+        <v>595</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>597</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1823.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9.269357</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>538</v>
+        <v>595</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>596</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1824.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>13.989927</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>595</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>597</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1824.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12.359142</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>595</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>596</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1825.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>13.84083</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>595</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>597</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1825.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12.78532</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>595</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>596</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1826.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>14.130281</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>595</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>597</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1826.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>11.235584</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>595</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>596</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1827.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>13.919822</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>595</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>597</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1827.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>9.507032</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>595</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>596</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1828.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>13.800718</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>595</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>597</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1828.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9.269357</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>595</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>596</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1829.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>13.900473</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>595</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>597</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1829.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9.269357</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>595</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>596</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1830.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14.019347</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>595</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>597</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1830.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8.622657</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>595</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1831.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>13.749484</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>595</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>597</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1831.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>7.415485</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>595</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>596</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1832.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>13.950893</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>595</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>597</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1832.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7.888814</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>595</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>596</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1833.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>13.869626</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>595</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>597</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1833.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8.426688</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>595</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>596</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1834.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>13.700507</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>595</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>597</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1834.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>10.020926</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>595</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>596</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1835.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>13.760837</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>595</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>597</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1835.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>9.757218</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>595</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>596</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1836.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>13.810247</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>595</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>597</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1836.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>10.020926</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>595</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>596</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1837.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>13.810247</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>595</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>597</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1837.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>9.757218</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>595</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>596</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1838.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>13.719303</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>595</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>597</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1838.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>8.426688</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>595</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>596</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>13.620267</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>595</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>597</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>8.06031</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>595</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>596</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>13.529969</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>595</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>597</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>8.239428</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>595</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>596</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1841.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>13.599891</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>595</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>597</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1841.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>11.433284</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>595</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>596</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1842.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>13.719303</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>595</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>597</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1842.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>10.57023</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>595</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>596</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1843.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>13.810247</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>595</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>597</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1843.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>10.181617</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>595</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>596</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1844.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>13.749484</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>595</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>597</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1844.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>11.279068</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>595</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>596</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1845.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>13.860014</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>595</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>597</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1845.0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>10.170877</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>595</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>596</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1846.0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>13.84083</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>595</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>597</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1846.0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>8.297464</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>595</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>596</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1847.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>13.800718</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>595</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>597</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1847.0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>7.472806</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>595</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>596</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1848.0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>13.810247</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>595</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>597</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1848.0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>11.324281</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>595</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>596</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1849.0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>13.7893</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>595</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>597</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1849.0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>12.927177</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>595</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>596</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1850.0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>13.709899</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>595</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>597</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1850.0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>13.689447</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>595</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>596</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1851.0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>13.509862</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>595</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>597</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1851.0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>11.471537</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>595</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>596</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1852.0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>13.620267</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>595</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>597</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1852.0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>9.883966</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>595</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>596</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1853.0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>13.44086</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>595</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>597</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1853.0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>10.662404</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>595</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>596</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1854.0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>13.349353</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>595</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>597</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1854.0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>8.90968</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>595</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>596</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1855.0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>13.489815</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>595</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>597</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1855.0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>8.364047</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>595</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>596</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1856.0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>13.59065</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>595</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>597</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1856.0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>8.584153</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>595</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>596</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1857.0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>13.539128</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>595</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>597</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1857.0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>10.447958</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>595</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>596</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1858.0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>13.44086</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>595</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>597</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1858.0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>11.057553</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>595</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>596</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>13.340448</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>595</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>597</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>12.137697</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>595</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>596</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>13.360053</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>595</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>597</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>11.43615</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>595</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>596</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1861.0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>13.579576</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>595</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>597</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1861.0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>11.646642</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>595</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>596</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1862.0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>13.500743</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>595</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>597</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1862.0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>11.646642</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>595</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>596</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1863.0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>13.500743</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>595</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>597</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1863.0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>12.811306</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>595</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>596</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1864.0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>13.559322</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>595</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>597</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1864.0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>13.726399</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>595</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>596</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1865.0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>13.579576</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>595</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>597</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1865.0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>13.253075</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>595</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>596</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1866.0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>13.599891</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>595</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>597</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1866.0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>12.201244</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>595</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>596</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1867.0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>13.59065</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>595</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>597</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1867.0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>10.114189</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>595</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>596</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1868.0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>13.640704</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>595</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>597</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1868.0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>10.114189</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>595</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>596</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1869.0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>13.700507</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>595</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>597</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1869.0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>11.991464</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>595</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>596</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1870.0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>13.67054</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>595</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>597</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1870.0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>12.318163</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>595</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>596</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1871.0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>13.650014</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>595</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>597</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1871.0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>11.804366</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>595</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>596</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1872.0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>13.67054</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>595</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D107" t="s">
+        <v>597</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1872.0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>12.944337</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>595</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D108" t="s">
+        <v>596</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1873.0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>20.521239</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>595</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D109" t="s">
+        <v>597</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1873.0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>11.773524</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>595</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D110" t="s">
+        <v>596</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1874.0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>20.610058</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>595</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D111" t="s">
+        <v>597</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1874.0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>11.571102</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>595</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D112" t="s">
+        <v>596</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1875.0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>20.721094</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>595</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D113" t="s">
+        <v>597</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1875.0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>12.754273</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>595</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D114" t="s">
+        <v>596</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1876.0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>20.644096</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>595</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D115" t="s">
+        <v>597</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1876.0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>13.275095</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>595</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D116" t="s">
+        <v>596</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1877.0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>20.639835</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>595</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D117" t="s">
+        <v>597</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1877.0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>12.94814</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>595</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D118" t="s">
+        <v>596</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1878.0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>20.627063</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>595</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D119" t="s">
+        <v>597</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1878.0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>13.509694</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>595</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D120" t="s">
+        <v>596</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>20.610058</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>595</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="D121" t="s">
+        <v>597</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>13.763285</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B5" t="s">
+        <v>596</v>
+      </c>
+      <c r="C5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>604</v>
+      </c>
+      <c r="B6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>605</v>
+      </c>
+      <c r="B7" t="s">
+        <v>596</v>
+      </c>
+      <c r="C7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B8" t="s">
+        <v>597</v>
+      </c>
+      <c r="C8" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>604</v>
+      </c>
+      <c r="B9" t="s">
+        <v>597</v>
+      </c>
+      <c r="C9" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>605</v>
       </c>
       <c r="B10" t="s">
-        <v>530</v>
+        <v>597</v>
       </c>
       <c r="C10" t="s">
-        <v>548</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>

--- a/www/docs/GermanConfederation_1820_1879_all_data.xlsx
+++ b/www/docs/GermanConfederation_1820_1879_all_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="553">
   <si>
     <t>Webmapper code</t>
   </si>
@@ -1588,205 +1588,25 @@
     <t>2015</t>
   </si>
   <si>
-    <t>c("geacron/388", "geacron/389", "geacron/388", "geacron/389")</t>
-  </si>
-  <si>
-    <t>c(388, 389, 388, 389)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c("German Confederation", "German Confederation", "German Confederation", "German Confederation")</t>
-  </si>
-  <si>
-    <t>c("1820", "1840", "1820", "1840")</t>
-  </si>
-  <si>
-    <t>c("1839", "1879", "1839", "1879")</t>
-  </si>
-  <si>
-    <t>c("Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Labourers_Wage-historical.xlsx", "Labourers_Wage-historical.xlsx")</t>
-  </si>
-  <si>
-    <t>c("Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Labourers Real Wage", "Labourers Real Wage")</t>
-  </si>
-  <si>
-    <t>c(13.8696255201, NA, 8.42668785973166, NA)</t>
-  </si>
-  <si>
-    <t>c(14.3204926249, NA, 9.75721752179455, NA)</t>
-  </si>
-  <si>
-    <t>c(14.1103428813, NA, 9.75721752179455, NA)</t>
-  </si>
-  <si>
-    <t>c(14.2694063927, NA, 9.26935664570483, NA)</t>
-  </si>
-  <si>
-    <t>c(13.9899272524, NA, 12.3591421942731, NA)</t>
-  </si>
-  <si>
-    <t>c(13.8408304498, NA, 12.785319511317, NA)</t>
-  </si>
-  <si>
-    <t>c(14.1302811926, NA, 11.2355838129755, NA)</t>
-  </si>
-  <si>
-    <t>c(13.9198218263, NA, 9.50703245713315, NA)</t>
-  </si>
-  <si>
-    <t>c(13.8007176373, NA, 9.26935664570483, NA)</t>
-  </si>
-  <si>
-    <t>c(13.9004726161, NA, 9.26935664570483, NA)</t>
-  </si>
-  <si>
-    <t>c(14.0193466984, NA, 8.6226573448417, NA)</t>
-  </si>
-  <si>
-    <t>c(13.7494843943, NA, 7.41548531656386, NA)</t>
-  </si>
-  <si>
-    <t>c(13.9508928571, NA, 7.8888141665573, NA)</t>
-  </si>
-  <si>
-    <t>c(13.7005069188, NA, 10.0209261034647, NA)</t>
-  </si>
-  <si>
-    <t>c(13.7608366589, NA, 9.75721752179455, NA)</t>
-  </si>
-  <si>
-    <t>c(13.8102472034, NA, 10.0209261034647, NA)</t>
-  </si>
-  <si>
-    <t>c(13.8102472034, NA, 9.75721752179455, NA)</t>
-  </si>
-  <si>
-    <t>c(13.7193030594, NA, 8.42668785973166, NA)</t>
-  </si>
-  <si>
-    <t>c(13.6202669572, NA, 8.06031012669985, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.5299688811, NA, 8.2394281295154)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.5998912009, NA, 11.4332837290479)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.7193030594, NA, 10.5702302958912)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.8102472034, NA, 10.1816172130131)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.7494843943, NA, 11.2790675977714)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.86001386, NA, 10.1708771104677)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.8408304498, NA, 8.29746370803386)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.8007176373, NA, 7.47280643482603)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.8102472034, NA, 11.3242812514165)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.7892995036, NA, 12.9271772709812)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.7098985468, NA, 13.6894468233541)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.5098621994, NA, 11.4715367956429)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.6202669572, NA, 9.88396573797391)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.4408602151, NA, 10.6624040091341)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.3493525564, NA, 8.90968006242715)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.4898151895, NA, 8.36404686798227)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.5906496331, NA, 8.58415336450812)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.5391280802, NA, 10.4479583754125)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.4408602151, NA, 11.057553486485)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.3404482391, NA, 12.1376971805324)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.3600534402, NA, 11.4361503468238)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.5795763172, NA, 11.6466417573527)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.5007425408, NA, 11.6466417573527)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.5007425408, NA, 12.811305933088)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.5593220339, NA, 13.7263992140228)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.5795763172, NA, 13.2530751031945)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.5998912009, NA, 12.2012437457981)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.5906496331, NA, 10.1141888945431)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.6407038603, NA, 10.1141888945431)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.7005069188, NA, 11.9914636426833)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.6705399863, NA, 12.3181631804886)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.65001365, NA, 11.8043664989902)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.6705399863, NA, 12.9443372946154)</t>
-  </si>
-  <si>
-    <t>c(NA, 20.5212394829, NA, 11.7735236136691)</t>
-  </si>
-  <si>
-    <t>c(NA, 20.6100577082, NA, 11.5711017484616)</t>
-  </si>
-  <si>
-    <t>c(NA, 20.7210940738, NA, 12.7542733964417)</t>
-  </si>
-  <si>
-    <t>c(NA, 20.6440957886, NA, 13.2750945106034)</t>
-  </si>
-  <si>
-    <t>c(NA, 20.6398348813, NA, 12.9481399740518)</t>
-  </si>
-  <si>
-    <t>c(NA, 20.6270627063, NA, 13.5096939897914)</t>
-  </si>
-  <si>
-    <t>c(NA, 20.6100577082, NA, 13.7632854286324)</t>
+    <t>geacron/388</t>
+  </si>
+  <si>
+    <t>geacron/389</t>
+  </si>
+  <si>
+    <t>German Confederation</t>
+  </si>
+  <si>
+    <t>Exchange_Rates_UK-historical.xlsx</t>
+  </si>
+  <si>
+    <t>Labourers_Wage-historical.xlsx</t>
+  </si>
+  <si>
+    <t>Exchange Rates to UK Pound</t>
+  </si>
+  <si>
+    <t>Labourers Real Wage</t>
   </si>
   <si>
     <t>Borders Start Year</t>
@@ -1801,15 +1621,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>German Confederation</t>
-  </si>
-  <si>
-    <t>Exchange Rates to UK Pound</t>
-  </si>
-  <si>
-    <t>Labourers Real Wage</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -1837,7 +1648,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/data/DataAtHistoricalBorders.xlsx</t>
+    <t>https://www.clio-infra.eu/data/GermanConfederation_1820_1879_all_data.xlsx</t>
   </si>
   <si>
     <t>Bosch, Reinoud and Koen van den Bos (2015). Exchange Rates to UK Pound. http://hdl.handle.net/10622/N6BLB8, accessed via the Clio Infra website.</t>
@@ -1846,22 +1657,22 @@
     <t>Zwart, Pim de, Bas van Leeuwen and Jieli van Leeuwen-Li (2015). Labourers Real Wage. http://hdl.handle.net/10622/QK8VRF, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_N6BLB8.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_N6BLB8.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_N6BLB8.bib</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_QK8VRF.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_QK8VRF.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_QK8VRF.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_N6BLB8.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_N6BLB8.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_N6BLB8.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_QK8VRF.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_QK8VRF.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_QK8VRF.bib</t>
   </si>
 </sst>
 </file>
@@ -3490,1585 +3301,605 @@
       <c r="A2" t="s">
         <v>524</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="n">
+        <v>388.0</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>527</v>
+      </c>
+      <c r="H2" t="s">
+        <v>529</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2"/>
+      <c r="BN2"/>
+      <c r="BO2"/>
+      <c r="BP2"/>
+      <c r="BQ2"/>
+      <c r="BR2"/>
+      <c r="BS2"/>
+      <c r="BT2"/>
+      <c r="BU2"/>
+      <c r="BV2"/>
+      <c r="BW2"/>
+      <c r="BX2"/>
+      <c r="BY2"/>
+      <c r="BZ2"/>
+      <c r="CA2"/>
+      <c r="CB2"/>
+      <c r="CC2"/>
+      <c r="CD2"/>
+      <c r="CE2"/>
+      <c r="CF2"/>
+      <c r="CG2"/>
+      <c r="CH2"/>
+      <c r="CI2"/>
+      <c r="CJ2"/>
+      <c r="CK2"/>
+      <c r="CL2"/>
+      <c r="CM2"/>
+      <c r="CN2"/>
+      <c r="CO2"/>
+      <c r="CP2"/>
+      <c r="CQ2"/>
+      <c r="CR2"/>
+      <c r="CS2"/>
+      <c r="CT2"/>
+      <c r="CU2"/>
+      <c r="CV2"/>
+      <c r="CW2"/>
+      <c r="CX2"/>
+      <c r="CY2"/>
+      <c r="CZ2"/>
+      <c r="DA2"/>
+      <c r="DB2"/>
+      <c r="DC2"/>
+      <c r="DD2"/>
+      <c r="DE2"/>
+      <c r="DF2"/>
+      <c r="DG2"/>
+      <c r="DH2"/>
+      <c r="DI2"/>
+      <c r="DJ2"/>
+      <c r="DK2"/>
+      <c r="DL2"/>
+      <c r="DM2"/>
+      <c r="DN2"/>
+      <c r="DO2"/>
+      <c r="DP2"/>
+      <c r="DQ2"/>
+      <c r="DR2"/>
+      <c r="DS2"/>
+      <c r="DT2"/>
+      <c r="DU2"/>
+      <c r="DV2"/>
+      <c r="DW2"/>
+      <c r="DX2"/>
+      <c r="DY2"/>
+      <c r="DZ2"/>
+      <c r="EA2"/>
+      <c r="EB2"/>
+      <c r="EC2"/>
+      <c r="ED2"/>
+      <c r="EE2"/>
+      <c r="EF2"/>
+      <c r="EG2"/>
+      <c r="EH2"/>
+      <c r="EI2"/>
+      <c r="EJ2"/>
+      <c r="EK2"/>
+      <c r="EL2"/>
+      <c r="EM2"/>
+      <c r="EN2"/>
+      <c r="EO2"/>
+      <c r="EP2"/>
+      <c r="EQ2"/>
+      <c r="ER2"/>
+      <c r="ES2"/>
+      <c r="ET2"/>
+      <c r="EU2"/>
+      <c r="EV2"/>
+      <c r="EW2"/>
+      <c r="EX2"/>
+      <c r="EY2"/>
+      <c r="EZ2"/>
+      <c r="FA2"/>
+      <c r="FB2"/>
+      <c r="FC2"/>
+      <c r="FD2"/>
+      <c r="FE2"/>
+      <c r="FF2"/>
+      <c r="FG2"/>
+      <c r="FH2"/>
+      <c r="FI2"/>
+      <c r="FJ2"/>
+      <c r="FK2"/>
+      <c r="FL2"/>
+      <c r="FM2"/>
+      <c r="FN2"/>
+      <c r="FO2"/>
+      <c r="FP2"/>
+      <c r="FQ2"/>
+      <c r="FR2"/>
+      <c r="FS2"/>
+      <c r="FT2"/>
+      <c r="FU2"/>
+      <c r="FV2"/>
+      <c r="FW2"/>
+      <c r="FX2"/>
+      <c r="FY2"/>
+      <c r="FZ2"/>
+      <c r="GA2"/>
+      <c r="GB2"/>
+      <c r="GC2"/>
+      <c r="GD2"/>
+      <c r="GE2"/>
+      <c r="GF2"/>
+      <c r="GG2"/>
+      <c r="GH2"/>
+      <c r="GI2"/>
+      <c r="GJ2"/>
+      <c r="GK2"/>
+      <c r="GL2"/>
+      <c r="GM2"/>
+      <c r="GN2"/>
+      <c r="GO2"/>
+      <c r="GP2"/>
+      <c r="GQ2"/>
+      <c r="GR2"/>
+      <c r="GS2"/>
+      <c r="GT2"/>
+      <c r="GU2"/>
+      <c r="GV2"/>
+      <c r="GW2"/>
+      <c r="GX2"/>
+      <c r="GY2"/>
+      <c r="GZ2"/>
+      <c r="HA2"/>
+      <c r="HB2"/>
+      <c r="HC2"/>
+      <c r="HD2"/>
+      <c r="HE2"/>
+      <c r="HF2"/>
+      <c r="HG2"/>
+      <c r="HH2"/>
+      <c r="HI2"/>
+      <c r="HJ2"/>
+      <c r="HK2"/>
+      <c r="HL2"/>
+      <c r="HM2"/>
+      <c r="HN2"/>
+      <c r="HO2"/>
+      <c r="HP2"/>
+      <c r="HQ2"/>
+      <c r="HR2"/>
+      <c r="HS2"/>
+      <c r="HT2"/>
+      <c r="HU2"/>
+      <c r="HV2"/>
+      <c r="HW2"/>
+      <c r="HX2"/>
+      <c r="HY2"/>
+      <c r="HZ2"/>
+      <c r="IA2"/>
+      <c r="IB2"/>
+      <c r="IC2"/>
+      <c r="ID2"/>
+      <c r="IE2"/>
+      <c r="IF2"/>
+      <c r="IG2"/>
+      <c r="IH2"/>
+      <c r="II2"/>
+      <c r="IJ2"/>
+      <c r="IK2"/>
+      <c r="IL2"/>
+      <c r="IM2"/>
+      <c r="IN2"/>
+      <c r="IO2"/>
+      <c r="IP2"/>
+      <c r="IQ2"/>
+      <c r="IR2"/>
+      <c r="IS2"/>
+      <c r="IT2"/>
+      <c r="IU2"/>
+      <c r="IV2"/>
+      <c r="IW2"/>
+      <c r="IX2"/>
+      <c r="IY2"/>
+      <c r="IZ2"/>
+      <c r="JA2"/>
+      <c r="JB2"/>
+      <c r="JC2"/>
+      <c r="JD2"/>
+      <c r="JE2"/>
+      <c r="JF2"/>
+      <c r="JG2"/>
+      <c r="JH2"/>
+      <c r="JI2"/>
+      <c r="JJ2"/>
+      <c r="JK2"/>
+      <c r="JL2"/>
+      <c r="JM2"/>
+      <c r="JN2"/>
+      <c r="JO2"/>
+      <c r="JP2"/>
+      <c r="JQ2"/>
+      <c r="JR2"/>
+      <c r="JS2"/>
+      <c r="JT2"/>
+      <c r="JU2"/>
+      <c r="JV2"/>
+      <c r="JW2"/>
+      <c r="JX2"/>
+      <c r="JY2"/>
+      <c r="JZ2"/>
+      <c r="KA2"/>
+      <c r="KB2"/>
+      <c r="KC2"/>
+      <c r="KD2"/>
+      <c r="KE2"/>
+      <c r="KF2"/>
+      <c r="KG2"/>
+      <c r="KH2"/>
+      <c r="KI2"/>
+      <c r="KJ2"/>
+      <c r="KK2"/>
+      <c r="KL2"/>
+      <c r="KM2"/>
+      <c r="KN2"/>
+      <c r="KO2"/>
+      <c r="KP2"/>
+      <c r="KQ2"/>
+      <c r="KR2"/>
+      <c r="KS2"/>
+      <c r="KT2"/>
+      <c r="KU2"/>
+      <c r="KV2"/>
+      <c r="KW2"/>
+      <c r="KX2"/>
+      <c r="KY2"/>
+      <c r="KZ2"/>
+      <c r="LA2"/>
+      <c r="LB2"/>
+      <c r="LC2"/>
+      <c r="LD2"/>
+      <c r="LE2"/>
+      <c r="LF2"/>
+      <c r="LG2"/>
+      <c r="LH2"/>
+      <c r="LI2"/>
+      <c r="LJ2"/>
+      <c r="LK2"/>
+      <c r="LL2"/>
+      <c r="LM2"/>
+      <c r="LN2"/>
+      <c r="LO2"/>
+      <c r="LP2"/>
+      <c r="LQ2" t="n">
+        <v>13.869626</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>14.320493</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>14.110343</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>14.269406</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>13.98993</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>13.84083</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>14.13028</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>13.919822</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>13.800718</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>13.900473</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>14.019347</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>13.749484</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>13.950893</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>13.869626</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>13.70051</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>13.760837</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>13.81025</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>13.810247</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>13.719303</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>13.62027</v>
+      </c>
+      <c r="MK2"/>
+      <c r="ML2"/>
+      <c r="MM2"/>
+      <c r="MN2"/>
+      <c r="MO2"/>
+      <c r="MP2"/>
+      <c r="MQ2"/>
+      <c r="MR2"/>
+      <c r="MS2"/>
+      <c r="MT2"/>
+      <c r="MU2"/>
+      <c r="MV2"/>
+      <c r="MW2"/>
+      <c r="MX2"/>
+      <c r="MY2"/>
+      <c r="MZ2"/>
+      <c r="NA2"/>
+      <c r="NB2"/>
+      <c r="NC2"/>
+      <c r="ND2"/>
+      <c r="NE2"/>
+      <c r="NF2"/>
+      <c r="NG2"/>
+      <c r="NH2"/>
+      <c r="NI2"/>
+      <c r="NJ2"/>
+      <c r="NK2"/>
+      <c r="NL2"/>
+      <c r="NM2"/>
+      <c r="NN2"/>
+      <c r="NO2"/>
+      <c r="NP2"/>
+      <c r="NQ2"/>
+      <c r="NR2"/>
+      <c r="NS2"/>
+      <c r="NT2"/>
+      <c r="NU2"/>
+      <c r="NV2"/>
+      <c r="NW2"/>
+      <c r="NX2"/>
+      <c r="NY2"/>
+      <c r="NZ2"/>
+      <c r="OA2"/>
+      <c r="OB2"/>
+      <c r="OC2"/>
+      <c r="OD2"/>
+      <c r="OE2"/>
+      <c r="OF2"/>
+      <c r="OG2"/>
+      <c r="OH2"/>
+      <c r="OI2"/>
+      <c r="OJ2"/>
+      <c r="OK2"/>
+      <c r="OL2"/>
+      <c r="OM2"/>
+      <c r="ON2"/>
+      <c r="OO2"/>
+      <c r="OP2"/>
+      <c r="OQ2"/>
+      <c r="OR2"/>
+      <c r="OS2"/>
+      <c r="OT2"/>
+      <c r="OU2"/>
+      <c r="OV2"/>
+      <c r="OW2"/>
+      <c r="OX2"/>
+      <c r="OY2"/>
+      <c r="OZ2"/>
+      <c r="PA2"/>
+      <c r="PB2"/>
+      <c r="PC2"/>
+      <c r="PD2"/>
+      <c r="PE2"/>
+      <c r="PF2"/>
+      <c r="PG2"/>
+      <c r="PH2"/>
+      <c r="PI2"/>
+      <c r="PJ2"/>
+      <c r="PK2"/>
+      <c r="PL2"/>
+      <c r="PM2"/>
+      <c r="PN2"/>
+      <c r="PO2"/>
+      <c r="PP2"/>
+      <c r="PQ2"/>
+      <c r="PR2"/>
+      <c r="PS2"/>
+      <c r="PT2"/>
+      <c r="PU2"/>
+      <c r="PV2"/>
+      <c r="PW2"/>
+      <c r="PX2"/>
+      <c r="PY2"/>
+      <c r="PZ2"/>
+      <c r="QA2"/>
+      <c r="QB2"/>
+      <c r="QC2"/>
+      <c r="QD2"/>
+      <c r="QE2"/>
+      <c r="QF2"/>
+      <c r="QG2"/>
+      <c r="QH2"/>
+      <c r="QI2"/>
+      <c r="QJ2"/>
+      <c r="QK2"/>
+      <c r="QL2"/>
+      <c r="QM2"/>
+      <c r="QN2"/>
+      <c r="QO2"/>
+      <c r="QP2"/>
+      <c r="QQ2"/>
+      <c r="QR2"/>
+      <c r="QS2"/>
+      <c r="QT2"/>
+      <c r="QU2"/>
+      <c r="QV2"/>
+      <c r="QW2"/>
+      <c r="QX2"/>
+      <c r="QY2"/>
+      <c r="QZ2"/>
+      <c r="RA2"/>
+      <c r="RB2"/>
+      <c r="RC2"/>
+      <c r="RD2"/>
+      <c r="RE2"/>
+      <c r="RF2"/>
+      <c r="RG2"/>
+      <c r="RH2"/>
+      <c r="RI2"/>
+      <c r="RJ2"/>
+      <c r="RK2"/>
+      <c r="RL2"/>
+      <c r="RM2"/>
+      <c r="RN2"/>
+      <c r="RO2"/>
+      <c r="RP2"/>
+      <c r="RQ2"/>
+      <c r="RR2"/>
+      <c r="RS2"/>
+      <c r="RT2"/>
+      <c r="RU2"/>
+      <c r="RV2"/>
+      <c r="RW2"/>
+      <c r="RX2"/>
+      <c r="RY2"/>
+      <c r="RZ2"/>
+      <c r="SA2"/>
+      <c r="SB2"/>
+      <c r="SC2"/>
+      <c r="SD2"/>
+      <c r="SE2"/>
+      <c r="SF2"/>
+      <c r="SG2"/>
+      <c r="SH2"/>
+      <c r="SI2"/>
+      <c r="SJ2"/>
+      <c r="SK2"/>
+      <c r="SL2"/>
+      <c r="SM2"/>
+      <c r="SN2"/>
+      <c r="SO2"/>
+      <c r="SP2"/>
+      <c r="SQ2"/>
+      <c r="SR2"/>
+      <c r="SS2"/>
+      <c r="ST2"/>
+      <c r="SU2"/>
+      <c r="SV2"/>
+      <c r="SW2"/>
+      <c r="SX2"/>
+      <c r="SY2"/>
+      <c r="SZ2"/>
+      <c r="TA2"/>
+      <c r="TB2"/>
+      <c r="TC2"/>
+      <c r="TD2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>525</v>
       </c>
-      <c r="C2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" t="n">
+        <v>389.0</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="G3" t="s">
         <v>527</v>
       </c>
-      <c r="E2" t="s">
-        <v>528</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H3" t="s">
         <v>529</v>
       </c>
-      <c r="G2" t="s">
-        <v>530</v>
-      </c>
-      <c r="H2" t="s">
-        <v>531</v>
-      </c>
-      <c r="I2" t="s">
-        <v>526</v>
-      </c>
-      <c r="J2" t="s">
-        <v>526</v>
-      </c>
-      <c r="K2" t="s">
-        <v>526</v>
-      </c>
-      <c r="L2" t="s">
-        <v>526</v>
-      </c>
-      <c r="M2" t="s">
-        <v>526</v>
-      </c>
-      <c r="N2" t="s">
-        <v>526</v>
-      </c>
-      <c r="O2" t="s">
-        <v>526</v>
-      </c>
-      <c r="P2" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>526</v>
-      </c>
-      <c r="R2" t="s">
-        <v>526</v>
-      </c>
-      <c r="S2" t="s">
-        <v>526</v>
-      </c>
-      <c r="T2" t="s">
-        <v>526</v>
-      </c>
-      <c r="U2" t="s">
-        <v>526</v>
-      </c>
-      <c r="V2" t="s">
-        <v>526</v>
-      </c>
-      <c r="W2" t="s">
-        <v>526</v>
-      </c>
-      <c r="X2" t="s">
-        <v>526</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>526</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ID2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="II2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LQ2" t="s">
-        <v>532</v>
-      </c>
-      <c r="LR2" t="s">
-        <v>533</v>
-      </c>
-      <c r="LS2" t="s">
-        <v>534</v>
-      </c>
-      <c r="LT2" t="s">
-        <v>535</v>
-      </c>
-      <c r="LU2" t="s">
-        <v>536</v>
-      </c>
-      <c r="LV2" t="s">
-        <v>537</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>538</v>
-      </c>
-      <c r="LX2" t="s">
-        <v>539</v>
-      </c>
-      <c r="LY2" t="s">
-        <v>540</v>
-      </c>
-      <c r="LZ2" t="s">
-        <v>541</v>
-      </c>
-      <c r="MA2" t="s">
-        <v>542</v>
-      </c>
-      <c r="MB2" t="s">
-        <v>543</v>
-      </c>
-      <c r="MC2" t="s">
-        <v>544</v>
-      </c>
-      <c r="MD2" t="s">
-        <v>532</v>
-      </c>
-      <c r="ME2" t="s">
-        <v>545</v>
-      </c>
-      <c r="MF2" t="s">
-        <v>546</v>
-      </c>
-      <c r="MG2" t="s">
-        <v>547</v>
-      </c>
-      <c r="MH2" t="s">
-        <v>548</v>
-      </c>
-      <c r="MI2" t="s">
-        <v>549</v>
-      </c>
-      <c r="MJ2" t="s">
-        <v>550</v>
-      </c>
-      <c r="MK2" t="s">
-        <v>551</v>
-      </c>
-      <c r="ML2" t="s">
-        <v>552</v>
-      </c>
-      <c r="MM2" t="s">
-        <v>553</v>
-      </c>
-      <c r="MN2" t="s">
-        <v>554</v>
-      </c>
-      <c r="MO2" t="s">
-        <v>555</v>
-      </c>
-      <c r="MP2" t="s">
-        <v>556</v>
-      </c>
-      <c r="MQ2" t="s">
-        <v>557</v>
-      </c>
-      <c r="MR2" t="s">
-        <v>558</v>
-      </c>
-      <c r="MS2" t="s">
-        <v>559</v>
-      </c>
-      <c r="MT2" t="s">
-        <v>560</v>
-      </c>
-      <c r="MU2" t="s">
-        <v>561</v>
-      </c>
-      <c r="MV2" t="s">
-        <v>562</v>
-      </c>
-      <c r="MW2" t="s">
-        <v>563</v>
-      </c>
-      <c r="MX2" t="s">
-        <v>564</v>
-      </c>
-      <c r="MY2" t="s">
-        <v>565</v>
-      </c>
-      <c r="MZ2" t="s">
-        <v>566</v>
-      </c>
-      <c r="NA2" t="s">
-        <v>567</v>
-      </c>
-      <c r="NB2" t="s">
-        <v>568</v>
-      </c>
-      <c r="NC2" t="s">
-        <v>569</v>
-      </c>
-      <c r="ND2" t="s">
-        <v>570</v>
-      </c>
-      <c r="NE2" t="s">
-        <v>571</v>
-      </c>
-      <c r="NF2" t="s">
-        <v>572</v>
-      </c>
-      <c r="NG2" t="s">
-        <v>573</v>
-      </c>
-      <c r="NH2" t="s">
-        <v>574</v>
-      </c>
-      <c r="NI2" t="s">
-        <v>575</v>
-      </c>
-      <c r="NJ2" t="s">
-        <v>576</v>
-      </c>
-      <c r="NK2" t="s">
-        <v>577</v>
-      </c>
-      <c r="NL2" t="s">
-        <v>578</v>
-      </c>
-      <c r="NM2" t="s">
-        <v>579</v>
-      </c>
-      <c r="NN2" t="s">
-        <v>580</v>
-      </c>
-      <c r="NO2" t="s">
-        <v>581</v>
-      </c>
-      <c r="NP2" t="s">
-        <v>582</v>
-      </c>
-      <c r="NQ2" t="s">
-        <v>583</v>
-      </c>
-      <c r="NR2" t="s">
-        <v>584</v>
-      </c>
-      <c r="NS2" t="s">
-        <v>585</v>
-      </c>
-      <c r="NT2" t="s">
-        <v>586</v>
-      </c>
-      <c r="NU2" t="s">
-        <v>587</v>
-      </c>
-      <c r="NV2" t="s">
-        <v>588</v>
-      </c>
-      <c r="NW2" t="s">
-        <v>589</v>
-      </c>
-      <c r="NX2" t="s">
-        <v>590</v>
-      </c>
-      <c r="NY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ON2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ST2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="TA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="TB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="TC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="TD2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -5409,46 +4240,126 @@
       <c r="MH3"/>
       <c r="MI3"/>
       <c r="MJ3"/>
-      <c r="MK3"/>
-      <c r="ML3"/>
-      <c r="MM3"/>
-      <c r="MN3"/>
-      <c r="MO3"/>
-      <c r="MP3"/>
-      <c r="MQ3"/>
-      <c r="MR3"/>
-      <c r="MS3"/>
-      <c r="MT3"/>
-      <c r="MU3"/>
-      <c r="MV3"/>
-      <c r="MW3"/>
-      <c r="MX3"/>
-      <c r="MY3"/>
-      <c r="MZ3"/>
-      <c r="NA3"/>
-      <c r="NB3"/>
-      <c r="NC3"/>
-      <c r="ND3"/>
-      <c r="NE3"/>
-      <c r="NF3"/>
-      <c r="NG3"/>
-      <c r="NH3"/>
-      <c r="NI3"/>
-      <c r="NJ3"/>
-      <c r="NK3"/>
-      <c r="NL3"/>
-      <c r="NM3"/>
-      <c r="NN3"/>
-      <c r="NO3"/>
-      <c r="NP3"/>
-      <c r="NQ3"/>
-      <c r="NR3"/>
-      <c r="NS3"/>
-      <c r="NT3"/>
-      <c r="NU3"/>
-      <c r="NV3"/>
-      <c r="NW3"/>
-      <c r="NX3"/>
+      <c r="MK3" t="n">
+        <v>13.529969</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>13.59989</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>13.7193</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>13.81025</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>13.74948</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>13.86001</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>13.84083</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>13.800718</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>13.81025</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>13.7893</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>13.7099</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>13.50986</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>13.620267</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>13.44086</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>13.34935</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>13.489815</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>13.59065</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>13.53913</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>13.44086</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>13.34045</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>13.36005</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>13.57958</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>13.50074</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>13.50074</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>13.55932</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>13.57958</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>13.59989</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>13.59065</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>13.6407</v>
+      </c>
+      <c r="NN3" t="n">
+        <v>13.70051</v>
+      </c>
+      <c r="NO3" t="n">
+        <v>13.67054</v>
+      </c>
+      <c r="NP3" t="n">
+        <v>13.65001</v>
+      </c>
+      <c r="NQ3" t="n">
+        <v>13.67054</v>
+      </c>
+      <c r="NR3" t="n">
+        <v>20.52124</v>
+      </c>
+      <c r="NS3" t="n">
+        <v>20.61006</v>
+      </c>
+      <c r="NT3" t="n">
+        <v>20.72109</v>
+      </c>
+      <c r="NU3" t="n">
+        <v>20.6441</v>
+      </c>
+      <c r="NV3" t="n">
+        <v>20.63983</v>
+      </c>
+      <c r="NW3" t="n">
+        <v>20.62706</v>
+      </c>
+      <c r="NX3" t="n">
+        <v>20.61006</v>
+      </c>
       <c r="NY3"/>
       <c r="NZ3"/>
       <c r="OA3"/>
@@ -5587,14 +4498,28 @@
       <c r="TD3"/>
     </row>
     <row r="4">
-      <c r="A4"/>
-      <c r="B4"/>
+      <c r="A4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B4" t="n">
+        <v>388.0</v>
+      </c>
       <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
+      <c r="D4" t="s">
+        <v>526</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>528</v>
+      </c>
+      <c r="H4" t="s">
+        <v>530</v>
+      </c>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
@@ -5915,26 +4840,66 @@
       <c r="LN4"/>
       <c r="LO4"/>
       <c r="LP4"/>
-      <c r="LQ4"/>
-      <c r="LR4"/>
-      <c r="LS4"/>
-      <c r="LT4"/>
-      <c r="LU4"/>
-      <c r="LV4"/>
-      <c r="LW4"/>
-      <c r="LX4"/>
-      <c r="LY4"/>
-      <c r="LZ4"/>
-      <c r="MA4"/>
-      <c r="MB4"/>
-      <c r="MC4"/>
-      <c r="MD4"/>
-      <c r="ME4"/>
-      <c r="MF4"/>
-      <c r="MG4"/>
-      <c r="MH4"/>
-      <c r="MI4"/>
-      <c r="MJ4"/>
+      <c r="LQ4" t="n">
+        <v>8.426688</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>9.757218</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>9.757218</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>9.269357</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>12.35914</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>12.78532</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>11.23558</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>9.507032</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>9.269357</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>9.269357</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>8.622657</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>7.415485</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>7.888814</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>8.426688</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>10.02093</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>9.757218</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>10.02093</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>9.757218</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>8.426688</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>8.06031</v>
+      </c>
       <c r="MK4"/>
       <c r="ML4"/>
       <c r="MM4"/>
@@ -6113,14 +5078,28 @@
       <c r="TD4"/>
     </row>
     <row r="5">
-      <c r="A5"/>
-      <c r="B5"/>
+      <c r="A5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B5" t="n">
+        <v>389.0</v>
+      </c>
       <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
+      <c r="D5" t="s">
+        <v>526</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>528</v>
+      </c>
+      <c r="H5" t="s">
+        <v>530</v>
+      </c>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
@@ -6461,46 +5440,126 @@
       <c r="MH5"/>
       <c r="MI5"/>
       <c r="MJ5"/>
-      <c r="MK5"/>
-      <c r="ML5"/>
-      <c r="MM5"/>
-      <c r="MN5"/>
-      <c r="MO5"/>
-      <c r="MP5"/>
-      <c r="MQ5"/>
-      <c r="MR5"/>
-      <c r="MS5"/>
-      <c r="MT5"/>
-      <c r="MU5"/>
-      <c r="MV5"/>
-      <c r="MW5"/>
-      <c r="MX5"/>
-      <c r="MY5"/>
-      <c r="MZ5"/>
-      <c r="NA5"/>
-      <c r="NB5"/>
-      <c r="NC5"/>
-      <c r="ND5"/>
-      <c r="NE5"/>
-      <c r="NF5"/>
-      <c r="NG5"/>
-      <c r="NH5"/>
-      <c r="NI5"/>
-      <c r="NJ5"/>
-      <c r="NK5"/>
-      <c r="NL5"/>
-      <c r="NM5"/>
-      <c r="NN5"/>
-      <c r="NO5"/>
-      <c r="NP5"/>
-      <c r="NQ5"/>
-      <c r="NR5"/>
-      <c r="NS5"/>
-      <c r="NT5"/>
-      <c r="NU5"/>
-      <c r="NV5"/>
-      <c r="NW5"/>
-      <c r="NX5"/>
+      <c r="MK5" t="n">
+        <v>8.239428</v>
+      </c>
+      <c r="ML5" t="n">
+        <v>11.43328</v>
+      </c>
+      <c r="MM5" t="n">
+        <v>10.57023</v>
+      </c>
+      <c r="MN5" t="n">
+        <v>10.18162</v>
+      </c>
+      <c r="MO5" t="n">
+        <v>11.27907</v>
+      </c>
+      <c r="MP5" t="n">
+        <v>10.17088</v>
+      </c>
+      <c r="MQ5" t="n">
+        <v>8.297464</v>
+      </c>
+      <c r="MR5" t="n">
+        <v>7.472806</v>
+      </c>
+      <c r="MS5" t="n">
+        <v>11.32428</v>
+      </c>
+      <c r="MT5" t="n">
+        <v>12.92718</v>
+      </c>
+      <c r="MU5" t="n">
+        <v>13.68945</v>
+      </c>
+      <c r="MV5" t="n">
+        <v>11.47154</v>
+      </c>
+      <c r="MW5" t="n">
+        <v>9.883966</v>
+      </c>
+      <c r="MX5" t="n">
+        <v>10.6624</v>
+      </c>
+      <c r="MY5" t="n">
+        <v>8.90968</v>
+      </c>
+      <c r="MZ5" t="n">
+        <v>8.364047</v>
+      </c>
+      <c r="NA5" t="n">
+        <v>8.584153</v>
+      </c>
+      <c r="NB5" t="n">
+        <v>10.44796</v>
+      </c>
+      <c r="NC5" t="n">
+        <v>11.05755</v>
+      </c>
+      <c r="ND5" t="n">
+        <v>12.1377</v>
+      </c>
+      <c r="NE5" t="n">
+        <v>11.43615</v>
+      </c>
+      <c r="NF5" t="n">
+        <v>11.64664</v>
+      </c>
+      <c r="NG5" t="n">
+        <v>11.64664</v>
+      </c>
+      <c r="NH5" t="n">
+        <v>12.81131</v>
+      </c>
+      <c r="NI5" t="n">
+        <v>13.7264</v>
+      </c>
+      <c r="NJ5" t="n">
+        <v>13.25308</v>
+      </c>
+      <c r="NK5" t="n">
+        <v>12.20124</v>
+      </c>
+      <c r="NL5" t="n">
+        <v>10.11419</v>
+      </c>
+      <c r="NM5" t="n">
+        <v>10.11419</v>
+      </c>
+      <c r="NN5" t="n">
+        <v>11.99146</v>
+      </c>
+      <c r="NO5" t="n">
+        <v>12.31816</v>
+      </c>
+      <c r="NP5" t="n">
+        <v>11.80437</v>
+      </c>
+      <c r="NQ5" t="n">
+        <v>12.94434</v>
+      </c>
+      <c r="NR5" t="n">
+        <v>11.77352</v>
+      </c>
+      <c r="NS5" t="n">
+        <v>11.5711</v>
+      </c>
+      <c r="NT5" t="n">
+        <v>12.75427</v>
+      </c>
+      <c r="NU5" t="n">
+        <v>13.27509</v>
+      </c>
+      <c r="NV5" t="n">
+        <v>12.94814</v>
+      </c>
+      <c r="NW5" t="n">
+        <v>13.50969</v>
+      </c>
+      <c r="NX5" t="n">
+        <v>13.76329</v>
+      </c>
       <c r="NY5"/>
       <c r="NZ5"/>
       <c r="OA5"/>
@@ -6656,24 +5715,24 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>591</v>
+        <v>531</v>
       </c>
       <c r="C1" t="s">
-        <v>592</v>
+        <v>532</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>593</v>
+        <v>533</v>
       </c>
       <c r="F1" t="s">
-        <v>594</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B2" t="n">
         <v>1820.0</v>
@@ -6682,7 +5741,7 @@
         <v>1839.0</v>
       </c>
       <c r="D2" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E2" t="n">
         <v>1820.0</v>
@@ -6693,7 +5752,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B3" t="n">
         <v>1820.0</v>
@@ -6702,7 +5761,7 @@
         <v>1839.0</v>
       </c>
       <c r="D3" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E3" t="n">
         <v>1820.0</v>
@@ -6713,7 +5772,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B4" t="n">
         <v>1820.0</v>
@@ -6722,7 +5781,7 @@
         <v>1839.0</v>
       </c>
       <c r="D4" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
         <v>1821.0</v>
@@ -6733,7 +5792,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B5" t="n">
         <v>1820.0</v>
@@ -6742,7 +5801,7 @@
         <v>1839.0</v>
       </c>
       <c r="D5" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E5" t="n">
         <v>1821.0</v>
@@ -6753,7 +5812,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B6" t="n">
         <v>1820.0</v>
@@ -6762,7 +5821,7 @@
         <v>1839.0</v>
       </c>
       <c r="D6" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E6" t="n">
         <v>1822.0</v>
@@ -6773,7 +5832,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B7" t="n">
         <v>1820.0</v>
@@ -6782,7 +5841,7 @@
         <v>1839.0</v>
       </c>
       <c r="D7" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E7" t="n">
         <v>1822.0</v>
@@ -6793,7 +5852,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B8" t="n">
         <v>1820.0</v>
@@ -6802,7 +5861,7 @@
         <v>1839.0</v>
       </c>
       <c r="D8" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E8" t="n">
         <v>1823.0</v>
@@ -6813,7 +5872,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B9" t="n">
         <v>1820.0</v>
@@ -6822,7 +5881,7 @@
         <v>1839.0</v>
       </c>
       <c r="D9" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E9" t="n">
         <v>1823.0</v>
@@ -6833,7 +5892,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B10" t="n">
         <v>1820.0</v>
@@ -6842,7 +5901,7 @@
         <v>1839.0</v>
       </c>
       <c r="D10" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
         <v>1824.0</v>
@@ -6853,7 +5912,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B11" t="n">
         <v>1820.0</v>
@@ -6862,7 +5921,7 @@
         <v>1839.0</v>
       </c>
       <c r="D11" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E11" t="n">
         <v>1824.0</v>
@@ -6873,7 +5932,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B12" t="n">
         <v>1820.0</v>
@@ -6882,7 +5941,7 @@
         <v>1839.0</v>
       </c>
       <c r="D12" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E12" t="n">
         <v>1825.0</v>
@@ -6893,7 +5952,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B13" t="n">
         <v>1820.0</v>
@@ -6902,7 +5961,7 @@
         <v>1839.0</v>
       </c>
       <c r="D13" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E13" t="n">
         <v>1825.0</v>
@@ -6913,7 +5972,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B14" t="n">
         <v>1820.0</v>
@@ -6922,7 +5981,7 @@
         <v>1839.0</v>
       </c>
       <c r="D14" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E14" t="n">
         <v>1826.0</v>
@@ -6933,7 +5992,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B15" t="n">
         <v>1820.0</v>
@@ -6942,7 +6001,7 @@
         <v>1839.0</v>
       </c>
       <c r="D15" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E15" t="n">
         <v>1826.0</v>
@@ -6953,7 +6012,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B16" t="n">
         <v>1820.0</v>
@@ -6962,7 +6021,7 @@
         <v>1839.0</v>
       </c>
       <c r="D16" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E16" t="n">
         <v>1827.0</v>
@@ -6973,7 +6032,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B17" t="n">
         <v>1820.0</v>
@@ -6982,7 +6041,7 @@
         <v>1839.0</v>
       </c>
       <c r="D17" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E17" t="n">
         <v>1827.0</v>
@@ -6993,7 +6052,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B18" t="n">
         <v>1820.0</v>
@@ -7002,7 +6061,7 @@
         <v>1839.0</v>
       </c>
       <c r="D18" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E18" t="n">
         <v>1828.0</v>
@@ -7013,7 +6072,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B19" t="n">
         <v>1820.0</v>
@@ -7022,7 +6081,7 @@
         <v>1839.0</v>
       </c>
       <c r="D19" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E19" t="n">
         <v>1828.0</v>
@@ -7033,7 +6092,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B20" t="n">
         <v>1820.0</v>
@@ -7042,7 +6101,7 @@
         <v>1839.0</v>
       </c>
       <c r="D20" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E20" t="n">
         <v>1829.0</v>
@@ -7053,7 +6112,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B21" t="n">
         <v>1820.0</v>
@@ -7062,7 +6121,7 @@
         <v>1839.0</v>
       </c>
       <c r="D21" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E21" t="n">
         <v>1829.0</v>
@@ -7073,7 +6132,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B22" t="n">
         <v>1820.0</v>
@@ -7082,7 +6141,7 @@
         <v>1839.0</v>
       </c>
       <c r="D22" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E22" t="n">
         <v>1830.0</v>
@@ -7093,7 +6152,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B23" t="n">
         <v>1820.0</v>
@@ -7102,7 +6161,7 @@
         <v>1839.0</v>
       </c>
       <c r="D23" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E23" t="n">
         <v>1830.0</v>
@@ -7113,7 +6172,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B24" t="n">
         <v>1820.0</v>
@@ -7122,7 +6181,7 @@
         <v>1839.0</v>
       </c>
       <c r="D24" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E24" t="n">
         <v>1831.0</v>
@@ -7133,7 +6192,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B25" t="n">
         <v>1820.0</v>
@@ -7142,7 +6201,7 @@
         <v>1839.0</v>
       </c>
       <c r="D25" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E25" t="n">
         <v>1831.0</v>
@@ -7153,7 +6212,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B26" t="n">
         <v>1820.0</v>
@@ -7162,7 +6221,7 @@
         <v>1839.0</v>
       </c>
       <c r="D26" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E26" t="n">
         <v>1832.0</v>
@@ -7173,7 +6232,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B27" t="n">
         <v>1820.0</v>
@@ -7182,7 +6241,7 @@
         <v>1839.0</v>
       </c>
       <c r="D27" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E27" t="n">
         <v>1832.0</v>
@@ -7193,7 +6252,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B28" t="n">
         <v>1820.0</v>
@@ -7202,7 +6261,7 @@
         <v>1839.0</v>
       </c>
       <c r="D28" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E28" t="n">
         <v>1833.0</v>
@@ -7213,7 +6272,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B29" t="n">
         <v>1820.0</v>
@@ -7222,7 +6281,7 @@
         <v>1839.0</v>
       </c>
       <c r="D29" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E29" t="n">
         <v>1833.0</v>
@@ -7233,7 +6292,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B30" t="n">
         <v>1820.0</v>
@@ -7242,7 +6301,7 @@
         <v>1839.0</v>
       </c>
       <c r="D30" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E30" t="n">
         <v>1834.0</v>
@@ -7253,7 +6312,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B31" t="n">
         <v>1820.0</v>
@@ -7262,7 +6321,7 @@
         <v>1839.0</v>
       </c>
       <c r="D31" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E31" t="n">
         <v>1834.0</v>
@@ -7273,7 +6332,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B32" t="n">
         <v>1820.0</v>
@@ -7282,7 +6341,7 @@
         <v>1839.0</v>
       </c>
       <c r="D32" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E32" t="n">
         <v>1835.0</v>
@@ -7293,7 +6352,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B33" t="n">
         <v>1820.0</v>
@@ -7302,7 +6361,7 @@
         <v>1839.0</v>
       </c>
       <c r="D33" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E33" t="n">
         <v>1835.0</v>
@@ -7313,7 +6372,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B34" t="n">
         <v>1820.0</v>
@@ -7322,7 +6381,7 @@
         <v>1839.0</v>
       </c>
       <c r="D34" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E34" t="n">
         <v>1836.0</v>
@@ -7333,7 +6392,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B35" t="n">
         <v>1820.0</v>
@@ -7342,7 +6401,7 @@
         <v>1839.0</v>
       </c>
       <c r="D35" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E35" t="n">
         <v>1836.0</v>
@@ -7353,7 +6412,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B36" t="n">
         <v>1820.0</v>
@@ -7362,7 +6421,7 @@
         <v>1839.0</v>
       </c>
       <c r="D36" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E36" t="n">
         <v>1837.0</v>
@@ -7373,7 +6432,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B37" t="n">
         <v>1820.0</v>
@@ -7382,7 +6441,7 @@
         <v>1839.0</v>
       </c>
       <c r="D37" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E37" t="n">
         <v>1837.0</v>
@@ -7393,7 +6452,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B38" t="n">
         <v>1820.0</v>
@@ -7402,7 +6461,7 @@
         <v>1839.0</v>
       </c>
       <c r="D38" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E38" t="n">
         <v>1838.0</v>
@@ -7413,7 +6472,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B39" t="n">
         <v>1820.0</v>
@@ -7422,7 +6481,7 @@
         <v>1839.0</v>
       </c>
       <c r="D39" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E39" t="n">
         <v>1838.0</v>
@@ -7433,7 +6492,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B40" t="n">
         <v>1820.0</v>
@@ -7442,7 +6501,7 @@
         <v>1839.0</v>
       </c>
       <c r="D40" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E40" t="n">
         <v>1839.0</v>
@@ -7453,7 +6512,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B41" t="n">
         <v>1820.0</v>
@@ -7462,7 +6521,7 @@
         <v>1839.0</v>
       </c>
       <c r="D41" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E41" t="n">
         <v>1839.0</v>
@@ -7473,7 +6532,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B42" t="n">
         <v>1840.0</v>
@@ -7482,7 +6541,7 @@
         <v>1879.0</v>
       </c>
       <c r="D42" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E42" t="n">
         <v>1840.0</v>
@@ -7493,7 +6552,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B43" t="n">
         <v>1840.0</v>
@@ -7502,7 +6561,7 @@
         <v>1879.0</v>
       </c>
       <c r="D43" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E43" t="n">
         <v>1840.0</v>
@@ -7513,7 +6572,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B44" t="n">
         <v>1840.0</v>
@@ -7522,7 +6581,7 @@
         <v>1879.0</v>
       </c>
       <c r="D44" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E44" t="n">
         <v>1841.0</v>
@@ -7533,7 +6592,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B45" t="n">
         <v>1840.0</v>
@@ -7542,7 +6601,7 @@
         <v>1879.0</v>
       </c>
       <c r="D45" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E45" t="n">
         <v>1841.0</v>
@@ -7553,7 +6612,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B46" t="n">
         <v>1840.0</v>
@@ -7562,7 +6621,7 @@
         <v>1879.0</v>
       </c>
       <c r="D46" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E46" t="n">
         <v>1842.0</v>
@@ -7573,7 +6632,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B47" t="n">
         <v>1840.0</v>
@@ -7582,7 +6641,7 @@
         <v>1879.0</v>
       </c>
       <c r="D47" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E47" t="n">
         <v>1842.0</v>
@@ -7593,7 +6652,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B48" t="n">
         <v>1840.0</v>
@@ -7602,7 +6661,7 @@
         <v>1879.0</v>
       </c>
       <c r="D48" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E48" t="n">
         <v>1843.0</v>
@@ -7613,7 +6672,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B49" t="n">
         <v>1840.0</v>
@@ -7622,7 +6681,7 @@
         <v>1879.0</v>
       </c>
       <c r="D49" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E49" t="n">
         <v>1843.0</v>
@@ -7633,7 +6692,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B50" t="n">
         <v>1840.0</v>
@@ -7642,7 +6701,7 @@
         <v>1879.0</v>
       </c>
       <c r="D50" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E50" t="n">
         <v>1844.0</v>
@@ -7653,7 +6712,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B51" t="n">
         <v>1840.0</v>
@@ -7662,7 +6721,7 @@
         <v>1879.0</v>
       </c>
       <c r="D51" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E51" t="n">
         <v>1844.0</v>
@@ -7673,7 +6732,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B52" t="n">
         <v>1840.0</v>
@@ -7682,7 +6741,7 @@
         <v>1879.0</v>
       </c>
       <c r="D52" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E52" t="n">
         <v>1845.0</v>
@@ -7693,7 +6752,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B53" t="n">
         <v>1840.0</v>
@@ -7702,7 +6761,7 @@
         <v>1879.0</v>
       </c>
       <c r="D53" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E53" t="n">
         <v>1845.0</v>
@@ -7713,7 +6772,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B54" t="n">
         <v>1840.0</v>
@@ -7722,7 +6781,7 @@
         <v>1879.0</v>
       </c>
       <c r="D54" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E54" t="n">
         <v>1846.0</v>
@@ -7733,7 +6792,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B55" t="n">
         <v>1840.0</v>
@@ -7742,7 +6801,7 @@
         <v>1879.0</v>
       </c>
       <c r="D55" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E55" t="n">
         <v>1846.0</v>
@@ -7753,7 +6812,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B56" t="n">
         <v>1840.0</v>
@@ -7762,7 +6821,7 @@
         <v>1879.0</v>
       </c>
       <c r="D56" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E56" t="n">
         <v>1847.0</v>
@@ -7773,7 +6832,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B57" t="n">
         <v>1840.0</v>
@@ -7782,7 +6841,7 @@
         <v>1879.0</v>
       </c>
       <c r="D57" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E57" t="n">
         <v>1847.0</v>
@@ -7793,7 +6852,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B58" t="n">
         <v>1840.0</v>
@@ -7802,7 +6861,7 @@
         <v>1879.0</v>
       </c>
       <c r="D58" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E58" t="n">
         <v>1848.0</v>
@@ -7813,7 +6872,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B59" t="n">
         <v>1840.0</v>
@@ -7822,7 +6881,7 @@
         <v>1879.0</v>
       </c>
       <c r="D59" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E59" t="n">
         <v>1848.0</v>
@@ -7833,7 +6892,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B60" t="n">
         <v>1840.0</v>
@@ -7842,7 +6901,7 @@
         <v>1879.0</v>
       </c>
       <c r="D60" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E60" t="n">
         <v>1849.0</v>
@@ -7853,7 +6912,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B61" t="n">
         <v>1840.0</v>
@@ -7862,7 +6921,7 @@
         <v>1879.0</v>
       </c>
       <c r="D61" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E61" t="n">
         <v>1849.0</v>
@@ -7873,7 +6932,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B62" t="n">
         <v>1840.0</v>
@@ -7882,7 +6941,7 @@
         <v>1879.0</v>
       </c>
       <c r="D62" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E62" t="n">
         <v>1850.0</v>
@@ -7893,7 +6952,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B63" t="n">
         <v>1840.0</v>
@@ -7902,7 +6961,7 @@
         <v>1879.0</v>
       </c>
       <c r="D63" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E63" t="n">
         <v>1850.0</v>
@@ -7913,7 +6972,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B64" t="n">
         <v>1840.0</v>
@@ -7922,7 +6981,7 @@
         <v>1879.0</v>
       </c>
       <c r="D64" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E64" t="n">
         <v>1851.0</v>
@@ -7933,7 +6992,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B65" t="n">
         <v>1840.0</v>
@@ -7942,7 +7001,7 @@
         <v>1879.0</v>
       </c>
       <c r="D65" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E65" t="n">
         <v>1851.0</v>
@@ -7953,7 +7012,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B66" t="n">
         <v>1840.0</v>
@@ -7962,7 +7021,7 @@
         <v>1879.0</v>
       </c>
       <c r="D66" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E66" t="n">
         <v>1852.0</v>
@@ -7973,7 +7032,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B67" t="n">
         <v>1840.0</v>
@@ -7982,7 +7041,7 @@
         <v>1879.0</v>
       </c>
       <c r="D67" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E67" t="n">
         <v>1852.0</v>
@@ -7993,7 +7052,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B68" t="n">
         <v>1840.0</v>
@@ -8002,7 +7061,7 @@
         <v>1879.0</v>
       </c>
       <c r="D68" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E68" t="n">
         <v>1853.0</v>
@@ -8013,7 +7072,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B69" t="n">
         <v>1840.0</v>
@@ -8022,7 +7081,7 @@
         <v>1879.0</v>
       </c>
       <c r="D69" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E69" t="n">
         <v>1853.0</v>
@@ -8033,7 +7092,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B70" t="n">
         <v>1840.0</v>
@@ -8042,7 +7101,7 @@
         <v>1879.0</v>
       </c>
       <c r="D70" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E70" t="n">
         <v>1854.0</v>
@@ -8053,7 +7112,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B71" t="n">
         <v>1840.0</v>
@@ -8062,7 +7121,7 @@
         <v>1879.0</v>
       </c>
       <c r="D71" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E71" t="n">
         <v>1854.0</v>
@@ -8073,7 +7132,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B72" t="n">
         <v>1840.0</v>
@@ -8082,7 +7141,7 @@
         <v>1879.0</v>
       </c>
       <c r="D72" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E72" t="n">
         <v>1855.0</v>
@@ -8093,7 +7152,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B73" t="n">
         <v>1840.0</v>
@@ -8102,7 +7161,7 @@
         <v>1879.0</v>
       </c>
       <c r="D73" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E73" t="n">
         <v>1855.0</v>
@@ -8113,7 +7172,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B74" t="n">
         <v>1840.0</v>
@@ -8122,7 +7181,7 @@
         <v>1879.0</v>
       </c>
       <c r="D74" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E74" t="n">
         <v>1856.0</v>
@@ -8133,7 +7192,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B75" t="n">
         <v>1840.0</v>
@@ -8142,7 +7201,7 @@
         <v>1879.0</v>
       </c>
       <c r="D75" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E75" t="n">
         <v>1856.0</v>
@@ -8153,7 +7212,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B76" t="n">
         <v>1840.0</v>
@@ -8162,7 +7221,7 @@
         <v>1879.0</v>
       </c>
       <c r="D76" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E76" t="n">
         <v>1857.0</v>
@@ -8173,7 +7232,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B77" t="n">
         <v>1840.0</v>
@@ -8182,7 +7241,7 @@
         <v>1879.0</v>
       </c>
       <c r="D77" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E77" t="n">
         <v>1857.0</v>
@@ -8193,7 +7252,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B78" t="n">
         <v>1840.0</v>
@@ -8202,7 +7261,7 @@
         <v>1879.0</v>
       </c>
       <c r="D78" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E78" t="n">
         <v>1858.0</v>
@@ -8213,7 +7272,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B79" t="n">
         <v>1840.0</v>
@@ -8222,7 +7281,7 @@
         <v>1879.0</v>
       </c>
       <c r="D79" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E79" t="n">
         <v>1858.0</v>
@@ -8233,7 +7292,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B80" t="n">
         <v>1840.0</v>
@@ -8242,7 +7301,7 @@
         <v>1879.0</v>
       </c>
       <c r="D80" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E80" t="n">
         <v>1859.0</v>
@@ -8253,7 +7312,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B81" t="n">
         <v>1840.0</v>
@@ -8262,7 +7321,7 @@
         <v>1879.0</v>
       </c>
       <c r="D81" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E81" t="n">
         <v>1859.0</v>
@@ -8273,7 +7332,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B82" t="n">
         <v>1840.0</v>
@@ -8282,7 +7341,7 @@
         <v>1879.0</v>
       </c>
       <c r="D82" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E82" t="n">
         <v>1860.0</v>
@@ -8293,7 +7352,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B83" t="n">
         <v>1840.0</v>
@@ -8302,7 +7361,7 @@
         <v>1879.0</v>
       </c>
       <c r="D83" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E83" t="n">
         <v>1860.0</v>
@@ -8313,7 +7372,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B84" t="n">
         <v>1840.0</v>
@@ -8322,7 +7381,7 @@
         <v>1879.0</v>
       </c>
       <c r="D84" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E84" t="n">
         <v>1861.0</v>
@@ -8333,7 +7392,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B85" t="n">
         <v>1840.0</v>
@@ -8342,7 +7401,7 @@
         <v>1879.0</v>
       </c>
       <c r="D85" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E85" t="n">
         <v>1861.0</v>
@@ -8353,7 +7412,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B86" t="n">
         <v>1840.0</v>
@@ -8362,7 +7421,7 @@
         <v>1879.0</v>
       </c>
       <c r="D86" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E86" t="n">
         <v>1862.0</v>
@@ -8373,7 +7432,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B87" t="n">
         <v>1840.0</v>
@@ -8382,7 +7441,7 @@
         <v>1879.0</v>
       </c>
       <c r="D87" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E87" t="n">
         <v>1862.0</v>
@@ -8393,7 +7452,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B88" t="n">
         <v>1840.0</v>
@@ -8402,7 +7461,7 @@
         <v>1879.0</v>
       </c>
       <c r="D88" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E88" t="n">
         <v>1863.0</v>
@@ -8413,7 +7472,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B89" t="n">
         <v>1840.0</v>
@@ -8422,7 +7481,7 @@
         <v>1879.0</v>
       </c>
       <c r="D89" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E89" t="n">
         <v>1863.0</v>
@@ -8433,7 +7492,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B90" t="n">
         <v>1840.0</v>
@@ -8442,7 +7501,7 @@
         <v>1879.0</v>
       </c>
       <c r="D90" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E90" t="n">
         <v>1864.0</v>
@@ -8453,7 +7512,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B91" t="n">
         <v>1840.0</v>
@@ -8462,7 +7521,7 @@
         <v>1879.0</v>
       </c>
       <c r="D91" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E91" t="n">
         <v>1864.0</v>
@@ -8473,7 +7532,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B92" t="n">
         <v>1840.0</v>
@@ -8482,7 +7541,7 @@
         <v>1879.0</v>
       </c>
       <c r="D92" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E92" t="n">
         <v>1865.0</v>
@@ -8493,7 +7552,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B93" t="n">
         <v>1840.0</v>
@@ -8502,7 +7561,7 @@
         <v>1879.0</v>
       </c>
       <c r="D93" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E93" t="n">
         <v>1865.0</v>
@@ -8513,7 +7572,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B94" t="n">
         <v>1840.0</v>
@@ -8522,7 +7581,7 @@
         <v>1879.0</v>
       </c>
       <c r="D94" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E94" t="n">
         <v>1866.0</v>
@@ -8533,7 +7592,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B95" t="n">
         <v>1840.0</v>
@@ -8542,7 +7601,7 @@
         <v>1879.0</v>
       </c>
       <c r="D95" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E95" t="n">
         <v>1866.0</v>
@@ -8553,7 +7612,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B96" t="n">
         <v>1840.0</v>
@@ -8562,7 +7621,7 @@
         <v>1879.0</v>
       </c>
       <c r="D96" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E96" t="n">
         <v>1867.0</v>
@@ -8573,7 +7632,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B97" t="n">
         <v>1840.0</v>
@@ -8582,7 +7641,7 @@
         <v>1879.0</v>
       </c>
       <c r="D97" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E97" t="n">
         <v>1867.0</v>
@@ -8593,7 +7652,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B98" t="n">
         <v>1840.0</v>
@@ -8602,7 +7661,7 @@
         <v>1879.0</v>
       </c>
       <c r="D98" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E98" t="n">
         <v>1868.0</v>
@@ -8613,7 +7672,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B99" t="n">
         <v>1840.0</v>
@@ -8622,7 +7681,7 @@
         <v>1879.0</v>
       </c>
       <c r="D99" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E99" t="n">
         <v>1868.0</v>
@@ -8633,7 +7692,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B100" t="n">
         <v>1840.0</v>
@@ -8642,7 +7701,7 @@
         <v>1879.0</v>
       </c>
       <c r="D100" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E100" t="n">
         <v>1869.0</v>
@@ -8653,7 +7712,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B101" t="n">
         <v>1840.0</v>
@@ -8662,7 +7721,7 @@
         <v>1879.0</v>
       </c>
       <c r="D101" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E101" t="n">
         <v>1869.0</v>
@@ -8673,7 +7732,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B102" t="n">
         <v>1840.0</v>
@@ -8682,7 +7741,7 @@
         <v>1879.0</v>
       </c>
       <c r="D102" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E102" t="n">
         <v>1870.0</v>
@@ -8693,7 +7752,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B103" t="n">
         <v>1840.0</v>
@@ -8702,7 +7761,7 @@
         <v>1879.0</v>
       </c>
       <c r="D103" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E103" t="n">
         <v>1870.0</v>
@@ -8713,7 +7772,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B104" t="n">
         <v>1840.0</v>
@@ -8722,7 +7781,7 @@
         <v>1879.0</v>
       </c>
       <c r="D104" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E104" t="n">
         <v>1871.0</v>
@@ -8733,7 +7792,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B105" t="n">
         <v>1840.0</v>
@@ -8742,7 +7801,7 @@
         <v>1879.0</v>
       </c>
       <c r="D105" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E105" t="n">
         <v>1871.0</v>
@@ -8753,7 +7812,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B106" t="n">
         <v>1840.0</v>
@@ -8762,7 +7821,7 @@
         <v>1879.0</v>
       </c>
       <c r="D106" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E106" t="n">
         <v>1872.0</v>
@@ -8773,7 +7832,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B107" t="n">
         <v>1840.0</v>
@@ -8782,7 +7841,7 @@
         <v>1879.0</v>
       </c>
       <c r="D107" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E107" t="n">
         <v>1872.0</v>
@@ -8793,7 +7852,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B108" t="n">
         <v>1840.0</v>
@@ -8802,7 +7861,7 @@
         <v>1879.0</v>
       </c>
       <c r="D108" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E108" t="n">
         <v>1873.0</v>
@@ -8813,7 +7872,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B109" t="n">
         <v>1840.0</v>
@@ -8822,7 +7881,7 @@
         <v>1879.0</v>
       </c>
       <c r="D109" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E109" t="n">
         <v>1873.0</v>
@@ -8833,7 +7892,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B110" t="n">
         <v>1840.0</v>
@@ -8842,7 +7901,7 @@
         <v>1879.0</v>
       </c>
       <c r="D110" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E110" t="n">
         <v>1874.0</v>
@@ -8853,7 +7912,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B111" t="n">
         <v>1840.0</v>
@@ -8862,7 +7921,7 @@
         <v>1879.0</v>
       </c>
       <c r="D111" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E111" t="n">
         <v>1874.0</v>
@@ -8873,7 +7932,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B112" t="n">
         <v>1840.0</v>
@@ -8882,7 +7941,7 @@
         <v>1879.0</v>
       </c>
       <c r="D112" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E112" t="n">
         <v>1875.0</v>
@@ -8893,7 +7952,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B113" t="n">
         <v>1840.0</v>
@@ -8902,7 +7961,7 @@
         <v>1879.0</v>
       </c>
       <c r="D113" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E113" t="n">
         <v>1875.0</v>
@@ -8913,7 +7972,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B114" t="n">
         <v>1840.0</v>
@@ -8922,7 +7981,7 @@
         <v>1879.0</v>
       </c>
       <c r="D114" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E114" t="n">
         <v>1876.0</v>
@@ -8933,7 +7992,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B115" t="n">
         <v>1840.0</v>
@@ -8942,7 +8001,7 @@
         <v>1879.0</v>
       </c>
       <c r="D115" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E115" t="n">
         <v>1876.0</v>
@@ -8953,7 +8012,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B116" t="n">
         <v>1840.0</v>
@@ -8962,7 +8021,7 @@
         <v>1879.0</v>
       </c>
       <c r="D116" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E116" t="n">
         <v>1877.0</v>
@@ -8973,7 +8032,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B117" t="n">
         <v>1840.0</v>
@@ -8982,7 +8041,7 @@
         <v>1879.0</v>
       </c>
       <c r="D117" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E117" t="n">
         <v>1877.0</v>
@@ -8993,7 +8052,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B118" t="n">
         <v>1840.0</v>
@@ -9002,7 +8061,7 @@
         <v>1879.0</v>
       </c>
       <c r="D118" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E118" t="n">
         <v>1878.0</v>
@@ -9013,7 +8072,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B119" t="n">
         <v>1840.0</v>
@@ -9022,7 +8081,7 @@
         <v>1879.0</v>
       </c>
       <c r="D119" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E119" t="n">
         <v>1878.0</v>
@@ -9033,7 +8092,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B120" t="n">
         <v>1840.0</v>
@@ -9042,7 +8101,7 @@
         <v>1879.0</v>
       </c>
       <c r="D120" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="E120" t="n">
         <v>1879.0</v>
@@ -9053,7 +8112,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="B121" t="n">
         <v>1840.0</v>
@@ -9062,7 +8121,7 @@
         <v>1879.0</v>
       </c>
       <c r="D121" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E121" t="n">
         <v>1879.0</v>
@@ -9086,112 +8145,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>598</v>
+        <v>535</v>
       </c>
       <c r="B1" t="s">
-        <v>599</v>
+        <v>536</v>
       </c>
       <c r="C1" t="s">
-        <v>600</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>601</v>
+        <v>538</v>
       </c>
       <c r="B2" t="s">
-        <v>606</v>
+        <v>543</v>
       </c>
       <c r="C2" t="s">
-        <v>607</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>602</v>
+        <v>539</v>
       </c>
       <c r="B3" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="C3" t="s">
-        <v>608</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>602</v>
+        <v>539</v>
       </c>
       <c r="B4" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="C4" t="s">
-        <v>609</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>603</v>
+        <v>540</v>
       </c>
       <c r="B5" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="C5" t="s">
-        <v>610</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>604</v>
+        <v>541</v>
       </c>
       <c r="B6" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="C6" t="s">
-        <v>611</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>605</v>
+        <v>542</v>
       </c>
       <c r="B7" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="C7" t="s">
-        <v>612</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>603</v>
+        <v>540</v>
       </c>
       <c r="B8" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="C8" t="s">
-        <v>613</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>604</v>
+        <v>541</v>
       </c>
       <c r="B9" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="C9" t="s">
-        <v>614</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>605</v>
+        <v>542</v>
       </c>
       <c r="B10" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="C10" t="s">
-        <v>615</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>

--- a/www/docs/GermanConfederation_1820_1879_all_data.xlsx
+++ b/www/docs/GermanConfederation_1820_1879_all_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="588">
   <si>
     <t>Webmapper code</t>
   </si>
@@ -1588,6 +1588,111 @@
     <t>2015</t>
   </si>
   <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>2033</t>
+  </si>
+  <si>
+    <t>2034</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>2036</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>2038</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>2041</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>2043</t>
+  </si>
+  <si>
+    <t>2044</t>
+  </si>
+  <si>
+    <t>2045</t>
+  </si>
+  <si>
+    <t>2046</t>
+  </si>
+  <si>
+    <t>2047</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>2049</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
     <t>geacron/388</t>
   </si>
   <si>
@@ -1654,7 +1759,7 @@
     <t>Bosch, Reinoud and Koen van den Bos (2015). Exchange Rates to UK Pound. http://hdl.handle.net/10622/N6BLB8, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>Zwart, Pim de, Bas van Leeuwen and Jieli van Leeuwen-Li (2015). Labourers Real Wage. http://hdl.handle.net/10622/QK8VRF, accessed via the Clio Infra website.</t>
+    <t>Zwart, Pim de, Bas van Leeuwen, and Jieli van Leeuwen-Li (2015). Labourers Real Wage. http://hdl.handle.net/10622/QK8VRF, accessed via the Clio Infra website.</t>
   </si>
   <si>
     <t>https://www.clio-infra.eu/Citations/DOI-10622_N6BLB8.xml</t>
@@ -3296,17 +3401,122 @@
       <c r="TD1" t="s">
         <v>523</v>
       </c>
+      <c r="TE1" t="s">
+        <v>524</v>
+      </c>
+      <c r="TF1" t="s">
+        <v>525</v>
+      </c>
+      <c r="TG1" t="s">
+        <v>526</v>
+      </c>
+      <c r="TH1" t="s">
+        <v>527</v>
+      </c>
+      <c r="TI1" t="s">
+        <v>528</v>
+      </c>
+      <c r="TJ1" t="s">
+        <v>529</v>
+      </c>
+      <c r="TK1" t="s">
+        <v>530</v>
+      </c>
+      <c r="TL1" t="s">
+        <v>531</v>
+      </c>
+      <c r="TM1" t="s">
+        <v>532</v>
+      </c>
+      <c r="TN1" t="s">
+        <v>533</v>
+      </c>
+      <c r="TO1" t="s">
+        <v>534</v>
+      </c>
+      <c r="TP1" t="s">
+        <v>535</v>
+      </c>
+      <c r="TQ1" t="s">
+        <v>536</v>
+      </c>
+      <c r="TR1" t="s">
+        <v>537</v>
+      </c>
+      <c r="TS1" t="s">
+        <v>538</v>
+      </c>
+      <c r="TT1" t="s">
+        <v>539</v>
+      </c>
+      <c r="TU1" t="s">
+        <v>540</v>
+      </c>
+      <c r="TV1" t="s">
+        <v>541</v>
+      </c>
+      <c r="TW1" t="s">
+        <v>542</v>
+      </c>
+      <c r="TX1" t="s">
+        <v>543</v>
+      </c>
+      <c r="TY1" t="s">
+        <v>544</v>
+      </c>
+      <c r="TZ1" t="s">
+        <v>545</v>
+      </c>
+      <c r="UA1" t="s">
+        <v>546</v>
+      </c>
+      <c r="UB1" t="s">
+        <v>547</v>
+      </c>
+      <c r="UC1" t="s">
+        <v>548</v>
+      </c>
+      <c r="UD1" t="s">
+        <v>549</v>
+      </c>
+      <c r="UE1" t="s">
+        <v>550</v>
+      </c>
+      <c r="UF1" t="s">
+        <v>551</v>
+      </c>
+      <c r="UG1" t="s">
+        <v>552</v>
+      </c>
+      <c r="UH1" t="s">
+        <v>553</v>
+      </c>
+      <c r="UI1" t="s">
+        <v>554</v>
+      </c>
+      <c r="UJ1" t="s">
+        <v>555</v>
+      </c>
+      <c r="UK1" t="s">
+        <v>556</v>
+      </c>
+      <c r="UL1" t="s">
+        <v>557</v>
+      </c>
+      <c r="UM1" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="B2" t="n">
         <v>388.0</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="E2" t="n">
         <v>1820.0</v>
@@ -3315,10 +3525,10 @@
         <v>1839.0</v>
       </c>
       <c r="G2" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="H2" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -3876,17 +4086,52 @@
       <c r="TB2"/>
       <c r="TC2"/>
       <c r="TD2"/>
+      <c r="TE2"/>
+      <c r="TF2"/>
+      <c r="TG2"/>
+      <c r="TH2"/>
+      <c r="TI2"/>
+      <c r="TJ2"/>
+      <c r="TK2"/>
+      <c r="TL2"/>
+      <c r="TM2"/>
+      <c r="TN2"/>
+      <c r="TO2"/>
+      <c r="TP2"/>
+      <c r="TQ2"/>
+      <c r="TR2"/>
+      <c r="TS2"/>
+      <c r="TT2"/>
+      <c r="TU2"/>
+      <c r="TV2"/>
+      <c r="TW2"/>
+      <c r="TX2"/>
+      <c r="TY2"/>
+      <c r="TZ2"/>
+      <c r="UA2"/>
+      <c r="UB2"/>
+      <c r="UC2"/>
+      <c r="UD2"/>
+      <c r="UE2"/>
+      <c r="UF2"/>
+      <c r="UG2"/>
+      <c r="UH2"/>
+      <c r="UI2"/>
+      <c r="UJ2"/>
+      <c r="UK2"/>
+      <c r="UL2"/>
+      <c r="UM2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B3" t="n">
         <v>389.0</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="E3" t="n">
         <v>1840.0</v>
@@ -3895,10 +4140,10 @@
         <v>1879.0</v>
       </c>
       <c r="G3" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="H3" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -4496,17 +4741,52 @@
       <c r="TB3"/>
       <c r="TC3"/>
       <c r="TD3"/>
+      <c r="TE3"/>
+      <c r="TF3"/>
+      <c r="TG3"/>
+      <c r="TH3"/>
+      <c r="TI3"/>
+      <c r="TJ3"/>
+      <c r="TK3"/>
+      <c r="TL3"/>
+      <c r="TM3"/>
+      <c r="TN3"/>
+      <c r="TO3"/>
+      <c r="TP3"/>
+      <c r="TQ3"/>
+      <c r="TR3"/>
+      <c r="TS3"/>
+      <c r="TT3"/>
+      <c r="TU3"/>
+      <c r="TV3"/>
+      <c r="TW3"/>
+      <c r="TX3"/>
+      <c r="TY3"/>
+      <c r="TZ3"/>
+      <c r="UA3"/>
+      <c r="UB3"/>
+      <c r="UC3"/>
+      <c r="UD3"/>
+      <c r="UE3"/>
+      <c r="UF3"/>
+      <c r="UG3"/>
+      <c r="UH3"/>
+      <c r="UI3"/>
+      <c r="UJ3"/>
+      <c r="UK3"/>
+      <c r="UL3"/>
+      <c r="UM3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="B4" t="n">
         <v>388.0</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="E4" t="n">
         <v>1820.0</v>
@@ -4515,10 +4795,10 @@
         <v>1839.0</v>
       </c>
       <c r="G4" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="H4" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -5076,17 +5356,52 @@
       <c r="TB4"/>
       <c r="TC4"/>
       <c r="TD4"/>
+      <c r="TE4"/>
+      <c r="TF4"/>
+      <c r="TG4"/>
+      <c r="TH4"/>
+      <c r="TI4"/>
+      <c r="TJ4"/>
+      <c r="TK4"/>
+      <c r="TL4"/>
+      <c r="TM4"/>
+      <c r="TN4"/>
+      <c r="TO4"/>
+      <c r="TP4"/>
+      <c r="TQ4"/>
+      <c r="TR4"/>
+      <c r="TS4"/>
+      <c r="TT4"/>
+      <c r="TU4"/>
+      <c r="TV4"/>
+      <c r="TW4"/>
+      <c r="TX4"/>
+      <c r="TY4"/>
+      <c r="TZ4"/>
+      <c r="UA4"/>
+      <c r="UB4"/>
+      <c r="UC4"/>
+      <c r="UD4"/>
+      <c r="UE4"/>
+      <c r="UF4"/>
+      <c r="UG4"/>
+      <c r="UH4"/>
+      <c r="UI4"/>
+      <c r="UJ4"/>
+      <c r="UK4"/>
+      <c r="UL4"/>
+      <c r="UM4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B5" t="n">
         <v>389.0</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="E5" t="n">
         <v>1840.0</v>
@@ -5095,10 +5410,10 @@
         <v>1879.0</v>
       </c>
       <c r="G5" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="H5" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -5696,6 +6011,41 @@
       <c r="TB5"/>
       <c r="TC5"/>
       <c r="TD5"/>
+      <c r="TE5"/>
+      <c r="TF5"/>
+      <c r="TG5"/>
+      <c r="TH5"/>
+      <c r="TI5"/>
+      <c r="TJ5"/>
+      <c r="TK5"/>
+      <c r="TL5"/>
+      <c r="TM5"/>
+      <c r="TN5"/>
+      <c r="TO5"/>
+      <c r="TP5"/>
+      <c r="TQ5"/>
+      <c r="TR5"/>
+      <c r="TS5"/>
+      <c r="TT5"/>
+      <c r="TU5"/>
+      <c r="TV5"/>
+      <c r="TW5"/>
+      <c r="TX5"/>
+      <c r="TY5"/>
+      <c r="TZ5"/>
+      <c r="UA5"/>
+      <c r="UB5"/>
+      <c r="UC5"/>
+      <c r="UD5"/>
+      <c r="UE5"/>
+      <c r="UF5"/>
+      <c r="UG5"/>
+      <c r="UH5"/>
+      <c r="UI5"/>
+      <c r="UJ5"/>
+      <c r="UK5"/>
+      <c r="UL5"/>
+      <c r="UM5"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -5715,24 +6065,129 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="C1" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H1" t="s">
+        <v>527</v>
+      </c>
+      <c r="I1" t="s">
+        <v>528</v>
+      </c>
+      <c r="J1" t="s">
+        <v>529</v>
+      </c>
+      <c r="K1" t="s">
+        <v>530</v>
+      </c>
+      <c r="L1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M1" t="s">
+        <v>532</v>
+      </c>
+      <c r="N1" t="s">
         <v>533</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>534</v>
+      </c>
+      <c r="P1" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>536</v>
+      </c>
+      <c r="R1" t="s">
+        <v>537</v>
+      </c>
+      <c r="S1" t="s">
+        <v>538</v>
+      </c>
+      <c r="T1" t="s">
+        <v>539</v>
+      </c>
+      <c r="U1" t="s">
+        <v>540</v>
+      </c>
+      <c r="V1" t="s">
+        <v>541</v>
+      </c>
+      <c r="W1" t="s">
+        <v>542</v>
+      </c>
+      <c r="X1" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>544</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>545</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>546</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>547</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>548</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>549</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>550</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>551</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>552</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>553</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>554</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>555</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>556</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>557</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>558</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>568</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B2" t="n">
         <v>1820.0</v>
@@ -5741,18 +6196,53 @@
         <v>1839.0</v>
       </c>
       <c r="D2" t="s">
-        <v>529</v>
-      </c>
-      <c r="E2" t="n">
+        <v>564</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2" t="n">
         <v>1820.0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="AO2" t="n">
         <v>13.869626</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B3" t="n">
         <v>1820.0</v>
@@ -5761,18 +6251,53 @@
         <v>1839.0</v>
       </c>
       <c r="D3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E3" t="n">
+        <v>565</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3" t="n">
         <v>1820.0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="AO3" t="n">
         <v>8.426688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B4" t="n">
         <v>1820.0</v>
@@ -5781,18 +6306,53 @@
         <v>1839.0</v>
       </c>
       <c r="D4" t="s">
-        <v>529</v>
-      </c>
-      <c r="E4" t="n">
+        <v>564</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4" t="n">
         <v>1821.0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="AO4" t="n">
         <v>14.320493</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B5" t="n">
         <v>1820.0</v>
@@ -5801,18 +6361,53 @@
         <v>1839.0</v>
       </c>
       <c r="D5" t="s">
-        <v>530</v>
-      </c>
-      <c r="E5" t="n">
+        <v>565</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5" t="n">
         <v>1821.0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="AO5" t="n">
         <v>9.757218</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B6" t="n">
         <v>1820.0</v>
@@ -5821,18 +6416,53 @@
         <v>1839.0</v>
       </c>
       <c r="D6" t="s">
-        <v>529</v>
-      </c>
-      <c r="E6" t="n">
+        <v>564</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6" t="n">
         <v>1822.0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="AO6" t="n">
         <v>14.110343</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B7" t="n">
         <v>1820.0</v>
@@ -5841,18 +6471,53 @@
         <v>1839.0</v>
       </c>
       <c r="D7" t="s">
-        <v>530</v>
-      </c>
-      <c r="E7" t="n">
+        <v>565</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7" t="n">
         <v>1822.0</v>
       </c>
-      <c r="F7" t="n">
+      <c r="AO7" t="n">
         <v>9.757218</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B8" t="n">
         <v>1820.0</v>
@@ -5861,18 +6526,53 @@
         <v>1839.0</v>
       </c>
       <c r="D8" t="s">
-        <v>529</v>
-      </c>
-      <c r="E8" t="n">
+        <v>564</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AN8" t="n">
         <v>1823.0</v>
       </c>
-      <c r="F8" t="n">
+      <c r="AO8" t="n">
         <v>14.269406</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B9" t="n">
         <v>1820.0</v>
@@ -5881,18 +6581,53 @@
         <v>1839.0</v>
       </c>
       <c r="D9" t="s">
-        <v>530</v>
-      </c>
-      <c r="E9" t="n">
+        <v>565</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9" t="n">
         <v>1823.0</v>
       </c>
-      <c r="F9" t="n">
+      <c r="AO9" t="n">
         <v>9.269357</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B10" t="n">
         <v>1820.0</v>
@@ -5901,18 +6636,53 @@
         <v>1839.0</v>
       </c>
       <c r="D10" t="s">
-        <v>529</v>
-      </c>
-      <c r="E10" t="n">
+        <v>564</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AN10" t="n">
         <v>1824.0</v>
       </c>
-      <c r="F10" t="n">
+      <c r="AO10" t="n">
         <v>13.989927</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B11" t="n">
         <v>1820.0</v>
@@ -5921,18 +6691,53 @@
         <v>1839.0</v>
       </c>
       <c r="D11" t="s">
-        <v>530</v>
-      </c>
-      <c r="E11" t="n">
+        <v>565</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11" t="n">
         <v>1824.0</v>
       </c>
-      <c r="F11" t="n">
+      <c r="AO11" t="n">
         <v>12.359142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B12" t="n">
         <v>1820.0</v>
@@ -5941,18 +6746,53 @@
         <v>1839.0</v>
       </c>
       <c r="D12" t="s">
-        <v>529</v>
-      </c>
-      <c r="E12" t="n">
+        <v>564</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12" t="n">
         <v>1825.0</v>
       </c>
-      <c r="F12" t="n">
+      <c r="AO12" t="n">
         <v>13.84083</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B13" t="n">
         <v>1820.0</v>
@@ -5961,18 +6801,53 @@
         <v>1839.0</v>
       </c>
       <c r="D13" t="s">
-        <v>530</v>
-      </c>
-      <c r="E13" t="n">
+        <v>565</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13" t="n">
         <v>1825.0</v>
       </c>
-      <c r="F13" t="n">
+      <c r="AO13" t="n">
         <v>12.78532</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B14" t="n">
         <v>1820.0</v>
@@ -5981,18 +6856,53 @@
         <v>1839.0</v>
       </c>
       <c r="D14" t="s">
-        <v>529</v>
-      </c>
-      <c r="E14" t="n">
+        <v>564</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14" t="n">
         <v>1826.0</v>
       </c>
-      <c r="F14" t="n">
+      <c r="AO14" t="n">
         <v>14.130281</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B15" t="n">
         <v>1820.0</v>
@@ -6001,18 +6911,53 @@
         <v>1839.0</v>
       </c>
       <c r="D15" t="s">
-        <v>530</v>
-      </c>
-      <c r="E15" t="n">
+        <v>565</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AN15" t="n">
         <v>1826.0</v>
       </c>
-      <c r="F15" t="n">
+      <c r="AO15" t="n">
         <v>11.235584</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B16" t="n">
         <v>1820.0</v>
@@ -6021,18 +6966,53 @@
         <v>1839.0</v>
       </c>
       <c r="D16" t="s">
-        <v>529</v>
-      </c>
-      <c r="E16" t="n">
+        <v>564</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16" t="n">
         <v>1827.0</v>
       </c>
-      <c r="F16" t="n">
+      <c r="AO16" t="n">
         <v>13.919822</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B17" t="n">
         <v>1820.0</v>
@@ -6041,18 +7021,53 @@
         <v>1839.0</v>
       </c>
       <c r="D17" t="s">
-        <v>530</v>
-      </c>
-      <c r="E17" t="n">
+        <v>565</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17" t="n">
         <v>1827.0</v>
       </c>
-      <c r="F17" t="n">
+      <c r="AO17" t="n">
         <v>9.507032</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B18" t="n">
         <v>1820.0</v>
@@ -6061,18 +7076,53 @@
         <v>1839.0</v>
       </c>
       <c r="D18" t="s">
-        <v>529</v>
-      </c>
-      <c r="E18" t="n">
+        <v>564</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18" t="n">
         <v>1828.0</v>
       </c>
-      <c r="F18" t="n">
+      <c r="AO18" t="n">
         <v>13.800718</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B19" t="n">
         <v>1820.0</v>
@@ -6081,18 +7131,53 @@
         <v>1839.0</v>
       </c>
       <c r="D19" t="s">
-        <v>530</v>
-      </c>
-      <c r="E19" t="n">
+        <v>565</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19" t="n">
         <v>1828.0</v>
       </c>
-      <c r="F19" t="n">
+      <c r="AO19" t="n">
         <v>9.269357</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B20" t="n">
         <v>1820.0</v>
@@ -6101,18 +7186,53 @@
         <v>1839.0</v>
       </c>
       <c r="D20" t="s">
-        <v>529</v>
-      </c>
-      <c r="E20" t="n">
+        <v>564</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20" t="n">
         <v>1829.0</v>
       </c>
-      <c r="F20" t="n">
+      <c r="AO20" t="n">
         <v>13.900473</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B21" t="n">
         <v>1820.0</v>
@@ -6121,18 +7241,53 @@
         <v>1839.0</v>
       </c>
       <c r="D21" t="s">
-        <v>530</v>
-      </c>
-      <c r="E21" t="n">
+        <v>565</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21" t="n">
         <v>1829.0</v>
       </c>
-      <c r="F21" t="n">
+      <c r="AO21" t="n">
         <v>9.269357</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B22" t="n">
         <v>1820.0</v>
@@ -6141,18 +7296,53 @@
         <v>1839.0</v>
       </c>
       <c r="D22" t="s">
-        <v>529</v>
-      </c>
-      <c r="E22" t="n">
+        <v>564</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AM22"/>
+      <c r="AN22" t="n">
         <v>1830.0</v>
       </c>
-      <c r="F22" t="n">
+      <c r="AO22" t="n">
         <v>14.019347</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B23" t="n">
         <v>1820.0</v>
@@ -6161,18 +7351,53 @@
         <v>1839.0</v>
       </c>
       <c r="D23" t="s">
-        <v>530</v>
-      </c>
-      <c r="E23" t="n">
+        <v>565</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23"/>
+      <c r="AN23" t="n">
         <v>1830.0</v>
       </c>
-      <c r="F23" t="n">
+      <c r="AO23" t="n">
         <v>8.622657</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B24" t="n">
         <v>1820.0</v>
@@ -6181,18 +7406,53 @@
         <v>1839.0</v>
       </c>
       <c r="D24" t="s">
-        <v>529</v>
-      </c>
-      <c r="E24" t="n">
+        <v>564</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24" t="n">
         <v>1831.0</v>
       </c>
-      <c r="F24" t="n">
+      <c r="AO24" t="n">
         <v>13.749484</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B25" t="n">
         <v>1820.0</v>
@@ -6201,18 +7461,53 @@
         <v>1839.0</v>
       </c>
       <c r="D25" t="s">
-        <v>530</v>
-      </c>
-      <c r="E25" t="n">
+        <v>565</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
+      <c r="AM25"/>
+      <c r="AN25" t="n">
         <v>1831.0</v>
       </c>
-      <c r="F25" t="n">
+      <c r="AO25" t="n">
         <v>7.415485</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B26" t="n">
         <v>1820.0</v>
@@ -6221,18 +7516,53 @@
         <v>1839.0</v>
       </c>
       <c r="D26" t="s">
-        <v>529</v>
-      </c>
-      <c r="E26" t="n">
+        <v>564</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
+      <c r="AM26"/>
+      <c r="AN26" t="n">
         <v>1832.0</v>
       </c>
-      <c r="F26" t="n">
+      <c r="AO26" t="n">
         <v>13.950893</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B27" t="n">
         <v>1820.0</v>
@@ -6241,18 +7571,53 @@
         <v>1839.0</v>
       </c>
       <c r="D27" t="s">
-        <v>530</v>
-      </c>
-      <c r="E27" t="n">
+        <v>565</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27"/>
+      <c r="AN27" t="n">
         <v>1832.0</v>
       </c>
-      <c r="F27" t="n">
+      <c r="AO27" t="n">
         <v>7.888814</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B28" t="n">
         <v>1820.0</v>
@@ -6261,18 +7626,53 @@
         <v>1839.0</v>
       </c>
       <c r="D28" t="s">
-        <v>529</v>
-      </c>
-      <c r="E28" t="n">
+        <v>564</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28" t="n">
         <v>1833.0</v>
       </c>
-      <c r="F28" t="n">
+      <c r="AO28" t="n">
         <v>13.869626</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B29" t="n">
         <v>1820.0</v>
@@ -6281,18 +7681,53 @@
         <v>1839.0</v>
       </c>
       <c r="D29" t="s">
-        <v>530</v>
-      </c>
-      <c r="E29" t="n">
+        <v>565</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29" t="n">
         <v>1833.0</v>
       </c>
-      <c r="F29" t="n">
+      <c r="AO29" t="n">
         <v>8.426688</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B30" t="n">
         <v>1820.0</v>
@@ -6301,18 +7736,53 @@
         <v>1839.0</v>
       </c>
       <c r="D30" t="s">
-        <v>529</v>
-      </c>
-      <c r="E30" t="n">
+        <v>564</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30"/>
+      <c r="AI30"/>
+      <c r="AJ30"/>
+      <c r="AK30"/>
+      <c r="AL30"/>
+      <c r="AM30"/>
+      <c r="AN30" t="n">
         <v>1834.0</v>
       </c>
-      <c r="F30" t="n">
+      <c r="AO30" t="n">
         <v>13.700507</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B31" t="n">
         <v>1820.0</v>
@@ -6321,18 +7791,53 @@
         <v>1839.0</v>
       </c>
       <c r="D31" t="s">
-        <v>530</v>
-      </c>
-      <c r="E31" t="n">
+        <v>565</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+      <c r="AE31"/>
+      <c r="AF31"/>
+      <c r="AG31"/>
+      <c r="AH31"/>
+      <c r="AI31"/>
+      <c r="AJ31"/>
+      <c r="AK31"/>
+      <c r="AL31"/>
+      <c r="AM31"/>
+      <c r="AN31" t="n">
         <v>1834.0</v>
       </c>
-      <c r="F31" t="n">
+      <c r="AO31" t="n">
         <v>10.020926</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B32" t="n">
         <v>1820.0</v>
@@ -6341,18 +7846,53 @@
         <v>1839.0</v>
       </c>
       <c r="D32" t="s">
-        <v>529</v>
-      </c>
-      <c r="E32" t="n">
+        <v>564</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+      <c r="AE32"/>
+      <c r="AF32"/>
+      <c r="AG32"/>
+      <c r="AH32"/>
+      <c r="AI32"/>
+      <c r="AJ32"/>
+      <c r="AK32"/>
+      <c r="AL32"/>
+      <c r="AM32"/>
+      <c r="AN32" t="n">
         <v>1835.0</v>
       </c>
-      <c r="F32" t="n">
+      <c r="AO32" t="n">
         <v>13.760837</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B33" t="n">
         <v>1820.0</v>
@@ -6361,18 +7901,53 @@
         <v>1839.0</v>
       </c>
       <c r="D33" t="s">
-        <v>530</v>
-      </c>
-      <c r="E33" t="n">
+        <v>565</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
+      <c r="AH33"/>
+      <c r="AI33"/>
+      <c r="AJ33"/>
+      <c r="AK33"/>
+      <c r="AL33"/>
+      <c r="AM33"/>
+      <c r="AN33" t="n">
         <v>1835.0</v>
       </c>
-      <c r="F33" t="n">
+      <c r="AO33" t="n">
         <v>9.757218</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B34" t="n">
         <v>1820.0</v>
@@ -6381,18 +7956,53 @@
         <v>1839.0</v>
       </c>
       <c r="D34" t="s">
-        <v>529</v>
-      </c>
-      <c r="E34" t="n">
+        <v>564</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+      <c r="AJ34"/>
+      <c r="AK34"/>
+      <c r="AL34"/>
+      <c r="AM34"/>
+      <c r="AN34" t="n">
         <v>1836.0</v>
       </c>
-      <c r="F34" t="n">
+      <c r="AO34" t="n">
         <v>13.810247</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B35" t="n">
         <v>1820.0</v>
@@ -6401,18 +8011,53 @@
         <v>1839.0</v>
       </c>
       <c r="D35" t="s">
-        <v>530</v>
-      </c>
-      <c r="E35" t="n">
+        <v>565</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+      <c r="AJ35"/>
+      <c r="AK35"/>
+      <c r="AL35"/>
+      <c r="AM35"/>
+      <c r="AN35" t="n">
         <v>1836.0</v>
       </c>
-      <c r="F35" t="n">
+      <c r="AO35" t="n">
         <v>10.020926</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B36" t="n">
         <v>1820.0</v>
@@ -6421,18 +8066,53 @@
         <v>1839.0</v>
       </c>
       <c r="D36" t="s">
-        <v>529</v>
-      </c>
-      <c r="E36" t="n">
+        <v>564</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AJ36"/>
+      <c r="AK36"/>
+      <c r="AL36"/>
+      <c r="AM36"/>
+      <c r="AN36" t="n">
         <v>1837.0</v>
       </c>
-      <c r="F36" t="n">
+      <c r="AO36" t="n">
         <v>13.810247</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B37" t="n">
         <v>1820.0</v>
@@ -6441,18 +8121,53 @@
         <v>1839.0</v>
       </c>
       <c r="D37" t="s">
-        <v>530</v>
-      </c>
-      <c r="E37" t="n">
+        <v>565</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37"/>
+      <c r="AK37"/>
+      <c r="AL37"/>
+      <c r="AM37"/>
+      <c r="AN37" t="n">
         <v>1837.0</v>
       </c>
-      <c r="F37" t="n">
+      <c r="AO37" t="n">
         <v>9.757218</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B38" t="n">
         <v>1820.0</v>
@@ -6461,18 +8176,53 @@
         <v>1839.0</v>
       </c>
       <c r="D38" t="s">
-        <v>529</v>
-      </c>
-      <c r="E38" t="n">
+        <v>564</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38"/>
+      <c r="AI38"/>
+      <c r="AJ38"/>
+      <c r="AK38"/>
+      <c r="AL38"/>
+      <c r="AM38"/>
+      <c r="AN38" t="n">
         <v>1838.0</v>
       </c>
-      <c r="F38" t="n">
+      <c r="AO38" t="n">
         <v>13.719303</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B39" t="n">
         <v>1820.0</v>
@@ -6481,18 +8231,53 @@
         <v>1839.0</v>
       </c>
       <c r="D39" t="s">
-        <v>530</v>
-      </c>
-      <c r="E39" t="n">
+        <v>565</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
+      <c r="AG39"/>
+      <c r="AH39"/>
+      <c r="AI39"/>
+      <c r="AJ39"/>
+      <c r="AK39"/>
+      <c r="AL39"/>
+      <c r="AM39"/>
+      <c r="AN39" t="n">
         <v>1838.0</v>
       </c>
-      <c r="F39" t="n">
+      <c r="AO39" t="n">
         <v>8.426688</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B40" t="n">
         <v>1820.0</v>
@@ -6501,18 +8286,53 @@
         <v>1839.0</v>
       </c>
       <c r="D40" t="s">
-        <v>529</v>
-      </c>
-      <c r="E40" t="n">
+        <v>564</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+      <c r="AE40"/>
+      <c r="AF40"/>
+      <c r="AG40"/>
+      <c r="AH40"/>
+      <c r="AI40"/>
+      <c r="AJ40"/>
+      <c r="AK40"/>
+      <c r="AL40"/>
+      <c r="AM40"/>
+      <c r="AN40" t="n">
         <v>1839.0</v>
       </c>
-      <c r="F40" t="n">
+      <c r="AO40" t="n">
         <v>13.620267</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B41" t="n">
         <v>1820.0</v>
@@ -6521,18 +8341,53 @@
         <v>1839.0</v>
       </c>
       <c r="D41" t="s">
-        <v>530</v>
-      </c>
-      <c r="E41" t="n">
+        <v>565</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+      <c r="AE41"/>
+      <c r="AF41"/>
+      <c r="AG41"/>
+      <c r="AH41"/>
+      <c r="AI41"/>
+      <c r="AJ41"/>
+      <c r="AK41"/>
+      <c r="AL41"/>
+      <c r="AM41"/>
+      <c r="AN41" t="n">
         <v>1839.0</v>
       </c>
-      <c r="F41" t="n">
+      <c r="AO41" t="n">
         <v>8.06031</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B42" t="n">
         <v>1840.0</v>
@@ -6541,18 +8396,53 @@
         <v>1879.0</v>
       </c>
       <c r="D42" t="s">
-        <v>529</v>
-      </c>
-      <c r="E42" t="n">
+        <v>564</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+      <c r="AE42"/>
+      <c r="AF42"/>
+      <c r="AG42"/>
+      <c r="AH42"/>
+      <c r="AI42"/>
+      <c r="AJ42"/>
+      <c r="AK42"/>
+      <c r="AL42"/>
+      <c r="AM42"/>
+      <c r="AN42" t="n">
         <v>1840.0</v>
       </c>
-      <c r="F42" t="n">
+      <c r="AO42" t="n">
         <v>13.529969</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B43" t="n">
         <v>1840.0</v>
@@ -6561,18 +8451,53 @@
         <v>1879.0</v>
       </c>
       <c r="D43" t="s">
-        <v>530</v>
-      </c>
-      <c r="E43" t="n">
+        <v>565</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43"/>
+      <c r="AF43"/>
+      <c r="AG43"/>
+      <c r="AH43"/>
+      <c r="AI43"/>
+      <c r="AJ43"/>
+      <c r="AK43"/>
+      <c r="AL43"/>
+      <c r="AM43"/>
+      <c r="AN43" t="n">
         <v>1840.0</v>
       </c>
-      <c r="F43" t="n">
+      <c r="AO43" t="n">
         <v>8.239428</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B44" t="n">
         <v>1840.0</v>
@@ -6581,18 +8506,53 @@
         <v>1879.0</v>
       </c>
       <c r="D44" t="s">
-        <v>529</v>
-      </c>
-      <c r="E44" t="n">
+        <v>564</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44"/>
+      <c r="AG44"/>
+      <c r="AH44"/>
+      <c r="AI44"/>
+      <c r="AJ44"/>
+      <c r="AK44"/>
+      <c r="AL44"/>
+      <c r="AM44"/>
+      <c r="AN44" t="n">
         <v>1841.0</v>
       </c>
-      <c r="F44" t="n">
+      <c r="AO44" t="n">
         <v>13.599891</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B45" t="n">
         <v>1840.0</v>
@@ -6601,18 +8561,53 @@
         <v>1879.0</v>
       </c>
       <c r="D45" t="s">
-        <v>530</v>
-      </c>
-      <c r="E45" t="n">
+        <v>565</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+      <c r="AG45"/>
+      <c r="AH45"/>
+      <c r="AI45"/>
+      <c r="AJ45"/>
+      <c r="AK45"/>
+      <c r="AL45"/>
+      <c r="AM45"/>
+      <c r="AN45" t="n">
         <v>1841.0</v>
       </c>
-      <c r="F45" t="n">
+      <c r="AO45" t="n">
         <v>11.433284</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B46" t="n">
         <v>1840.0</v>
@@ -6621,18 +8616,53 @@
         <v>1879.0</v>
       </c>
       <c r="D46" t="s">
-        <v>529</v>
-      </c>
-      <c r="E46" t="n">
+        <v>564</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+      <c r="AG46"/>
+      <c r="AH46"/>
+      <c r="AI46"/>
+      <c r="AJ46"/>
+      <c r="AK46"/>
+      <c r="AL46"/>
+      <c r="AM46"/>
+      <c r="AN46" t="n">
         <v>1842.0</v>
       </c>
-      <c r="F46" t="n">
+      <c r="AO46" t="n">
         <v>13.719303</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B47" t="n">
         <v>1840.0</v>
@@ -6641,18 +8671,53 @@
         <v>1879.0</v>
       </c>
       <c r="D47" t="s">
-        <v>530</v>
-      </c>
-      <c r="E47" t="n">
+        <v>565</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
+      <c r="AF47"/>
+      <c r="AG47"/>
+      <c r="AH47"/>
+      <c r="AI47"/>
+      <c r="AJ47"/>
+      <c r="AK47"/>
+      <c r="AL47"/>
+      <c r="AM47"/>
+      <c r="AN47" t="n">
         <v>1842.0</v>
       </c>
-      <c r="F47" t="n">
+      <c r="AO47" t="n">
         <v>10.57023</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B48" t="n">
         <v>1840.0</v>
@@ -6661,18 +8726,53 @@
         <v>1879.0</v>
       </c>
       <c r="D48" t="s">
-        <v>529</v>
-      </c>
-      <c r="E48" t="n">
+        <v>564</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48"/>
+      <c r="AF48"/>
+      <c r="AG48"/>
+      <c r="AH48"/>
+      <c r="AI48"/>
+      <c r="AJ48"/>
+      <c r="AK48"/>
+      <c r="AL48"/>
+      <c r="AM48"/>
+      <c r="AN48" t="n">
         <v>1843.0</v>
       </c>
-      <c r="F48" t="n">
+      <c r="AO48" t="n">
         <v>13.810247</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B49" t="n">
         <v>1840.0</v>
@@ -6681,18 +8781,53 @@
         <v>1879.0</v>
       </c>
       <c r="D49" t="s">
-        <v>530</v>
-      </c>
-      <c r="E49" t="n">
+        <v>565</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+      <c r="AG49"/>
+      <c r="AH49"/>
+      <c r="AI49"/>
+      <c r="AJ49"/>
+      <c r="AK49"/>
+      <c r="AL49"/>
+      <c r="AM49"/>
+      <c r="AN49" t="n">
         <v>1843.0</v>
       </c>
-      <c r="F49" t="n">
+      <c r="AO49" t="n">
         <v>10.181617</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B50" t="n">
         <v>1840.0</v>
@@ -6701,18 +8836,53 @@
         <v>1879.0</v>
       </c>
       <c r="D50" t="s">
-        <v>529</v>
-      </c>
-      <c r="E50" t="n">
+        <v>564</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+      <c r="AG50"/>
+      <c r="AH50"/>
+      <c r="AI50"/>
+      <c r="AJ50"/>
+      <c r="AK50"/>
+      <c r="AL50"/>
+      <c r="AM50"/>
+      <c r="AN50" t="n">
         <v>1844.0</v>
       </c>
-      <c r="F50" t="n">
+      <c r="AO50" t="n">
         <v>13.749484</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B51" t="n">
         <v>1840.0</v>
@@ -6721,18 +8891,53 @@
         <v>1879.0</v>
       </c>
       <c r="D51" t="s">
-        <v>530</v>
-      </c>
-      <c r="E51" t="n">
+        <v>565</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+      <c r="AG51"/>
+      <c r="AH51"/>
+      <c r="AI51"/>
+      <c r="AJ51"/>
+      <c r="AK51"/>
+      <c r="AL51"/>
+      <c r="AM51"/>
+      <c r="AN51" t="n">
         <v>1844.0</v>
       </c>
-      <c r="F51" t="n">
+      <c r="AO51" t="n">
         <v>11.279068</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B52" t="n">
         <v>1840.0</v>
@@ -6741,18 +8946,53 @@
         <v>1879.0</v>
       </c>
       <c r="D52" t="s">
-        <v>529</v>
-      </c>
-      <c r="E52" t="n">
+        <v>564</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+      <c r="AE52"/>
+      <c r="AF52"/>
+      <c r="AG52"/>
+      <c r="AH52"/>
+      <c r="AI52"/>
+      <c r="AJ52"/>
+      <c r="AK52"/>
+      <c r="AL52"/>
+      <c r="AM52"/>
+      <c r="AN52" t="n">
         <v>1845.0</v>
       </c>
-      <c r="F52" t="n">
+      <c r="AO52" t="n">
         <v>13.860014</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B53" t="n">
         <v>1840.0</v>
@@ -6761,18 +9001,53 @@
         <v>1879.0</v>
       </c>
       <c r="D53" t="s">
-        <v>530</v>
-      </c>
-      <c r="E53" t="n">
+        <v>565</v>
+      </c>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+      <c r="AE53"/>
+      <c r="AF53"/>
+      <c r="AG53"/>
+      <c r="AH53"/>
+      <c r="AI53"/>
+      <c r="AJ53"/>
+      <c r="AK53"/>
+      <c r="AL53"/>
+      <c r="AM53"/>
+      <c r="AN53" t="n">
         <v>1845.0</v>
       </c>
-      <c r="F53" t="n">
+      <c r="AO53" t="n">
         <v>10.170877</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B54" t="n">
         <v>1840.0</v>
@@ -6781,18 +9056,53 @@
         <v>1879.0</v>
       </c>
       <c r="D54" t="s">
-        <v>529</v>
-      </c>
-      <c r="E54" t="n">
+        <v>564</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AE54"/>
+      <c r="AF54"/>
+      <c r="AG54"/>
+      <c r="AH54"/>
+      <c r="AI54"/>
+      <c r="AJ54"/>
+      <c r="AK54"/>
+      <c r="AL54"/>
+      <c r="AM54"/>
+      <c r="AN54" t="n">
         <v>1846.0</v>
       </c>
-      <c r="F54" t="n">
+      <c r="AO54" t="n">
         <v>13.84083</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B55" t="n">
         <v>1840.0</v>
@@ -6801,18 +9111,53 @@
         <v>1879.0</v>
       </c>
       <c r="D55" t="s">
-        <v>530</v>
-      </c>
-      <c r="E55" t="n">
+        <v>565</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+      <c r="AE55"/>
+      <c r="AF55"/>
+      <c r="AG55"/>
+      <c r="AH55"/>
+      <c r="AI55"/>
+      <c r="AJ55"/>
+      <c r="AK55"/>
+      <c r="AL55"/>
+      <c r="AM55"/>
+      <c r="AN55" t="n">
         <v>1846.0</v>
       </c>
-      <c r="F55" t="n">
+      <c r="AO55" t="n">
         <v>8.297464</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B56" t="n">
         <v>1840.0</v>
@@ -6821,18 +9166,53 @@
         <v>1879.0</v>
       </c>
       <c r="D56" t="s">
-        <v>529</v>
-      </c>
-      <c r="E56" t="n">
+        <v>564</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56"/>
+      <c r="AF56"/>
+      <c r="AG56"/>
+      <c r="AH56"/>
+      <c r="AI56"/>
+      <c r="AJ56"/>
+      <c r="AK56"/>
+      <c r="AL56"/>
+      <c r="AM56"/>
+      <c r="AN56" t="n">
         <v>1847.0</v>
       </c>
-      <c r="F56" t="n">
+      <c r="AO56" t="n">
         <v>13.800718</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B57" t="n">
         <v>1840.0</v>
@@ -6841,18 +9221,53 @@
         <v>1879.0</v>
       </c>
       <c r="D57" t="s">
-        <v>530</v>
-      </c>
-      <c r="E57" t="n">
+        <v>565</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+      <c r="AG57"/>
+      <c r="AH57"/>
+      <c r="AI57"/>
+      <c r="AJ57"/>
+      <c r="AK57"/>
+      <c r="AL57"/>
+      <c r="AM57"/>
+      <c r="AN57" t="n">
         <v>1847.0</v>
       </c>
-      <c r="F57" t="n">
+      <c r="AO57" t="n">
         <v>7.472806</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B58" t="n">
         <v>1840.0</v>
@@ -6861,18 +9276,53 @@
         <v>1879.0</v>
       </c>
       <c r="D58" t="s">
-        <v>529</v>
-      </c>
-      <c r="E58" t="n">
+        <v>564</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+      <c r="AE58"/>
+      <c r="AF58"/>
+      <c r="AG58"/>
+      <c r="AH58"/>
+      <c r="AI58"/>
+      <c r="AJ58"/>
+      <c r="AK58"/>
+      <c r="AL58"/>
+      <c r="AM58"/>
+      <c r="AN58" t="n">
         <v>1848.0</v>
       </c>
-      <c r="F58" t="n">
+      <c r="AO58" t="n">
         <v>13.810247</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B59" t="n">
         <v>1840.0</v>
@@ -6881,18 +9331,53 @@
         <v>1879.0</v>
       </c>
       <c r="D59" t="s">
-        <v>530</v>
-      </c>
-      <c r="E59" t="n">
+        <v>565</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
+      <c r="AF59"/>
+      <c r="AG59"/>
+      <c r="AH59"/>
+      <c r="AI59"/>
+      <c r="AJ59"/>
+      <c r="AK59"/>
+      <c r="AL59"/>
+      <c r="AM59"/>
+      <c r="AN59" t="n">
         <v>1848.0</v>
       </c>
-      <c r="F59" t="n">
+      <c r="AO59" t="n">
         <v>11.324281</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B60" t="n">
         <v>1840.0</v>
@@ -6901,18 +9386,53 @@
         <v>1879.0</v>
       </c>
       <c r="D60" t="s">
-        <v>529</v>
-      </c>
-      <c r="E60" t="n">
+        <v>564</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+      <c r="AE60"/>
+      <c r="AF60"/>
+      <c r="AG60"/>
+      <c r="AH60"/>
+      <c r="AI60"/>
+      <c r="AJ60"/>
+      <c r="AK60"/>
+      <c r="AL60"/>
+      <c r="AM60"/>
+      <c r="AN60" t="n">
         <v>1849.0</v>
       </c>
-      <c r="F60" t="n">
+      <c r="AO60" t="n">
         <v>13.7893</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B61" t="n">
         <v>1840.0</v>
@@ -6921,18 +9441,53 @@
         <v>1879.0</v>
       </c>
       <c r="D61" t="s">
-        <v>530</v>
-      </c>
-      <c r="E61" t="n">
+        <v>565</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+      <c r="AE61"/>
+      <c r="AF61"/>
+      <c r="AG61"/>
+      <c r="AH61"/>
+      <c r="AI61"/>
+      <c r="AJ61"/>
+      <c r="AK61"/>
+      <c r="AL61"/>
+      <c r="AM61"/>
+      <c r="AN61" t="n">
         <v>1849.0</v>
       </c>
-      <c r="F61" t="n">
+      <c r="AO61" t="n">
         <v>12.927177</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B62" t="n">
         <v>1840.0</v>
@@ -6941,18 +9496,53 @@
         <v>1879.0</v>
       </c>
       <c r="D62" t="s">
-        <v>529</v>
-      </c>
-      <c r="E62" t="n">
+        <v>564</v>
+      </c>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+      <c r="AE62"/>
+      <c r="AF62"/>
+      <c r="AG62"/>
+      <c r="AH62"/>
+      <c r="AI62"/>
+      <c r="AJ62"/>
+      <c r="AK62"/>
+      <c r="AL62"/>
+      <c r="AM62"/>
+      <c r="AN62" t="n">
         <v>1850.0</v>
       </c>
-      <c r="F62" t="n">
+      <c r="AO62" t="n">
         <v>13.709899</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B63" t="n">
         <v>1840.0</v>
@@ -6961,18 +9551,53 @@
         <v>1879.0</v>
       </c>
       <c r="D63" t="s">
-        <v>530</v>
-      </c>
-      <c r="E63" t="n">
+        <v>565</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
+      <c r="AF63"/>
+      <c r="AG63"/>
+      <c r="AH63"/>
+      <c r="AI63"/>
+      <c r="AJ63"/>
+      <c r="AK63"/>
+      <c r="AL63"/>
+      <c r="AM63"/>
+      <c r="AN63" t="n">
         <v>1850.0</v>
       </c>
-      <c r="F63" t="n">
+      <c r="AO63" t="n">
         <v>13.689447</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B64" t="n">
         <v>1840.0</v>
@@ -6981,18 +9606,53 @@
         <v>1879.0</v>
       </c>
       <c r="D64" t="s">
-        <v>529</v>
-      </c>
-      <c r="E64" t="n">
+        <v>564</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+      <c r="AE64"/>
+      <c r="AF64"/>
+      <c r="AG64"/>
+      <c r="AH64"/>
+      <c r="AI64"/>
+      <c r="AJ64"/>
+      <c r="AK64"/>
+      <c r="AL64"/>
+      <c r="AM64"/>
+      <c r="AN64" t="n">
         <v>1851.0</v>
       </c>
-      <c r="F64" t="n">
+      <c r="AO64" t="n">
         <v>13.509862</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B65" t="n">
         <v>1840.0</v>
@@ -7001,18 +9661,53 @@
         <v>1879.0</v>
       </c>
       <c r="D65" t="s">
-        <v>530</v>
-      </c>
-      <c r="E65" t="n">
+        <v>565</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+      <c r="AE65"/>
+      <c r="AF65"/>
+      <c r="AG65"/>
+      <c r="AH65"/>
+      <c r="AI65"/>
+      <c r="AJ65"/>
+      <c r="AK65"/>
+      <c r="AL65"/>
+      <c r="AM65"/>
+      <c r="AN65" t="n">
         <v>1851.0</v>
       </c>
-      <c r="F65" t="n">
+      <c r="AO65" t="n">
         <v>11.471537</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B66" t="n">
         <v>1840.0</v>
@@ -7021,18 +9716,53 @@
         <v>1879.0</v>
       </c>
       <c r="D66" t="s">
-        <v>529</v>
-      </c>
-      <c r="E66" t="n">
+        <v>564</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+      <c r="AE66"/>
+      <c r="AF66"/>
+      <c r="AG66"/>
+      <c r="AH66"/>
+      <c r="AI66"/>
+      <c r="AJ66"/>
+      <c r="AK66"/>
+      <c r="AL66"/>
+      <c r="AM66"/>
+      <c r="AN66" t="n">
         <v>1852.0</v>
       </c>
-      <c r="F66" t="n">
+      <c r="AO66" t="n">
         <v>13.620267</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B67" t="n">
         <v>1840.0</v>
@@ -7041,18 +9771,53 @@
         <v>1879.0</v>
       </c>
       <c r="D67" t="s">
-        <v>530</v>
-      </c>
-      <c r="E67" t="n">
+        <v>565</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+      <c r="AE67"/>
+      <c r="AF67"/>
+      <c r="AG67"/>
+      <c r="AH67"/>
+      <c r="AI67"/>
+      <c r="AJ67"/>
+      <c r="AK67"/>
+      <c r="AL67"/>
+      <c r="AM67"/>
+      <c r="AN67" t="n">
         <v>1852.0</v>
       </c>
-      <c r="F67" t="n">
+      <c r="AO67" t="n">
         <v>9.883966</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B68" t="n">
         <v>1840.0</v>
@@ -7061,18 +9826,53 @@
         <v>1879.0</v>
       </c>
       <c r="D68" t="s">
-        <v>529</v>
-      </c>
-      <c r="E68" t="n">
+        <v>564</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68"/>
+      <c r="AE68"/>
+      <c r="AF68"/>
+      <c r="AG68"/>
+      <c r="AH68"/>
+      <c r="AI68"/>
+      <c r="AJ68"/>
+      <c r="AK68"/>
+      <c r="AL68"/>
+      <c r="AM68"/>
+      <c r="AN68" t="n">
         <v>1853.0</v>
       </c>
-      <c r="F68" t="n">
+      <c r="AO68" t="n">
         <v>13.44086</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B69" t="n">
         <v>1840.0</v>
@@ -7081,18 +9881,53 @@
         <v>1879.0</v>
       </c>
       <c r="D69" t="s">
-        <v>530</v>
-      </c>
-      <c r="E69" t="n">
+        <v>565</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+      <c r="AE69"/>
+      <c r="AF69"/>
+      <c r="AG69"/>
+      <c r="AH69"/>
+      <c r="AI69"/>
+      <c r="AJ69"/>
+      <c r="AK69"/>
+      <c r="AL69"/>
+      <c r="AM69"/>
+      <c r="AN69" t="n">
         <v>1853.0</v>
       </c>
-      <c r="F69" t="n">
+      <c r="AO69" t="n">
         <v>10.662404</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B70" t="n">
         <v>1840.0</v>
@@ -7101,18 +9936,53 @@
         <v>1879.0</v>
       </c>
       <c r="D70" t="s">
-        <v>529</v>
-      </c>
-      <c r="E70" t="n">
+        <v>564</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AD70"/>
+      <c r="AE70"/>
+      <c r="AF70"/>
+      <c r="AG70"/>
+      <c r="AH70"/>
+      <c r="AI70"/>
+      <c r="AJ70"/>
+      <c r="AK70"/>
+      <c r="AL70"/>
+      <c r="AM70"/>
+      <c r="AN70" t="n">
         <v>1854.0</v>
       </c>
-      <c r="F70" t="n">
+      <c r="AO70" t="n">
         <v>13.349353</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B71" t="n">
         <v>1840.0</v>
@@ -7121,18 +9991,53 @@
         <v>1879.0</v>
       </c>
       <c r="D71" t="s">
-        <v>530</v>
-      </c>
-      <c r="E71" t="n">
+        <v>565</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+      <c r="AE71"/>
+      <c r="AF71"/>
+      <c r="AG71"/>
+      <c r="AH71"/>
+      <c r="AI71"/>
+      <c r="AJ71"/>
+      <c r="AK71"/>
+      <c r="AL71"/>
+      <c r="AM71"/>
+      <c r="AN71" t="n">
         <v>1854.0</v>
       </c>
-      <c r="F71" t="n">
+      <c r="AO71" t="n">
         <v>8.90968</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B72" t="n">
         <v>1840.0</v>
@@ -7141,18 +10046,53 @@
         <v>1879.0</v>
       </c>
       <c r="D72" t="s">
-        <v>529</v>
-      </c>
-      <c r="E72" t="n">
+        <v>564</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+      <c r="AE72"/>
+      <c r="AF72"/>
+      <c r="AG72"/>
+      <c r="AH72"/>
+      <c r="AI72"/>
+      <c r="AJ72"/>
+      <c r="AK72"/>
+      <c r="AL72"/>
+      <c r="AM72"/>
+      <c r="AN72" t="n">
         <v>1855.0</v>
       </c>
-      <c r="F72" t="n">
+      <c r="AO72" t="n">
         <v>13.489815</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B73" t="n">
         <v>1840.0</v>
@@ -7161,18 +10101,53 @@
         <v>1879.0</v>
       </c>
       <c r="D73" t="s">
-        <v>530</v>
-      </c>
-      <c r="E73" t="n">
+        <v>565</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
+      <c r="AE73"/>
+      <c r="AF73"/>
+      <c r="AG73"/>
+      <c r="AH73"/>
+      <c r="AI73"/>
+      <c r="AJ73"/>
+      <c r="AK73"/>
+      <c r="AL73"/>
+      <c r="AM73"/>
+      <c r="AN73" t="n">
         <v>1855.0</v>
       </c>
-      <c r="F73" t="n">
+      <c r="AO73" t="n">
         <v>8.364047</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B74" t="n">
         <v>1840.0</v>
@@ -7181,18 +10156,53 @@
         <v>1879.0</v>
       </c>
       <c r="D74" t="s">
-        <v>529</v>
-      </c>
-      <c r="E74" t="n">
+        <v>564</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+      <c r="AE74"/>
+      <c r="AF74"/>
+      <c r="AG74"/>
+      <c r="AH74"/>
+      <c r="AI74"/>
+      <c r="AJ74"/>
+      <c r="AK74"/>
+      <c r="AL74"/>
+      <c r="AM74"/>
+      <c r="AN74" t="n">
         <v>1856.0</v>
       </c>
-      <c r="F74" t="n">
+      <c r="AO74" t="n">
         <v>13.59065</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B75" t="n">
         <v>1840.0</v>
@@ -7201,18 +10211,53 @@
         <v>1879.0</v>
       </c>
       <c r="D75" t="s">
-        <v>530</v>
-      </c>
-      <c r="E75" t="n">
+        <v>565</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+      <c r="AE75"/>
+      <c r="AF75"/>
+      <c r="AG75"/>
+      <c r="AH75"/>
+      <c r="AI75"/>
+      <c r="AJ75"/>
+      <c r="AK75"/>
+      <c r="AL75"/>
+      <c r="AM75"/>
+      <c r="AN75" t="n">
         <v>1856.0</v>
       </c>
-      <c r="F75" t="n">
+      <c r="AO75" t="n">
         <v>8.584153</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B76" t="n">
         <v>1840.0</v>
@@ -7221,18 +10266,53 @@
         <v>1879.0</v>
       </c>
       <c r="D76" t="s">
-        <v>529</v>
-      </c>
-      <c r="E76" t="n">
+        <v>564</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+      <c r="AE76"/>
+      <c r="AF76"/>
+      <c r="AG76"/>
+      <c r="AH76"/>
+      <c r="AI76"/>
+      <c r="AJ76"/>
+      <c r="AK76"/>
+      <c r="AL76"/>
+      <c r="AM76"/>
+      <c r="AN76" t="n">
         <v>1857.0</v>
       </c>
-      <c r="F76" t="n">
+      <c r="AO76" t="n">
         <v>13.539128</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B77" t="n">
         <v>1840.0</v>
@@ -7241,18 +10321,53 @@
         <v>1879.0</v>
       </c>
       <c r="D77" t="s">
-        <v>530</v>
-      </c>
-      <c r="E77" t="n">
+        <v>565</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+      <c r="AE77"/>
+      <c r="AF77"/>
+      <c r="AG77"/>
+      <c r="AH77"/>
+      <c r="AI77"/>
+      <c r="AJ77"/>
+      <c r="AK77"/>
+      <c r="AL77"/>
+      <c r="AM77"/>
+      <c r="AN77" t="n">
         <v>1857.0</v>
       </c>
-      <c r="F77" t="n">
+      <c r="AO77" t="n">
         <v>10.447958</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B78" t="n">
         <v>1840.0</v>
@@ -7261,18 +10376,53 @@
         <v>1879.0</v>
       </c>
       <c r="D78" t="s">
-        <v>529</v>
-      </c>
-      <c r="E78" t="n">
+        <v>564</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+      <c r="AE78"/>
+      <c r="AF78"/>
+      <c r="AG78"/>
+      <c r="AH78"/>
+      <c r="AI78"/>
+      <c r="AJ78"/>
+      <c r="AK78"/>
+      <c r="AL78"/>
+      <c r="AM78"/>
+      <c r="AN78" t="n">
         <v>1858.0</v>
       </c>
-      <c r="F78" t="n">
+      <c r="AO78" t="n">
         <v>13.44086</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B79" t="n">
         <v>1840.0</v>
@@ -7281,18 +10431,53 @@
         <v>1879.0</v>
       </c>
       <c r="D79" t="s">
-        <v>530</v>
-      </c>
-      <c r="E79" t="n">
+        <v>565</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+      <c r="AE79"/>
+      <c r="AF79"/>
+      <c r="AG79"/>
+      <c r="AH79"/>
+      <c r="AI79"/>
+      <c r="AJ79"/>
+      <c r="AK79"/>
+      <c r="AL79"/>
+      <c r="AM79"/>
+      <c r="AN79" t="n">
         <v>1858.0</v>
       </c>
-      <c r="F79" t="n">
+      <c r="AO79" t="n">
         <v>11.057553</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B80" t="n">
         <v>1840.0</v>
@@ -7301,18 +10486,53 @@
         <v>1879.0</v>
       </c>
       <c r="D80" t="s">
-        <v>529</v>
-      </c>
-      <c r="E80" t="n">
+        <v>564</v>
+      </c>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+      <c r="AE80"/>
+      <c r="AF80"/>
+      <c r="AG80"/>
+      <c r="AH80"/>
+      <c r="AI80"/>
+      <c r="AJ80"/>
+      <c r="AK80"/>
+      <c r="AL80"/>
+      <c r="AM80"/>
+      <c r="AN80" t="n">
         <v>1859.0</v>
       </c>
-      <c r="F80" t="n">
+      <c r="AO80" t="n">
         <v>13.340448</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B81" t="n">
         <v>1840.0</v>
@@ -7321,18 +10541,53 @@
         <v>1879.0</v>
       </c>
       <c r="D81" t="s">
-        <v>530</v>
-      </c>
-      <c r="E81" t="n">
+        <v>565</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+      <c r="AE81"/>
+      <c r="AF81"/>
+      <c r="AG81"/>
+      <c r="AH81"/>
+      <c r="AI81"/>
+      <c r="AJ81"/>
+      <c r="AK81"/>
+      <c r="AL81"/>
+      <c r="AM81"/>
+      <c r="AN81" t="n">
         <v>1859.0</v>
       </c>
-      <c r="F81" t="n">
+      <c r="AO81" t="n">
         <v>12.137697</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B82" t="n">
         <v>1840.0</v>
@@ -7341,18 +10596,53 @@
         <v>1879.0</v>
       </c>
       <c r="D82" t="s">
-        <v>529</v>
-      </c>
-      <c r="E82" t="n">
+        <v>564</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+      <c r="AE82"/>
+      <c r="AF82"/>
+      <c r="AG82"/>
+      <c r="AH82"/>
+      <c r="AI82"/>
+      <c r="AJ82"/>
+      <c r="AK82"/>
+      <c r="AL82"/>
+      <c r="AM82"/>
+      <c r="AN82" t="n">
         <v>1860.0</v>
       </c>
-      <c r="F82" t="n">
+      <c r="AO82" t="n">
         <v>13.360053</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B83" t="n">
         <v>1840.0</v>
@@ -7361,18 +10651,53 @@
         <v>1879.0</v>
       </c>
       <c r="D83" t="s">
-        <v>530</v>
-      </c>
-      <c r="E83" t="n">
+        <v>565</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+      <c r="AE83"/>
+      <c r="AF83"/>
+      <c r="AG83"/>
+      <c r="AH83"/>
+      <c r="AI83"/>
+      <c r="AJ83"/>
+      <c r="AK83"/>
+      <c r="AL83"/>
+      <c r="AM83"/>
+      <c r="AN83" t="n">
         <v>1860.0</v>
       </c>
-      <c r="F83" t="n">
+      <c r="AO83" t="n">
         <v>11.43615</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B84" t="n">
         <v>1840.0</v>
@@ -7381,18 +10706,53 @@
         <v>1879.0</v>
       </c>
       <c r="D84" t="s">
-        <v>529</v>
-      </c>
-      <c r="E84" t="n">
+        <v>564</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+      <c r="AE84"/>
+      <c r="AF84"/>
+      <c r="AG84"/>
+      <c r="AH84"/>
+      <c r="AI84"/>
+      <c r="AJ84"/>
+      <c r="AK84"/>
+      <c r="AL84"/>
+      <c r="AM84"/>
+      <c r="AN84" t="n">
         <v>1861.0</v>
       </c>
-      <c r="F84" t="n">
+      <c r="AO84" t="n">
         <v>13.579576</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B85" t="n">
         <v>1840.0</v>
@@ -7401,18 +10761,53 @@
         <v>1879.0</v>
       </c>
       <c r="D85" t="s">
-        <v>530</v>
-      </c>
-      <c r="E85" t="n">
+        <v>565</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AD85"/>
+      <c r="AE85"/>
+      <c r="AF85"/>
+      <c r="AG85"/>
+      <c r="AH85"/>
+      <c r="AI85"/>
+      <c r="AJ85"/>
+      <c r="AK85"/>
+      <c r="AL85"/>
+      <c r="AM85"/>
+      <c r="AN85" t="n">
         <v>1861.0</v>
       </c>
-      <c r="F85" t="n">
+      <c r="AO85" t="n">
         <v>11.646642</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B86" t="n">
         <v>1840.0</v>
@@ -7421,18 +10816,53 @@
         <v>1879.0</v>
       </c>
       <c r="D86" t="s">
-        <v>529</v>
-      </c>
-      <c r="E86" t="n">
+        <v>564</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+      <c r="AE86"/>
+      <c r="AF86"/>
+      <c r="AG86"/>
+      <c r="AH86"/>
+      <c r="AI86"/>
+      <c r="AJ86"/>
+      <c r="AK86"/>
+      <c r="AL86"/>
+      <c r="AM86"/>
+      <c r="AN86" t="n">
         <v>1862.0</v>
       </c>
-      <c r="F86" t="n">
+      <c r="AO86" t="n">
         <v>13.500743</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B87" t="n">
         <v>1840.0</v>
@@ -7441,18 +10871,53 @@
         <v>1879.0</v>
       </c>
       <c r="D87" t="s">
-        <v>530</v>
-      </c>
-      <c r="E87" t="n">
+        <v>565</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+      <c r="X87"/>
+      <c r="Y87"/>
+      <c r="Z87"/>
+      <c r="AA87"/>
+      <c r="AB87"/>
+      <c r="AC87"/>
+      <c r="AD87"/>
+      <c r="AE87"/>
+      <c r="AF87"/>
+      <c r="AG87"/>
+      <c r="AH87"/>
+      <c r="AI87"/>
+      <c r="AJ87"/>
+      <c r="AK87"/>
+      <c r="AL87"/>
+      <c r="AM87"/>
+      <c r="AN87" t="n">
         <v>1862.0</v>
       </c>
-      <c r="F87" t="n">
+      <c r="AO87" t="n">
         <v>11.646642</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B88" t="n">
         <v>1840.0</v>
@@ -7461,18 +10926,53 @@
         <v>1879.0</v>
       </c>
       <c r="D88" t="s">
-        <v>529</v>
-      </c>
-      <c r="E88" t="n">
+        <v>564</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88"/>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88"/>
+      <c r="W88"/>
+      <c r="X88"/>
+      <c r="Y88"/>
+      <c r="Z88"/>
+      <c r="AA88"/>
+      <c r="AB88"/>
+      <c r="AC88"/>
+      <c r="AD88"/>
+      <c r="AE88"/>
+      <c r="AF88"/>
+      <c r="AG88"/>
+      <c r="AH88"/>
+      <c r="AI88"/>
+      <c r="AJ88"/>
+      <c r="AK88"/>
+      <c r="AL88"/>
+      <c r="AM88"/>
+      <c r="AN88" t="n">
         <v>1863.0</v>
       </c>
-      <c r="F88" t="n">
+      <c r="AO88" t="n">
         <v>13.500743</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B89" t="n">
         <v>1840.0</v>
@@ -7481,18 +10981,53 @@
         <v>1879.0</v>
       </c>
       <c r="D89" t="s">
-        <v>530</v>
-      </c>
-      <c r="E89" t="n">
+        <v>565</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89"/>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89"/>
+      <c r="V89"/>
+      <c r="W89"/>
+      <c r="X89"/>
+      <c r="Y89"/>
+      <c r="Z89"/>
+      <c r="AA89"/>
+      <c r="AB89"/>
+      <c r="AC89"/>
+      <c r="AD89"/>
+      <c r="AE89"/>
+      <c r="AF89"/>
+      <c r="AG89"/>
+      <c r="AH89"/>
+      <c r="AI89"/>
+      <c r="AJ89"/>
+      <c r="AK89"/>
+      <c r="AL89"/>
+      <c r="AM89"/>
+      <c r="AN89" t="n">
         <v>1863.0</v>
       </c>
-      <c r="F89" t="n">
+      <c r="AO89" t="n">
         <v>12.811306</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B90" t="n">
         <v>1840.0</v>
@@ -7501,18 +11036,53 @@
         <v>1879.0</v>
       </c>
       <c r="D90" t="s">
-        <v>529</v>
-      </c>
-      <c r="E90" t="n">
+        <v>564</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
+      <c r="R90"/>
+      <c r="S90"/>
+      <c r="T90"/>
+      <c r="U90"/>
+      <c r="V90"/>
+      <c r="W90"/>
+      <c r="X90"/>
+      <c r="Y90"/>
+      <c r="Z90"/>
+      <c r="AA90"/>
+      <c r="AB90"/>
+      <c r="AC90"/>
+      <c r="AD90"/>
+      <c r="AE90"/>
+      <c r="AF90"/>
+      <c r="AG90"/>
+      <c r="AH90"/>
+      <c r="AI90"/>
+      <c r="AJ90"/>
+      <c r="AK90"/>
+      <c r="AL90"/>
+      <c r="AM90"/>
+      <c r="AN90" t="n">
         <v>1864.0</v>
       </c>
-      <c r="F90" t="n">
+      <c r="AO90" t="n">
         <v>13.559322</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B91" t="n">
         <v>1840.0</v>
@@ -7521,18 +11091,53 @@
         <v>1879.0</v>
       </c>
       <c r="D91" t="s">
-        <v>530</v>
-      </c>
-      <c r="E91" t="n">
+        <v>565</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91"/>
+      <c r="S91"/>
+      <c r="T91"/>
+      <c r="U91"/>
+      <c r="V91"/>
+      <c r="W91"/>
+      <c r="X91"/>
+      <c r="Y91"/>
+      <c r="Z91"/>
+      <c r="AA91"/>
+      <c r="AB91"/>
+      <c r="AC91"/>
+      <c r="AD91"/>
+      <c r="AE91"/>
+      <c r="AF91"/>
+      <c r="AG91"/>
+      <c r="AH91"/>
+      <c r="AI91"/>
+      <c r="AJ91"/>
+      <c r="AK91"/>
+      <c r="AL91"/>
+      <c r="AM91"/>
+      <c r="AN91" t="n">
         <v>1864.0</v>
       </c>
-      <c r="F91" t="n">
+      <c r="AO91" t="n">
         <v>13.726399</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B92" t="n">
         <v>1840.0</v>
@@ -7541,18 +11146,53 @@
         <v>1879.0</v>
       </c>
       <c r="D92" t="s">
-        <v>529</v>
-      </c>
-      <c r="E92" t="n">
+        <v>564</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+      <c r="S92"/>
+      <c r="T92"/>
+      <c r="U92"/>
+      <c r="V92"/>
+      <c r="W92"/>
+      <c r="X92"/>
+      <c r="Y92"/>
+      <c r="Z92"/>
+      <c r="AA92"/>
+      <c r="AB92"/>
+      <c r="AC92"/>
+      <c r="AD92"/>
+      <c r="AE92"/>
+      <c r="AF92"/>
+      <c r="AG92"/>
+      <c r="AH92"/>
+      <c r="AI92"/>
+      <c r="AJ92"/>
+      <c r="AK92"/>
+      <c r="AL92"/>
+      <c r="AM92"/>
+      <c r="AN92" t="n">
         <v>1865.0</v>
       </c>
-      <c r="F92" t="n">
+      <c r="AO92" t="n">
         <v>13.579576</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B93" t="n">
         <v>1840.0</v>
@@ -7561,18 +11201,53 @@
         <v>1879.0</v>
       </c>
       <c r="D93" t="s">
-        <v>530</v>
-      </c>
-      <c r="E93" t="n">
+        <v>565</v>
+      </c>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93"/>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93"/>
+      <c r="V93"/>
+      <c r="W93"/>
+      <c r="X93"/>
+      <c r="Y93"/>
+      <c r="Z93"/>
+      <c r="AA93"/>
+      <c r="AB93"/>
+      <c r="AC93"/>
+      <c r="AD93"/>
+      <c r="AE93"/>
+      <c r="AF93"/>
+      <c r="AG93"/>
+      <c r="AH93"/>
+      <c r="AI93"/>
+      <c r="AJ93"/>
+      <c r="AK93"/>
+      <c r="AL93"/>
+      <c r="AM93"/>
+      <c r="AN93" t="n">
         <v>1865.0</v>
       </c>
-      <c r="F93" t="n">
+      <c r="AO93" t="n">
         <v>13.253075</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B94" t="n">
         <v>1840.0</v>
@@ -7581,18 +11256,53 @@
         <v>1879.0</v>
       </c>
       <c r="D94" t="s">
-        <v>529</v>
-      </c>
-      <c r="E94" t="n">
+        <v>564</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+      <c r="U94"/>
+      <c r="V94"/>
+      <c r="W94"/>
+      <c r="X94"/>
+      <c r="Y94"/>
+      <c r="Z94"/>
+      <c r="AA94"/>
+      <c r="AB94"/>
+      <c r="AC94"/>
+      <c r="AD94"/>
+      <c r="AE94"/>
+      <c r="AF94"/>
+      <c r="AG94"/>
+      <c r="AH94"/>
+      <c r="AI94"/>
+      <c r="AJ94"/>
+      <c r="AK94"/>
+      <c r="AL94"/>
+      <c r="AM94"/>
+      <c r="AN94" t="n">
         <v>1866.0</v>
       </c>
-      <c r="F94" t="n">
+      <c r="AO94" t="n">
         <v>13.599891</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B95" t="n">
         <v>1840.0</v>
@@ -7601,18 +11311,53 @@
         <v>1879.0</v>
       </c>
       <c r="D95" t="s">
-        <v>530</v>
-      </c>
-      <c r="E95" t="n">
+        <v>565</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95"/>
+      <c r="V95"/>
+      <c r="W95"/>
+      <c r="X95"/>
+      <c r="Y95"/>
+      <c r="Z95"/>
+      <c r="AA95"/>
+      <c r="AB95"/>
+      <c r="AC95"/>
+      <c r="AD95"/>
+      <c r="AE95"/>
+      <c r="AF95"/>
+      <c r="AG95"/>
+      <c r="AH95"/>
+      <c r="AI95"/>
+      <c r="AJ95"/>
+      <c r="AK95"/>
+      <c r="AL95"/>
+      <c r="AM95"/>
+      <c r="AN95" t="n">
         <v>1866.0</v>
       </c>
-      <c r="F95" t="n">
+      <c r="AO95" t="n">
         <v>12.201244</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B96" t="n">
         <v>1840.0</v>
@@ -7621,18 +11366,53 @@
         <v>1879.0</v>
       </c>
       <c r="D96" t="s">
-        <v>529</v>
-      </c>
-      <c r="E96" t="n">
+        <v>564</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96"/>
+      <c r="Q96"/>
+      <c r="R96"/>
+      <c r="S96"/>
+      <c r="T96"/>
+      <c r="U96"/>
+      <c r="V96"/>
+      <c r="W96"/>
+      <c r="X96"/>
+      <c r="Y96"/>
+      <c r="Z96"/>
+      <c r="AA96"/>
+      <c r="AB96"/>
+      <c r="AC96"/>
+      <c r="AD96"/>
+      <c r="AE96"/>
+      <c r="AF96"/>
+      <c r="AG96"/>
+      <c r="AH96"/>
+      <c r="AI96"/>
+      <c r="AJ96"/>
+      <c r="AK96"/>
+      <c r="AL96"/>
+      <c r="AM96"/>
+      <c r="AN96" t="n">
         <v>1867.0</v>
       </c>
-      <c r="F96" t="n">
+      <c r="AO96" t="n">
         <v>13.59065</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B97" t="n">
         <v>1840.0</v>
@@ -7641,18 +11421,53 @@
         <v>1879.0</v>
       </c>
       <c r="D97" t="s">
-        <v>530</v>
-      </c>
-      <c r="E97" t="n">
+        <v>565</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97"/>
+      <c r="S97"/>
+      <c r="T97"/>
+      <c r="U97"/>
+      <c r="V97"/>
+      <c r="W97"/>
+      <c r="X97"/>
+      <c r="Y97"/>
+      <c r="Z97"/>
+      <c r="AA97"/>
+      <c r="AB97"/>
+      <c r="AC97"/>
+      <c r="AD97"/>
+      <c r="AE97"/>
+      <c r="AF97"/>
+      <c r="AG97"/>
+      <c r="AH97"/>
+      <c r="AI97"/>
+      <c r="AJ97"/>
+      <c r="AK97"/>
+      <c r="AL97"/>
+      <c r="AM97"/>
+      <c r="AN97" t="n">
         <v>1867.0</v>
       </c>
-      <c r="F97" t="n">
+      <c r="AO97" t="n">
         <v>10.114189</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B98" t="n">
         <v>1840.0</v>
@@ -7661,18 +11476,53 @@
         <v>1879.0</v>
       </c>
       <c r="D98" t="s">
-        <v>529</v>
-      </c>
-      <c r="E98" t="n">
+        <v>564</v>
+      </c>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98"/>
+      <c r="S98"/>
+      <c r="T98"/>
+      <c r="U98"/>
+      <c r="V98"/>
+      <c r="W98"/>
+      <c r="X98"/>
+      <c r="Y98"/>
+      <c r="Z98"/>
+      <c r="AA98"/>
+      <c r="AB98"/>
+      <c r="AC98"/>
+      <c r="AD98"/>
+      <c r="AE98"/>
+      <c r="AF98"/>
+      <c r="AG98"/>
+      <c r="AH98"/>
+      <c r="AI98"/>
+      <c r="AJ98"/>
+      <c r="AK98"/>
+      <c r="AL98"/>
+      <c r="AM98"/>
+      <c r="AN98" t="n">
         <v>1868.0</v>
       </c>
-      <c r="F98" t="n">
+      <c r="AO98" t="n">
         <v>13.640704</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B99" t="n">
         <v>1840.0</v>
@@ -7681,18 +11531,53 @@
         <v>1879.0</v>
       </c>
       <c r="D99" t="s">
-        <v>530</v>
-      </c>
-      <c r="E99" t="n">
+        <v>565</v>
+      </c>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+      <c r="Q99"/>
+      <c r="R99"/>
+      <c r="S99"/>
+      <c r="T99"/>
+      <c r="U99"/>
+      <c r="V99"/>
+      <c r="W99"/>
+      <c r="X99"/>
+      <c r="Y99"/>
+      <c r="Z99"/>
+      <c r="AA99"/>
+      <c r="AB99"/>
+      <c r="AC99"/>
+      <c r="AD99"/>
+      <c r="AE99"/>
+      <c r="AF99"/>
+      <c r="AG99"/>
+      <c r="AH99"/>
+      <c r="AI99"/>
+      <c r="AJ99"/>
+      <c r="AK99"/>
+      <c r="AL99"/>
+      <c r="AM99"/>
+      <c r="AN99" t="n">
         <v>1868.0</v>
       </c>
-      <c r="F99" t="n">
+      <c r="AO99" t="n">
         <v>10.114189</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B100" t="n">
         <v>1840.0</v>
@@ -7701,18 +11586,53 @@
         <v>1879.0</v>
       </c>
       <c r="D100" t="s">
-        <v>529</v>
-      </c>
-      <c r="E100" t="n">
+        <v>564</v>
+      </c>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
+      <c r="R100"/>
+      <c r="S100"/>
+      <c r="T100"/>
+      <c r="U100"/>
+      <c r="V100"/>
+      <c r="W100"/>
+      <c r="X100"/>
+      <c r="Y100"/>
+      <c r="Z100"/>
+      <c r="AA100"/>
+      <c r="AB100"/>
+      <c r="AC100"/>
+      <c r="AD100"/>
+      <c r="AE100"/>
+      <c r="AF100"/>
+      <c r="AG100"/>
+      <c r="AH100"/>
+      <c r="AI100"/>
+      <c r="AJ100"/>
+      <c r="AK100"/>
+      <c r="AL100"/>
+      <c r="AM100"/>
+      <c r="AN100" t="n">
         <v>1869.0</v>
       </c>
-      <c r="F100" t="n">
+      <c r="AO100" t="n">
         <v>13.700507</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B101" t="n">
         <v>1840.0</v>
@@ -7721,18 +11641,53 @@
         <v>1879.0</v>
       </c>
       <c r="D101" t="s">
-        <v>530</v>
-      </c>
-      <c r="E101" t="n">
+        <v>565</v>
+      </c>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+      <c r="R101"/>
+      <c r="S101"/>
+      <c r="T101"/>
+      <c r="U101"/>
+      <c r="V101"/>
+      <c r="W101"/>
+      <c r="X101"/>
+      <c r="Y101"/>
+      <c r="Z101"/>
+      <c r="AA101"/>
+      <c r="AB101"/>
+      <c r="AC101"/>
+      <c r="AD101"/>
+      <c r="AE101"/>
+      <c r="AF101"/>
+      <c r="AG101"/>
+      <c r="AH101"/>
+      <c r="AI101"/>
+      <c r="AJ101"/>
+      <c r="AK101"/>
+      <c r="AL101"/>
+      <c r="AM101"/>
+      <c r="AN101" t="n">
         <v>1869.0</v>
       </c>
-      <c r="F101" t="n">
+      <c r="AO101" t="n">
         <v>11.991464</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B102" t="n">
         <v>1840.0</v>
@@ -7741,18 +11696,53 @@
         <v>1879.0</v>
       </c>
       <c r="D102" t="s">
-        <v>529</v>
-      </c>
-      <c r="E102" t="n">
+        <v>564</v>
+      </c>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102"/>
+      <c r="Q102"/>
+      <c r="R102"/>
+      <c r="S102"/>
+      <c r="T102"/>
+      <c r="U102"/>
+      <c r="V102"/>
+      <c r="W102"/>
+      <c r="X102"/>
+      <c r="Y102"/>
+      <c r="Z102"/>
+      <c r="AA102"/>
+      <c r="AB102"/>
+      <c r="AC102"/>
+      <c r="AD102"/>
+      <c r="AE102"/>
+      <c r="AF102"/>
+      <c r="AG102"/>
+      <c r="AH102"/>
+      <c r="AI102"/>
+      <c r="AJ102"/>
+      <c r="AK102"/>
+      <c r="AL102"/>
+      <c r="AM102"/>
+      <c r="AN102" t="n">
         <v>1870.0</v>
       </c>
-      <c r="F102" t="n">
+      <c r="AO102" t="n">
         <v>13.67054</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B103" t="n">
         <v>1840.0</v>
@@ -7761,18 +11751,53 @@
         <v>1879.0</v>
       </c>
       <c r="D103" t="s">
-        <v>530</v>
-      </c>
-      <c r="E103" t="n">
+        <v>565</v>
+      </c>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+      <c r="P103"/>
+      <c r="Q103"/>
+      <c r="R103"/>
+      <c r="S103"/>
+      <c r="T103"/>
+      <c r="U103"/>
+      <c r="V103"/>
+      <c r="W103"/>
+      <c r="X103"/>
+      <c r="Y103"/>
+      <c r="Z103"/>
+      <c r="AA103"/>
+      <c r="AB103"/>
+      <c r="AC103"/>
+      <c r="AD103"/>
+      <c r="AE103"/>
+      <c r="AF103"/>
+      <c r="AG103"/>
+      <c r="AH103"/>
+      <c r="AI103"/>
+      <c r="AJ103"/>
+      <c r="AK103"/>
+      <c r="AL103"/>
+      <c r="AM103"/>
+      <c r="AN103" t="n">
         <v>1870.0</v>
       </c>
-      <c r="F103" t="n">
+      <c r="AO103" t="n">
         <v>12.318163</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B104" t="n">
         <v>1840.0</v>
@@ -7781,18 +11806,53 @@
         <v>1879.0</v>
       </c>
       <c r="D104" t="s">
-        <v>529</v>
-      </c>
-      <c r="E104" t="n">
+        <v>564</v>
+      </c>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104"/>
+      <c r="Q104"/>
+      <c r="R104"/>
+      <c r="S104"/>
+      <c r="T104"/>
+      <c r="U104"/>
+      <c r="V104"/>
+      <c r="W104"/>
+      <c r="X104"/>
+      <c r="Y104"/>
+      <c r="Z104"/>
+      <c r="AA104"/>
+      <c r="AB104"/>
+      <c r="AC104"/>
+      <c r="AD104"/>
+      <c r="AE104"/>
+      <c r="AF104"/>
+      <c r="AG104"/>
+      <c r="AH104"/>
+      <c r="AI104"/>
+      <c r="AJ104"/>
+      <c r="AK104"/>
+      <c r="AL104"/>
+      <c r="AM104"/>
+      <c r="AN104" t="n">
         <v>1871.0</v>
       </c>
-      <c r="F104" t="n">
+      <c r="AO104" t="n">
         <v>13.650014</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B105" t="n">
         <v>1840.0</v>
@@ -7801,18 +11861,53 @@
         <v>1879.0</v>
       </c>
       <c r="D105" t="s">
-        <v>530</v>
-      </c>
-      <c r="E105" t="n">
+        <v>565</v>
+      </c>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
+      <c r="R105"/>
+      <c r="S105"/>
+      <c r="T105"/>
+      <c r="U105"/>
+      <c r="V105"/>
+      <c r="W105"/>
+      <c r="X105"/>
+      <c r="Y105"/>
+      <c r="Z105"/>
+      <c r="AA105"/>
+      <c r="AB105"/>
+      <c r="AC105"/>
+      <c r="AD105"/>
+      <c r="AE105"/>
+      <c r="AF105"/>
+      <c r="AG105"/>
+      <c r="AH105"/>
+      <c r="AI105"/>
+      <c r="AJ105"/>
+      <c r="AK105"/>
+      <c r="AL105"/>
+      <c r="AM105"/>
+      <c r="AN105" t="n">
         <v>1871.0</v>
       </c>
-      <c r="F105" t="n">
+      <c r="AO105" t="n">
         <v>11.804366</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B106" t="n">
         <v>1840.0</v>
@@ -7821,18 +11916,53 @@
         <v>1879.0</v>
       </c>
       <c r="D106" t="s">
-        <v>529</v>
-      </c>
-      <c r="E106" t="n">
+        <v>564</v>
+      </c>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+      <c r="P106"/>
+      <c r="Q106"/>
+      <c r="R106"/>
+      <c r="S106"/>
+      <c r="T106"/>
+      <c r="U106"/>
+      <c r="V106"/>
+      <c r="W106"/>
+      <c r="X106"/>
+      <c r="Y106"/>
+      <c r="Z106"/>
+      <c r="AA106"/>
+      <c r="AB106"/>
+      <c r="AC106"/>
+      <c r="AD106"/>
+      <c r="AE106"/>
+      <c r="AF106"/>
+      <c r="AG106"/>
+      <c r="AH106"/>
+      <c r="AI106"/>
+      <c r="AJ106"/>
+      <c r="AK106"/>
+      <c r="AL106"/>
+      <c r="AM106"/>
+      <c r="AN106" t="n">
         <v>1872.0</v>
       </c>
-      <c r="F106" t="n">
+      <c r="AO106" t="n">
         <v>13.67054</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B107" t="n">
         <v>1840.0</v>
@@ -7841,18 +11971,53 @@
         <v>1879.0</v>
       </c>
       <c r="D107" t="s">
-        <v>530</v>
-      </c>
-      <c r="E107" t="n">
+        <v>565</v>
+      </c>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107"/>
+      <c r="Q107"/>
+      <c r="R107"/>
+      <c r="S107"/>
+      <c r="T107"/>
+      <c r="U107"/>
+      <c r="V107"/>
+      <c r="W107"/>
+      <c r="X107"/>
+      <c r="Y107"/>
+      <c r="Z107"/>
+      <c r="AA107"/>
+      <c r="AB107"/>
+      <c r="AC107"/>
+      <c r="AD107"/>
+      <c r="AE107"/>
+      <c r="AF107"/>
+      <c r="AG107"/>
+      <c r="AH107"/>
+      <c r="AI107"/>
+      <c r="AJ107"/>
+      <c r="AK107"/>
+      <c r="AL107"/>
+      <c r="AM107"/>
+      <c r="AN107" t="n">
         <v>1872.0</v>
       </c>
-      <c r="F107" t="n">
+      <c r="AO107" t="n">
         <v>12.944337</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B108" t="n">
         <v>1840.0</v>
@@ -7861,18 +12026,53 @@
         <v>1879.0</v>
       </c>
       <c r="D108" t="s">
-        <v>529</v>
-      </c>
-      <c r="E108" t="n">
+        <v>564</v>
+      </c>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+      <c r="Q108"/>
+      <c r="R108"/>
+      <c r="S108"/>
+      <c r="T108"/>
+      <c r="U108"/>
+      <c r="V108"/>
+      <c r="W108"/>
+      <c r="X108"/>
+      <c r="Y108"/>
+      <c r="Z108"/>
+      <c r="AA108"/>
+      <c r="AB108"/>
+      <c r="AC108"/>
+      <c r="AD108"/>
+      <c r="AE108"/>
+      <c r="AF108"/>
+      <c r="AG108"/>
+      <c r="AH108"/>
+      <c r="AI108"/>
+      <c r="AJ108"/>
+      <c r="AK108"/>
+      <c r="AL108"/>
+      <c r="AM108"/>
+      <c r="AN108" t="n">
         <v>1873.0</v>
       </c>
-      <c r="F108" t="n">
+      <c r="AO108" t="n">
         <v>20.521239</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B109" t="n">
         <v>1840.0</v>
@@ -7881,18 +12081,53 @@
         <v>1879.0</v>
       </c>
       <c r="D109" t="s">
-        <v>530</v>
-      </c>
-      <c r="E109" t="n">
+        <v>565</v>
+      </c>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+      <c r="Q109"/>
+      <c r="R109"/>
+      <c r="S109"/>
+      <c r="T109"/>
+      <c r="U109"/>
+      <c r="V109"/>
+      <c r="W109"/>
+      <c r="X109"/>
+      <c r="Y109"/>
+      <c r="Z109"/>
+      <c r="AA109"/>
+      <c r="AB109"/>
+      <c r="AC109"/>
+      <c r="AD109"/>
+      <c r="AE109"/>
+      <c r="AF109"/>
+      <c r="AG109"/>
+      <c r="AH109"/>
+      <c r="AI109"/>
+      <c r="AJ109"/>
+      <c r="AK109"/>
+      <c r="AL109"/>
+      <c r="AM109"/>
+      <c r="AN109" t="n">
         <v>1873.0</v>
       </c>
-      <c r="F109" t="n">
+      <c r="AO109" t="n">
         <v>11.773524</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B110" t="n">
         <v>1840.0</v>
@@ -7901,18 +12136,53 @@
         <v>1879.0</v>
       </c>
       <c r="D110" t="s">
-        <v>529</v>
-      </c>
-      <c r="E110" t="n">
+        <v>564</v>
+      </c>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+      <c r="Q110"/>
+      <c r="R110"/>
+      <c r="S110"/>
+      <c r="T110"/>
+      <c r="U110"/>
+      <c r="V110"/>
+      <c r="W110"/>
+      <c r="X110"/>
+      <c r="Y110"/>
+      <c r="Z110"/>
+      <c r="AA110"/>
+      <c r="AB110"/>
+      <c r="AC110"/>
+      <c r="AD110"/>
+      <c r="AE110"/>
+      <c r="AF110"/>
+      <c r="AG110"/>
+      <c r="AH110"/>
+      <c r="AI110"/>
+      <c r="AJ110"/>
+      <c r="AK110"/>
+      <c r="AL110"/>
+      <c r="AM110"/>
+      <c r="AN110" t="n">
         <v>1874.0</v>
       </c>
-      <c r="F110" t="n">
+      <c r="AO110" t="n">
         <v>20.610058</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B111" t="n">
         <v>1840.0</v>
@@ -7921,18 +12191,53 @@
         <v>1879.0</v>
       </c>
       <c r="D111" t="s">
-        <v>530</v>
-      </c>
-      <c r="E111" t="n">
+        <v>565</v>
+      </c>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
+      <c r="R111"/>
+      <c r="S111"/>
+      <c r="T111"/>
+      <c r="U111"/>
+      <c r="V111"/>
+      <c r="W111"/>
+      <c r="X111"/>
+      <c r="Y111"/>
+      <c r="Z111"/>
+      <c r="AA111"/>
+      <c r="AB111"/>
+      <c r="AC111"/>
+      <c r="AD111"/>
+      <c r="AE111"/>
+      <c r="AF111"/>
+      <c r="AG111"/>
+      <c r="AH111"/>
+      <c r="AI111"/>
+      <c r="AJ111"/>
+      <c r="AK111"/>
+      <c r="AL111"/>
+      <c r="AM111"/>
+      <c r="AN111" t="n">
         <v>1874.0</v>
       </c>
-      <c r="F111" t="n">
+      <c r="AO111" t="n">
         <v>11.571102</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B112" t="n">
         <v>1840.0</v>
@@ -7941,18 +12246,53 @@
         <v>1879.0</v>
       </c>
       <c r="D112" t="s">
-        <v>529</v>
-      </c>
-      <c r="E112" t="n">
+        <v>564</v>
+      </c>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+      <c r="R112"/>
+      <c r="S112"/>
+      <c r="T112"/>
+      <c r="U112"/>
+      <c r="V112"/>
+      <c r="W112"/>
+      <c r="X112"/>
+      <c r="Y112"/>
+      <c r="Z112"/>
+      <c r="AA112"/>
+      <c r="AB112"/>
+      <c r="AC112"/>
+      <c r="AD112"/>
+      <c r="AE112"/>
+      <c r="AF112"/>
+      <c r="AG112"/>
+      <c r="AH112"/>
+      <c r="AI112"/>
+      <c r="AJ112"/>
+      <c r="AK112"/>
+      <c r="AL112"/>
+      <c r="AM112"/>
+      <c r="AN112" t="n">
         <v>1875.0</v>
       </c>
-      <c r="F112" t="n">
+      <c r="AO112" t="n">
         <v>20.721094</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B113" t="n">
         <v>1840.0</v>
@@ -7961,18 +12301,53 @@
         <v>1879.0</v>
       </c>
       <c r="D113" t="s">
-        <v>530</v>
-      </c>
-      <c r="E113" t="n">
+        <v>565</v>
+      </c>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113"/>
+      <c r="S113"/>
+      <c r="T113"/>
+      <c r="U113"/>
+      <c r="V113"/>
+      <c r="W113"/>
+      <c r="X113"/>
+      <c r="Y113"/>
+      <c r="Z113"/>
+      <c r="AA113"/>
+      <c r="AB113"/>
+      <c r="AC113"/>
+      <c r="AD113"/>
+      <c r="AE113"/>
+      <c r="AF113"/>
+      <c r="AG113"/>
+      <c r="AH113"/>
+      <c r="AI113"/>
+      <c r="AJ113"/>
+      <c r="AK113"/>
+      <c r="AL113"/>
+      <c r="AM113"/>
+      <c r="AN113" t="n">
         <v>1875.0</v>
       </c>
-      <c r="F113" t="n">
+      <c r="AO113" t="n">
         <v>12.754273</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B114" t="n">
         <v>1840.0</v>
@@ -7981,18 +12356,53 @@
         <v>1879.0</v>
       </c>
       <c r="D114" t="s">
-        <v>529</v>
-      </c>
-      <c r="E114" t="n">
+        <v>564</v>
+      </c>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114"/>
+      <c r="S114"/>
+      <c r="T114"/>
+      <c r="U114"/>
+      <c r="V114"/>
+      <c r="W114"/>
+      <c r="X114"/>
+      <c r="Y114"/>
+      <c r="Z114"/>
+      <c r="AA114"/>
+      <c r="AB114"/>
+      <c r="AC114"/>
+      <c r="AD114"/>
+      <c r="AE114"/>
+      <c r="AF114"/>
+      <c r="AG114"/>
+      <c r="AH114"/>
+      <c r="AI114"/>
+      <c r="AJ114"/>
+      <c r="AK114"/>
+      <c r="AL114"/>
+      <c r="AM114"/>
+      <c r="AN114" t="n">
         <v>1876.0</v>
       </c>
-      <c r="F114" t="n">
+      <c r="AO114" t="n">
         <v>20.644096</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B115" t="n">
         <v>1840.0</v>
@@ -8001,18 +12411,53 @@
         <v>1879.0</v>
       </c>
       <c r="D115" t="s">
-        <v>530</v>
-      </c>
-      <c r="E115" t="n">
+        <v>565</v>
+      </c>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115"/>
+      <c r="R115"/>
+      <c r="S115"/>
+      <c r="T115"/>
+      <c r="U115"/>
+      <c r="V115"/>
+      <c r="W115"/>
+      <c r="X115"/>
+      <c r="Y115"/>
+      <c r="Z115"/>
+      <c r="AA115"/>
+      <c r="AB115"/>
+      <c r="AC115"/>
+      <c r="AD115"/>
+      <c r="AE115"/>
+      <c r="AF115"/>
+      <c r="AG115"/>
+      <c r="AH115"/>
+      <c r="AI115"/>
+      <c r="AJ115"/>
+      <c r="AK115"/>
+      <c r="AL115"/>
+      <c r="AM115"/>
+      <c r="AN115" t="n">
         <v>1876.0</v>
       </c>
-      <c r="F115" t="n">
+      <c r="AO115" t="n">
         <v>13.275095</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B116" t="n">
         <v>1840.0</v>
@@ -8021,18 +12466,53 @@
         <v>1879.0</v>
       </c>
       <c r="D116" t="s">
-        <v>529</v>
-      </c>
-      <c r="E116" t="n">
+        <v>564</v>
+      </c>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116"/>
+      <c r="R116"/>
+      <c r="S116"/>
+      <c r="T116"/>
+      <c r="U116"/>
+      <c r="V116"/>
+      <c r="W116"/>
+      <c r="X116"/>
+      <c r="Y116"/>
+      <c r="Z116"/>
+      <c r="AA116"/>
+      <c r="AB116"/>
+      <c r="AC116"/>
+      <c r="AD116"/>
+      <c r="AE116"/>
+      <c r="AF116"/>
+      <c r="AG116"/>
+      <c r="AH116"/>
+      <c r="AI116"/>
+      <c r="AJ116"/>
+      <c r="AK116"/>
+      <c r="AL116"/>
+      <c r="AM116"/>
+      <c r="AN116" t="n">
         <v>1877.0</v>
       </c>
-      <c r="F116" t="n">
+      <c r="AO116" t="n">
         <v>20.639835</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B117" t="n">
         <v>1840.0</v>
@@ -8041,18 +12521,53 @@
         <v>1879.0</v>
       </c>
       <c r="D117" t="s">
-        <v>530</v>
-      </c>
-      <c r="E117" t="n">
+        <v>565</v>
+      </c>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
+      <c r="R117"/>
+      <c r="S117"/>
+      <c r="T117"/>
+      <c r="U117"/>
+      <c r="V117"/>
+      <c r="W117"/>
+      <c r="X117"/>
+      <c r="Y117"/>
+      <c r="Z117"/>
+      <c r="AA117"/>
+      <c r="AB117"/>
+      <c r="AC117"/>
+      <c r="AD117"/>
+      <c r="AE117"/>
+      <c r="AF117"/>
+      <c r="AG117"/>
+      <c r="AH117"/>
+      <c r="AI117"/>
+      <c r="AJ117"/>
+      <c r="AK117"/>
+      <c r="AL117"/>
+      <c r="AM117"/>
+      <c r="AN117" t="n">
         <v>1877.0</v>
       </c>
-      <c r="F117" t="n">
+      <c r="AO117" t="n">
         <v>12.94814</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B118" t="n">
         <v>1840.0</v>
@@ -8061,18 +12576,53 @@
         <v>1879.0</v>
       </c>
       <c r="D118" t="s">
-        <v>529</v>
-      </c>
-      <c r="E118" t="n">
+        <v>564</v>
+      </c>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+      <c r="P118"/>
+      <c r="Q118"/>
+      <c r="R118"/>
+      <c r="S118"/>
+      <c r="T118"/>
+      <c r="U118"/>
+      <c r="V118"/>
+      <c r="W118"/>
+      <c r="X118"/>
+      <c r="Y118"/>
+      <c r="Z118"/>
+      <c r="AA118"/>
+      <c r="AB118"/>
+      <c r="AC118"/>
+      <c r="AD118"/>
+      <c r="AE118"/>
+      <c r="AF118"/>
+      <c r="AG118"/>
+      <c r="AH118"/>
+      <c r="AI118"/>
+      <c r="AJ118"/>
+      <c r="AK118"/>
+      <c r="AL118"/>
+      <c r="AM118"/>
+      <c r="AN118" t="n">
         <v>1878.0</v>
       </c>
-      <c r="F118" t="n">
+      <c r="AO118" t="n">
         <v>20.627063</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B119" t="n">
         <v>1840.0</v>
@@ -8081,18 +12631,53 @@
         <v>1879.0</v>
       </c>
       <c r="D119" t="s">
-        <v>530</v>
-      </c>
-      <c r="E119" t="n">
+        <v>565</v>
+      </c>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119"/>
+      <c r="Q119"/>
+      <c r="R119"/>
+      <c r="S119"/>
+      <c r="T119"/>
+      <c r="U119"/>
+      <c r="V119"/>
+      <c r="W119"/>
+      <c r="X119"/>
+      <c r="Y119"/>
+      <c r="Z119"/>
+      <c r="AA119"/>
+      <c r="AB119"/>
+      <c r="AC119"/>
+      <c r="AD119"/>
+      <c r="AE119"/>
+      <c r="AF119"/>
+      <c r="AG119"/>
+      <c r="AH119"/>
+      <c r="AI119"/>
+      <c r="AJ119"/>
+      <c r="AK119"/>
+      <c r="AL119"/>
+      <c r="AM119"/>
+      <c r="AN119" t="n">
         <v>1878.0</v>
       </c>
-      <c r="F119" t="n">
+      <c r="AO119" t="n">
         <v>13.509694</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B120" t="n">
         <v>1840.0</v>
@@ -8101,18 +12686,53 @@
         <v>1879.0</v>
       </c>
       <c r="D120" t="s">
-        <v>529</v>
-      </c>
-      <c r="E120" t="n">
+        <v>564</v>
+      </c>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120"/>
+      <c r="Q120"/>
+      <c r="R120"/>
+      <c r="S120"/>
+      <c r="T120"/>
+      <c r="U120"/>
+      <c r="V120"/>
+      <c r="W120"/>
+      <c r="X120"/>
+      <c r="Y120"/>
+      <c r="Z120"/>
+      <c r="AA120"/>
+      <c r="AB120"/>
+      <c r="AC120"/>
+      <c r="AD120"/>
+      <c r="AE120"/>
+      <c r="AF120"/>
+      <c r="AG120"/>
+      <c r="AH120"/>
+      <c r="AI120"/>
+      <c r="AJ120"/>
+      <c r="AK120"/>
+      <c r="AL120"/>
+      <c r="AM120"/>
+      <c r="AN120" t="n">
         <v>1879.0</v>
       </c>
-      <c r="F120" t="n">
+      <c r="AO120" t="n">
         <v>20.610058</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B121" t="n">
         <v>1840.0</v>
@@ -8121,12 +12741,47 @@
         <v>1879.0</v>
       </c>
       <c r="D121" t="s">
-        <v>530</v>
-      </c>
-      <c r="E121" t="n">
+        <v>565</v>
+      </c>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+      <c r="P121"/>
+      <c r="Q121"/>
+      <c r="R121"/>
+      <c r="S121"/>
+      <c r="T121"/>
+      <c r="U121"/>
+      <c r="V121"/>
+      <c r="W121"/>
+      <c r="X121"/>
+      <c r="Y121"/>
+      <c r="Z121"/>
+      <c r="AA121"/>
+      <c r="AB121"/>
+      <c r="AC121"/>
+      <c r="AD121"/>
+      <c r="AE121"/>
+      <c r="AF121"/>
+      <c r="AG121"/>
+      <c r="AH121"/>
+      <c r="AI121"/>
+      <c r="AJ121"/>
+      <c r="AK121"/>
+      <c r="AL121"/>
+      <c r="AM121"/>
+      <c r="AN121" t="n">
         <v>1879.0</v>
       </c>
-      <c r="F121" t="n">
+      <c r="AO121" t="n">
         <v>13.763285</v>
       </c>
     </row>
@@ -8145,112 +12800,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="B1" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="C1" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="B2" t="s">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="C2" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="B3" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C3" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="B4" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="C4" t="s">
-        <v>546</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="B5" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C5" t="s">
-        <v>547</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="B6" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C6" t="s">
-        <v>548</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>542</v>
+        <v>577</v>
       </c>
       <c r="B7" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="C7" t="s">
-        <v>549</v>
+        <v>584</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="B8" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="C8" t="s">
-        <v>550</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="B9" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="C9" t="s">
-        <v>551</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>542</v>
+        <v>577</v>
       </c>
       <c r="B10" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="C10" t="s">
-        <v>552</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
